--- a/db_schema_definitions/db_schema_definitions.xlsx
+++ b/db_schema_definitions/db_schema_definitions.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/smi9a9_csiro_au/Documents/Documents/AM_metadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/smi9a9_csiro_au/Documents/Documents/AM_metadata/Github/contextualdb_doc/db_schema_definitions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAC5C974-8A2E-4FE5-A7C3-65E5082B3AFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFA42528-2505-4CDF-8739-A4A5BC9D3E6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="225" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9555" yWindow="5310" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="2.0.0" sheetId="1" r:id="rId1"/>
+    <sheet name="2.0.1" sheetId="1" r:id="rId1"/>
+    <sheet name="Control_vocab" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2430" uniqueCount="1032">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2880" uniqueCount="1480">
   <si>
     <t>Field</t>
   </si>
@@ -2828,9 +2829,6 @@
     <t>MISx def: Amount or size of sample (volume, mass or area) that was collected</t>
   </si>
   <si>
-    <t>MIXs def: Volume (ml), weight (g) of processed sample, or surface area swabbed from sample for DNA extraction</t>
-  </si>
-  <si>
     <t>Describe any condition(s) involved in sample acquisition, that may influece the sample volume obtained. This may include noticble physical conditions of the waterbody (e.g., high biomass, hight particulate load) or I issues with sampling equipment (e.g., mechanical breakage)</t>
   </si>
   <si>
@@ -3126,13 +3124,2652 @@
   </si>
   <si>
     <t xml:space="preserve">URL pointing to database schema definitions </t>
+  </si>
+  <si>
+    <t>A) Environment</t>
+  </si>
+  <si>
+    <t>B) Sample_type</t>
+  </si>
+  <si>
+    <t>C) Host type</t>
+  </si>
+  <si>
+    <t>D) host associated microbiome zone</t>
+  </si>
+  <si>
+    <t>0) Env_Meduim</t>
+  </si>
+  <si>
+    <t>1) Horizon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2) Land/Env_Use </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3) Env_Feature  (Ecological zone) </t>
+  </si>
+  <si>
+    <t>4) Env_Biome (Vegetation type)</t>
+  </si>
+  <si>
+    <t>5) Profile position</t>
+  </si>
+  <si>
+    <t>6) Australian Soil Classification</t>
+  </si>
+  <si>
+    <t>8) Crop rotation</t>
+  </si>
+  <si>
+    <t>9) Tillage</t>
+  </si>
+  <si>
+    <t>10) Colour</t>
+  </si>
+  <si>
+    <t>11) Sample_volume_notes</t>
+  </si>
+  <si>
+    <t>12) Sample_integrity_warnings</t>
+  </si>
+  <si>
+    <t>Free-living</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Soil:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Soil is an environmental material which is primarily composed of minerals, varying proportions of sand, silt, and clay, organic material such as humus, gases, liquids, and a broad range of resident micro- and macroorganisms.</t>
+    </r>
+  </si>
+  <si>
+    <t>seaweed</t>
+  </si>
+  <si>
+    <t>surface</t>
+  </si>
+  <si>
+    <t>In this field, report which environmental material or materials (pipe separated) immediately surrounded your sample or specimen prior to sampling, using one or more subclasses of ENVO’s environmental material class: http://purl.obolibrary.org/obo/ENVO_00010483. Format (one term): termLabel [termID]; Format (multiple terms): termLabel [termID]|termLabel [termID]|termLabel [termID]. Example: Annotating a fish swimming in the upper 100 m of the Atlantic Ocean, consider: ocean water [ENVO:00002151]. Example: Annotating a duck on a pond consider: pond water [ENVO:00002228]|air ENVO_00002005. If needed, request new terms on the ENVO tracker, identified here: http://www.obofoundry.org/ontology/envo.html</t>
+  </si>
+  <si>
+    <t>In this field, report the specific layer in the land area which measures parallel to the soil surface and possesses physical characteristics which differ from the layers above and beneath</t>
+  </si>
+  <si>
+    <t>Choose one category from the link below that best describes the Land use. If no suitable category exists choose from the options from “Class 7 Other” below.</t>
+  </si>
+  <si>
+    <t>Arid</t>
+  </si>
+  <si>
+    <t>Marsh</t>
+  </si>
+  <si>
+    <t>Summit/ridge</t>
+  </si>
+  <si>
+    <r>
+      <t>Anthroposols</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>No crop</t>
+  </si>
+  <si>
+    <r>
+      <t>Conservation Tillage or Zero Tillage:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Tillage system that does not invert plant material into the soil, crop residues are left on the surface and crops are planted through the residue using a drill or cutting disc.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">BR: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Brown</t>
+    </r>
+  </si>
+  <si>
+    <t>In this field report any characteristics that may contribute to the collection of sample volumes different to the collection method used</t>
+  </si>
+  <si>
+    <t>In this field report any factors that may influence downstream analysis of the sample. If more than one, values should be pipe separated</t>
+  </si>
+  <si>
+    <t>Pelagic</t>
+  </si>
+  <si>
+    <t>seagrass</t>
+  </si>
+  <si>
+    <t>rhizosphere</t>
+  </si>
+  <si>
+    <t>Fresh water [ENVO_00002011]</t>
+  </si>
+  <si>
+    <r>
+      <t>O:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The organic or litter layer mainly over the soil surface composed of fresh and decaying plant residue. Typically composed of &gt;25% organic soil materials.  This layer can usually be easily brushed away by hand.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.agriculture.gov.au/sites/default/files/abares/aclump/documents/ALUM_Classification_V7_May_2010_detailed.pdf</t>
+  </si>
+  <si>
+    <t>Semi arid</t>
+  </si>
+  <si>
+    <t>Bog</t>
+  </si>
+  <si>
+    <t>Upper slope</t>
+  </si>
+  <si>
+    <t>Organosols</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cereals - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>wheat</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Reduced Tillage:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Less intensity of cultivation than conventional tillage.  Minimal soil disturbance typically limited to planting area.  Common examples are ridge till, strip tillage, zonal tillage, chisel or tined.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">GR: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Gray</t>
+    </r>
+  </si>
+  <si>
+    <t>High biomass/particulate matter</t>
+  </si>
+  <si>
+    <t>WARNING: Storage or transport conditions compromised</t>
+  </si>
+  <si>
+    <t>Coral</t>
+  </si>
+  <si>
+    <t>coral</t>
+  </si>
+  <si>
+    <t>gut</t>
+  </si>
+  <si>
+    <t>Saline water [ENVO_00002010]</t>
+  </si>
+  <si>
+    <r>
+      <t>A:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> This is the top layer of soil (often called top soil) that typically has the highest microbial activity.  It is composed of a mixture of mineral material and accumulated humified organic matter. Also, any plowed or disturbed surface layer.</t>
+    </r>
+  </si>
+  <si>
+    <t>NOTE in the above document  a typo mis-classifys "Abandoned intensive animal husbandry" as "5.6.9 " , here this has been rectified to "5.2.9"</t>
+  </si>
+  <si>
+    <t>Temperate</t>
+  </si>
+  <si>
+    <t>Mangrove</t>
+  </si>
+  <si>
+    <t>Mid slope</t>
+  </si>
+  <si>
+    <t>Podosols</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cereals - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>barley</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Conventional Tillage:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Soil is mechanically inverted typically using a mouldboard or a disc plough. Crop residues and weeds are incorporated into the soil and larger aggregates are broken down to prepare a seedbed.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">BK: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Black</t>
+    </r>
+  </si>
+  <si>
+    <t>Low biomass/particulate matter</t>
+  </si>
+  <si>
+    <t>WARNING: Post sampling contamination</t>
+  </si>
+  <si>
+    <t>Sediment</t>
+  </si>
+  <si>
+    <t>sponge</t>
+  </si>
+  <si>
+    <t>corpus</t>
+  </si>
+  <si>
+    <t>Sea water [ENVO_00002149]</t>
+  </si>
+  <si>
+    <r>
+      <t>E:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> This is the eluviated layer that is only seen in older soils and is not a universally used horizon designation.  If present it is below the A horizon and commonly is recognized by its lighter colored due to loss of clay, iron, aluminum, organic matter or some combination of these components. </t>
+    </r>
+  </si>
+  <si>
+    <t>Class 7 Other</t>
+  </si>
+  <si>
+    <t>Tropical (dry)</t>
+  </si>
+  <si>
+    <t>Heathland</t>
+  </si>
+  <si>
+    <t>Lower slope</t>
+  </si>
+  <si>
+    <t>Vertosols</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cereals - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>maize</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">BRGR: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Brown Gray</t>
+    </r>
+  </si>
+  <si>
+    <t>Mechanical breakage</t>
+  </si>
+  <si>
+    <t>WARNING: Samples mislabelled (date of sampling)</t>
+  </si>
+  <si>
+    <t>Host associated</t>
+  </si>
+  <si>
+    <t>Coastal water</t>
+  </si>
+  <si>
+    <t>type of crop</t>
+  </si>
+  <si>
+    <t>secretion</t>
+  </si>
+  <si>
+    <t>Lake water [ENVO_04000007]</t>
+  </si>
+  <si>
+    <r>
+      <t>B:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  In lay terms this is often called sub-soil.  It is the layer where most of the mineral materials that leach from the upper horizons accumulate.  Accumulation of clay, iron, silica, calcium carbonate, calcium sulphate, sesquioxides, and/or humus can occur.  Soil structure and color often differs from the A horizon. Color may be redder or browner due to iron accumulation.  Structure may be more granular, prismatic, or blocky. </t>
+    </r>
+  </si>
+  <si>
+    <t>7.1 Coastal water (Estuary and coastal water)</t>
+  </si>
+  <si>
+    <t>Tropical (wet)</t>
+  </si>
+  <si>
+    <t>Cropland</t>
+  </si>
+  <si>
+    <t>Valley floor</t>
+  </si>
+  <si>
+    <t>Hydrosols</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cereals - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>triticale</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">GRBR: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Gray Brown</t>
+    </r>
+  </si>
+  <si>
+    <t>Automated cut-off</t>
+  </si>
+  <si>
+    <t>Other - {specify}</t>
+  </si>
+  <si>
+    <t>Terrestrial plant</t>
+  </si>
+  <si>
+    <t>type of plant</t>
+  </si>
+  <si>
+    <t>leaf</t>
+  </si>
+  <si>
+    <t>Hypersaline water [ENVO_00002012]</t>
+  </si>
+  <si>
+    <r>
+      <t>C:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  This is basically the weathered parent rock (excluding hard bedrock) that has not been affected by soil formation.  Composed mainly of large rocks. </t>
+    </r>
+  </si>
+  <si>
+    <t>Coastal Waters is a belt of water between the limits of the lowest astronomical tide line and a line 3 nautical miles (M) seaward (derived from: https://www.ga.gov.au/scientific-topics/marine/jurisdiction/maritime-boundary-definitions)</t>
+  </si>
+  <si>
+    <t>Montane</t>
+  </si>
+  <si>
+    <t>Grassland</t>
+  </si>
+  <si>
+    <t>Depression</t>
+  </si>
+  <si>
+    <t>Kurosols</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cereals - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>oats</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">LTBR: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Light Brown</t>
+    </r>
+  </si>
+  <si>
+    <t>Other – (specify)</t>
+  </si>
+  <si>
+    <t>Seaweed</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
+    <t>Soil [ENVO_00001998]</t>
+  </si>
+  <si>
+    <r>
+      <t>R layer:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> This is the consolidated unweathered hard bedrock beneath the soil.  Usually is one large continuous rock mass.  The bedrock commonly found below the C horizon but under certain circumstances can be found directly below the A or B horizon.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.1.1  Coastal water - conservation</t>
+  </si>
+  <si>
+    <t>lacustrine (lakes)</t>
+  </si>
+  <si>
+    <t>Shrubland</t>
+  </si>
+  <si>
+    <t>Sodosols</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cereals - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sorghum</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">DKBR: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dark Brown</t>
+    </r>
+  </si>
+  <si>
+    <t>Sponge</t>
+  </si>
+  <si>
+    <t>Sediment [ENVO_00002007]</t>
+  </si>
+  <si>
+    <r>
+      <t>Permafrost:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  Soils that are permanently frozen due to sustained temperature of less than 0ºC for two or more years.  Typically found in Polar regions.</t>
+    </r>
+  </si>
+  <si>
+    <t>7.1.1  Coastal water- production</t>
+  </si>
+  <si>
+    <t>Riverine (rivers and streams)</t>
+  </si>
+  <si>
+    <t>Woodland</t>
+  </si>
+  <si>
+    <t>Chromosols</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cereals - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>other</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">LTGR: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Light Gray</t>
+    </r>
+  </si>
+  <si>
+    <t>Seagrass</t>
+  </si>
+  <si>
+    <t>Additional terms can be found at:   http://purl.obolibrary.org/obo/ENVO_00010483</t>
+  </si>
+  <si>
+    <t>7.1.1  Coastal water- intensive use</t>
+  </si>
+  <si>
+    <t>Estuarine (tidal including deltas, tidal marshes and mangrove swamps)</t>
+  </si>
+  <si>
+    <t>Forest</t>
+  </si>
+  <si>
+    <t>Calcarosols</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Beverage and spice crops - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>coffee</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">DKGR: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dark Gray</t>
+    </r>
+  </si>
+  <si>
+    <t>Fresh water</t>
+  </si>
+  <si>
+    <t>Palustrine (non-tidal marshes, swamps and bogs)</t>
+  </si>
+  <si>
+    <t>Savannah</t>
+  </si>
+  <si>
+    <t>Ferrosols</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Beverage and spice crops - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tea</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">BRYW: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Brown Yellow</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Surface water:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Surface water is water located on top of the Earth's surface such as oceans, rivers, creeks, and wetlands. Use this term if no other suitable term is listed</t>
+    </r>
+  </si>
+  <si>
+    <t>7.2 Open ocean water</t>
+  </si>
+  <si>
+    <t>Coastal  (coastal terrestrial including cliff, rocky shore)</t>
+  </si>
+  <si>
+    <t>Dune</t>
+  </si>
+  <si>
+    <t>Dermosols</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Beverage and spice crops - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cocoa</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">BRRD: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Brown Red</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Groundwater:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Water found underground in the cracks and spaces in soil, sand and rock.</t>
+    </r>
+  </si>
+  <si>
+    <t>Definitions:</t>
+  </si>
+  <si>
+    <t>Open ocean is defined here as being located  beyond a 3 nautical mile limit of the low tide point of a land mass(s)</t>
+  </si>
+  <si>
+    <t>Marine - neritic (coastal off shore)</t>
+  </si>
+  <si>
+    <t>Desert</t>
+  </si>
+  <si>
+    <t>Kandosols</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Beverage and spice crops - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>other</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">BROR: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Brown Orange</t>
+    </r>
+  </si>
+  <si>
+    <t>Fresh water ENVO_00002011. http://purl.obolibrary.org/obo/ENVO_00002011 Definition: Water which has a low concentration of dissolved solutes, particularly that of sodium chloride. The lower bound of solute concentration required for water to be considered freshwater is variable, but is always less than that of seawater, and often cited as less than 1 gram of solutes per 1 litre of water.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.2.1  Open ocean water- conservation</t>
+  </si>
+  <si>
+    <t>Marine - epeiric (inland)</t>
+  </si>
+  <si>
+    <t>Coral reef</t>
+  </si>
+  <si>
+    <t>Rudosols</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hay and silage - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>grasses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">BRBK: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Brown Black</t>
+    </r>
+  </si>
+  <si>
+    <t>Saline water ENVO_00002010. http://purl.obolibrary.org/obo/ENVO_00002010 Definition: Water which contains a significant concentration of dissolved salts. The threshold salt concentration for classifying water as saline varies, but typically begins at about 1,000 to 3,000 parts salt per million parts water or 0.1–0.3% salt by weight</t>
+  </si>
+  <si>
+    <t>7.2.2  Open ocean water - production</t>
+  </si>
+  <si>
+    <t>Marine - marginal sea</t>
+  </si>
+  <si>
+    <t>Sponge reef</t>
+  </si>
+  <si>
+    <t>Tenosols</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hay and silage - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>grasses and legume mix</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">BRWH: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Brown White</t>
+    </r>
+  </si>
+  <si>
+    <t>Sea water ENVO_00002149 http://purl.obolibrary.org/obo/ENVO_00002149 Definition: Water which has physicochemical properties that have been determined by the processes occuring in a sea or ocean. This definition refers to water that is actually in a sea or ocean. This water may have a wide range of salinity levels.</t>
+  </si>
+  <si>
+    <t>7.2.3  Open ocean water - intensive use</t>
+  </si>
+  <si>
+    <t>Marine - pelagic</t>
+  </si>
+  <si>
+    <t>Kelp forest</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hay and silage - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pure legume</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">GRBK: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Gray Black</t>
+    </r>
+  </si>
+  <si>
+    <t>Lake water ENVO_04000007 http://purl.obolibrary.org/obo/ENVO_04000007 Definition: Water which is part of a lake</t>
+  </si>
+  <si>
+    <t>Marine - benthic</t>
+  </si>
+  <si>
+    <t>Seagrass bed/meadow</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hay and silage - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>other</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">GRWH: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Gray White</t>
+    </r>
+  </si>
+  <si>
+    <t>Hypersaline water ENVO_00002012 http://purl.obolibrary.org/obo/ENVO_00002012 Definition: Water which contains a highly increased concentration of dissolved salts, surpassing the average salinity of seawater.</t>
+  </si>
+  <si>
+    <t>Major head Options</t>
+  </si>
+  <si>
+    <t>Sub head Options</t>
+  </si>
+  <si>
+    <t>Polar</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Oil seeds - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>canola</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">GRYW: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Gray Yellow</t>
+    </r>
+  </si>
+  <si>
+    <t>Soil ENVO_00001998. Definition: Soil is an environmental material which is primarily composed of minerals, varying proportions of sand, silt, and clay, organic material such as humus, gases, liquids, and a broad range of resident micro- and macroorganisms. [database_cross_reference: https://en.wikipedia.org/wiki/Soil]</t>
+  </si>
+  <si>
+    <t>1 Conservation and Natural Environments</t>
+  </si>
+  <si>
+    <t>1.1 Nature conservation</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Oil seeds - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sunflower</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">WH: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>White</t>
+    </r>
+  </si>
+  <si>
+    <t>Sediment ENVO_00002007. Definition Sediment is an environmental substance comprised of any particulate matter that can be transported by fluid flow and which eventually is deposited as a layer of solid particles on the bedor bottom of a body of water or other liquid. [database_cross_reference: https://en.wikipedia.org/wiki/Sediment]</t>
+  </si>
+  <si>
+    <t>2 Production from Relatively Natural Environments</t>
+  </si>
+  <si>
+    <t>1.1.1 Strict nature reserve</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Oil seeds - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>flax</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">YW: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Yellow</t>
+    </r>
+  </si>
+  <si>
+    <t>3 Production from Dryland Agriculture and Plantations</t>
+  </si>
+  <si>
+    <t>1.1.2 Wilderness area</t>
+  </si>
+  <si>
+    <r>
+      <t>Oil seeds -</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>soybean</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">YWBR: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Yellow Brown</t>
+    </r>
+  </si>
+  <si>
+    <t>4 Production from Irrigated Agriculture and Plantations</t>
+  </si>
+  <si>
+    <t>1.1.3 National park</t>
+  </si>
+  <si>
+    <r>
+      <t>Oil seeds -</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>other</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">YWGR: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Yellow Gray</t>
+    </r>
+  </si>
+  <si>
+    <t>5 Intensive Uses</t>
+  </si>
+  <si>
+    <t>1.1.4 Natural feature protection</t>
+  </si>
+  <si>
+    <t>Sugar</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">OR: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Orange</t>
+    </r>
+  </si>
+  <si>
+    <t>6 Water</t>
+  </si>
+  <si>
+    <t>1.1.5 Habitat/species management area</t>
+  </si>
+  <si>
+    <t>Cotton</t>
+  </si>
+  <si>
+    <t>7 Other</t>
+  </si>
+  <si>
+    <t>1.1.6 Protected landscape</t>
+  </si>
+  <si>
+    <t>Alkaloid poppies</t>
+  </si>
+  <si>
+    <t>1.1.7 Other conserved area</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pulses - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lupin</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pulses - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lentil</t>
+    </r>
+  </si>
+  <si>
+    <t>1.2 Managed resource protection</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pulses - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chickpea</t>
+    </r>
+  </si>
+  <si>
+    <t>1.2.1 Biodiversity</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pulses - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vetch</t>
+    </r>
+  </si>
+  <si>
+    <t>1.2.2 Surface water supply</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pulses - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>faba/broad bean</t>
+    </r>
+  </si>
+  <si>
+    <t>1.2.3 Groundwater</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pulses - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>azuki bean</t>
+    </r>
+  </si>
+  <si>
+    <t>1.2.4 Landscape</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pulses - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mung bean</t>
+    </r>
+  </si>
+  <si>
+    <t>1.2.5 Traditional Indigenous uses</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pulses - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>other</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Seasonal vegetables and herbs - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>potato</t>
+    </r>
+  </si>
+  <si>
+    <t>1.3 Other minimal use</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Seasonal vegetables and herbs - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>other</t>
+    </r>
+  </si>
+  <si>
+    <t>1.3.1 Defence land</t>
+  </si>
+  <si>
+    <t>1.3.2 Stock route</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Irrigated cereals - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>wheat</t>
+    </r>
+  </si>
+  <si>
+    <t>1.3.3 Residual native cover</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Irrigated cereals - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>barley</t>
+    </r>
+  </si>
+  <si>
+    <t>1.3.4 Rehabilitation</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Irrigated cereals - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>maize</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Irrigated cereals - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>triticale</t>
+    </r>
+  </si>
+  <si>
+    <t>2.1 Grazing native vegetation</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Irrigated cereals - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>oats</t>
+    </r>
+  </si>
+  <si>
+    <t>2.1.0 Grazing native vegetation</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Irrigated cereals - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sorghum</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Irrigated cereals - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>other</t>
+    </r>
+  </si>
+  <si>
+    <t>2.2 Production forestry</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Irrigated beverage and spice crops - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>coffee</t>
+    </r>
+  </si>
+  <si>
+    <t>2.2.1 Wood production</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Irrigated beverage and spice crops - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tea</t>
+    </r>
+  </si>
+  <si>
+    <t>2.2.2 Other forest production</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Irrigated beverage and spice crops - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cocoa</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Irrigated beverage and spice crops - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>other</t>
+    </r>
+  </si>
+  <si>
+    <t>3.1 Plantation forestry</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Irrigated hay and silage - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>grasses</t>
+    </r>
+  </si>
+  <si>
+    <t>3.1.1 Hardwood plantation</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Irrigated hay and silage - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>grasses and legume mix</t>
+    </r>
+  </si>
+  <si>
+    <t>3.1.2 Softwood plantation</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Irrigated hay and silage - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pure legume</t>
+    </r>
+  </si>
+  <si>
+    <t>3.1.3 Other forest plantation</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Irrigated hay and silage - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>other</t>
+    </r>
+  </si>
+  <si>
+    <t>3.1.4 Environmental forest plantation</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Irrigated oil seeds - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>canola</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Irrigated oil seeds - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sunflower</t>
+    </r>
+  </si>
+  <si>
+    <t>3.2 Grazing modified pastures</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Irrigated oil seeds - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>flax</t>
+    </r>
+  </si>
+  <si>
+    <t>3.2.1 Native/exotic pasture mosaic</t>
+  </si>
+  <si>
+    <r>
+      <t>Irrigated oil seeds -</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>soybean</t>
+    </r>
+  </si>
+  <si>
+    <t>3.2.2 Woody fodder plants</t>
+  </si>
+  <si>
+    <r>
+      <t>Irrigated oil seeds -</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>other</t>
+    </r>
+  </si>
+  <si>
+    <t>3.2.3 Pasture legumes</t>
+  </si>
+  <si>
+    <t>Irrigated sugar</t>
+  </si>
+  <si>
+    <t>3.2.4 Pasture legume/grass mixtures</t>
+  </si>
+  <si>
+    <t>Irrigated cotton</t>
+  </si>
+  <si>
+    <t>3.2.5 Sown grasses</t>
+  </si>
+  <si>
+    <t>Irrigated alkaloid poppies</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Irrigated pulses - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lupin</t>
+    </r>
+  </si>
+  <si>
+    <t>3.3 Cropping</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Irrigated pulses - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lentil</t>
+    </r>
+  </si>
+  <si>
+    <t>3.3.1 Cereals</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Irrigated pulses - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chickpea</t>
+    </r>
+  </si>
+  <si>
+    <t>3.3.2 Beverage and spice crops</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Irrigated pulses - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vetch</t>
+    </r>
+  </si>
+  <si>
+    <t>3.3.3 Hay and silage</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Irrigated pulses - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>faba/broad bean</t>
+    </r>
+  </si>
+  <si>
+    <t>3.3.4 Oil seeds</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Irrigated pulses - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>azuki bean</t>
+    </r>
+  </si>
+  <si>
+    <t>3.3.5 Sugar</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Irrigated pulses - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mung bean</t>
+    </r>
+  </si>
+  <si>
+    <t>3.3.6 Cotton</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Irrigated pulses - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>other</t>
+    </r>
+  </si>
+  <si>
+    <t>3.3.7 Alkaloid poppies</t>
+  </si>
+  <si>
+    <t>Irrigated rice</t>
+  </si>
+  <si>
+    <t>3.3.8 Pulses</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Irrigated seasonal vegetables and herbs - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>potatoes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Irrigated seasonal vegetables and herbs -</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> other</t>
+    </r>
+  </si>
+  <si>
+    <t>3.4 Perennial horticulture</t>
+  </si>
+  <si>
+    <t>3.4.1 Tree fruits</t>
+  </si>
+  <si>
+    <t>3.4.2 Oleaginous fruits</t>
+  </si>
+  <si>
+    <t>3.4.3 Tree nuts</t>
+  </si>
+  <si>
+    <t>3.4.4 Vine fruits</t>
+  </si>
+  <si>
+    <t>3.4.5 Shrub nuts, fruits and berries</t>
+  </si>
+  <si>
+    <t>3.4.6 Perennial flowers and bulbs</t>
+  </si>
+  <si>
+    <t>3.4.7 Perennial vegetables and herbs</t>
+  </si>
+  <si>
+    <t>3.4.8 Citrus</t>
+  </si>
+  <si>
+    <t>3.4.9 Grapes</t>
+  </si>
+  <si>
+    <t>3.5 Seasonal horticulture</t>
+  </si>
+  <si>
+    <t>3.5.1 Seasonal fruits</t>
+  </si>
+  <si>
+    <t>3.5.2 Seasonal nuts</t>
+  </si>
+  <si>
+    <t>3.5.3 Seasonal flowers and bulbs</t>
+  </si>
+  <si>
+    <t>3.5.4 Seasonal vegetables and herbs</t>
+  </si>
+  <si>
+    <t>3.6 Land in transition</t>
+  </si>
+  <si>
+    <t>3.6.1 Degraded land</t>
+  </si>
+  <si>
+    <t>3.6.2 Abandoned land</t>
+  </si>
+  <si>
+    <t>3.6.3 Land under rehabilitation</t>
+  </si>
+  <si>
+    <t>3.6.4 No defined use</t>
+  </si>
+  <si>
+    <t>3.6.5 Abandoned perennial horticulture</t>
+  </si>
+  <si>
+    <t>4.1 Irrigated plantation forestry</t>
+  </si>
+  <si>
+    <t>4.1.1 Irrigated hardwood plantation</t>
+  </si>
+  <si>
+    <t>4.1.2 Irrigated softwood plantation</t>
+  </si>
+  <si>
+    <t>4.1.3 Irrigated other forest plantation</t>
+  </si>
+  <si>
+    <t>4.1.4 Irrigated environmental forest plantation</t>
+  </si>
+  <si>
+    <t>4.2 Grazing irrigated modified pastures</t>
+  </si>
+  <si>
+    <t>4.2.1 Irrigated woody fodder plants</t>
+  </si>
+  <si>
+    <t>4.2.2 Irrigated pasture legumes</t>
+  </si>
+  <si>
+    <t>4.2.3 Irrigated legume/grass mixtures</t>
+  </si>
+  <si>
+    <t>4.2.4 Irrigated sown grasses</t>
+  </si>
+  <si>
+    <t>4.3 Irrigated cropping</t>
+  </si>
+  <si>
+    <t>4.3.1 Irrigated cereals</t>
+  </si>
+  <si>
+    <t>4.3.2 Irrigated beverage and spice crops</t>
+  </si>
+  <si>
+    <t>4.3.3 Irrigated hay and silage</t>
+  </si>
+  <si>
+    <t>4.3.4 Irrigated oil seeds</t>
+  </si>
+  <si>
+    <t>4.3.5 Irrigated sugar</t>
+  </si>
+  <si>
+    <t>4.3.6 Irrigated cotton</t>
+  </si>
+  <si>
+    <t>4.3.7 Irrigated alkaloid poppies</t>
+  </si>
+  <si>
+    <t>4.3.8 Irrigated pulses</t>
+  </si>
+  <si>
+    <t>4.3.9 Irrigated rice</t>
+  </si>
+  <si>
+    <t>4.4 Irrigated perennial horticulture</t>
+  </si>
+  <si>
+    <t>4.4.1 Irrigated tree fruits</t>
+  </si>
+  <si>
+    <t>4.4.2 Irrigated oleaginous fruits</t>
+  </si>
+  <si>
+    <t>4.4.3 Irrigated tree nuts</t>
+  </si>
+  <si>
+    <t>4.4.4 Irrigated vine fruits</t>
+  </si>
+  <si>
+    <t>4.4.5 Irrigated shrub nuts, fruits and berries</t>
+  </si>
+  <si>
+    <t>4.4.6 Irrigated perennial flowers and bulbs</t>
+  </si>
+  <si>
+    <t>4.4.7 Irrigated perennial vegetables and herbs</t>
+  </si>
+  <si>
+    <t>4.4.8 Irrigated citrus</t>
+  </si>
+  <si>
+    <t>4.4.9 Irrigated grapes</t>
+  </si>
+  <si>
+    <t>4.5 Irrigated seasonal horticulture</t>
+  </si>
+  <si>
+    <t>4.5.1 Irrigated seasonal fruits</t>
+  </si>
+  <si>
+    <t>4.5.2 Irrigated seasonal nuts</t>
+  </si>
+  <si>
+    <t>4.5.3 Irrigated seasonal flowers and bulbs</t>
+  </si>
+  <si>
+    <t>4.5.4 Irrigated seasonal vegetables and herbs</t>
+  </si>
+  <si>
+    <t>4.5.5 Irrigated turf farming</t>
+  </si>
+  <si>
+    <t>4.6 Irrigated land in transition</t>
+  </si>
+  <si>
+    <t>4.6.1 Degraded irrigated land</t>
+  </si>
+  <si>
+    <t>4.6.2 Abandoned irrigated land</t>
+  </si>
+  <si>
+    <t>4.6.3 Irrigated land under rehabilitation</t>
+  </si>
+  <si>
+    <t>4.6.4 No defined use (irrigation)</t>
+  </si>
+  <si>
+    <t>4.6.5 Abandoned irrigated perennial horticulture</t>
+  </si>
+  <si>
+    <t>5.1 Intensive horticulture</t>
+  </si>
+  <si>
+    <t>5.1.1 Shadehouses</t>
+  </si>
+  <si>
+    <t>5.1.2 Glasshouses</t>
+  </si>
+  <si>
+    <t>5.1.3 Glasshouses (hydroponic)</t>
+  </si>
+  <si>
+    <t>5.1.4 Abandoned intensive horticulture</t>
+  </si>
+  <si>
+    <t>5.2 Intensive animal husbandry</t>
+  </si>
+  <si>
+    <t>5.2.1 Dairy sheds and yards</t>
+  </si>
+  <si>
+    <t>5.2.2 Cattle feedlots</t>
+  </si>
+  <si>
+    <t>5.2.3 Sheep feedlots</t>
+  </si>
+  <si>
+    <t>5.2.4 Poultry sheds and yards</t>
+  </si>
+  <si>
+    <t>5.2.5 Piggeries</t>
+  </si>
+  <si>
+    <t>5.2.6 Aquaculture</t>
+  </si>
+  <si>
+    <t>5.2.7 Horse studs</t>
+  </si>
+  <si>
+    <t>5.2.8 Stockyards/saleyards</t>
+  </si>
+  <si>
+    <t>5.2.9 Abandoned intensive animal husbandry</t>
+  </si>
+  <si>
+    <t>5.3 Manufacturing and industrial</t>
+  </si>
+  <si>
+    <t>5.3.1 General purpose factory</t>
+  </si>
+  <si>
+    <t>5.3.2 Food processing factory</t>
+  </si>
+  <si>
+    <t>5.3.3 Major industrial complex</t>
+  </si>
+  <si>
+    <t>5.3.4 Bulk grain storage</t>
+  </si>
+  <si>
+    <t>5.3.5 Abattoirs</t>
+  </si>
+  <si>
+    <t>5.3.6 Oil refinery</t>
+  </si>
+  <si>
+    <t>5.3.7 Sawmill</t>
+  </si>
+  <si>
+    <t>5.3.8 Abandoned manufacturing and industrial</t>
+  </si>
+  <si>
+    <t>5.4 Residential and farm infrastructure</t>
+  </si>
+  <si>
+    <t>5.4.1 Urban residential</t>
+  </si>
+  <si>
+    <t>5.4.2 Rural residential with agriculture</t>
+  </si>
+  <si>
+    <t>5.4.3 Rural residential without agriculture</t>
+  </si>
+  <si>
+    <t>5.4.4 Remote communities</t>
+  </si>
+  <si>
+    <t>5.4.5 Farm buildings/infrastructure</t>
+  </si>
+  <si>
+    <t>5.5 Services</t>
+  </si>
+  <si>
+    <t>5.5.2 Public services</t>
+  </si>
+  <si>
+    <t>5.5.3 Recreation and culture</t>
+  </si>
+  <si>
+    <t>5.5.4 Defence facilities</t>
+  </si>
+  <si>
+    <t>5.5.5 Research facilities</t>
+  </si>
+  <si>
+    <t>5.6 Utilities</t>
+  </si>
+  <si>
+    <t>5.6.1 Fuel-powered electricity generation</t>
+  </si>
+  <si>
+    <t>5.6.2 Hydro-electricity generation</t>
+  </si>
+  <si>
+    <t>5.6.3 Wind farm electricity generation</t>
+  </si>
+  <si>
+    <t>5.6.4 Electricity substations and transmission</t>
+  </si>
+  <si>
+    <t>5.6.5 Gas treatment, storage and transmission</t>
+  </si>
+  <si>
+    <t>5.6.6 Water extraction and transmission</t>
+  </si>
+  <si>
+    <t>5.7 Transport and communication</t>
+  </si>
+  <si>
+    <t>5.7.1 Airports/aerodromes</t>
+  </si>
+  <si>
+    <t>5.7.2 Roads</t>
+  </si>
+  <si>
+    <t>5.7.3 Railways</t>
+  </si>
+  <si>
+    <t>5.7.4 Ports and water transport</t>
+  </si>
+  <si>
+    <t>5.7.5 Navigation and communication</t>
+  </si>
+  <si>
+    <t>5.8 Mining</t>
+  </si>
+  <si>
+    <t>5.8.1 Mines</t>
+  </si>
+  <si>
+    <t>5.8.2 Quarries</t>
+  </si>
+  <si>
+    <t>5.8.3 Tailings</t>
+  </si>
+  <si>
+    <t>5.8.4 Extractive industry not in use</t>
+  </si>
+  <si>
+    <t>5.9 Waste treatment and disposal</t>
+  </si>
+  <si>
+    <t>5.9.1 Effluent pond</t>
+  </si>
+  <si>
+    <t>5.9.2 Landfill</t>
+  </si>
+  <si>
+    <t>5.9.3 Solid garbage</t>
+  </si>
+  <si>
+    <t>5.9.4 Incinerators</t>
+  </si>
+  <si>
+    <t>5.9.5 Sewage/sewerage</t>
+  </si>
+  <si>
+    <t>6.1 Lake</t>
+  </si>
+  <si>
+    <t>6.1.1 Lake—conservation</t>
+  </si>
+  <si>
+    <t>6.1.2 Lake—production</t>
+  </si>
+  <si>
+    <t>6.1.3 Lake—intensive use</t>
+  </si>
+  <si>
+    <t>6.1.4 Lake—saline</t>
+  </si>
+  <si>
+    <t>6.2 Reservoir or dam</t>
+  </si>
+  <si>
+    <t>6.2.1 Reservoir</t>
+  </si>
+  <si>
+    <t>6.2.2 Water storage</t>
+  </si>
+  <si>
+    <t>6.2.3 Evaporation basin</t>
+  </si>
+  <si>
+    <t>6.3 River</t>
+  </si>
+  <si>
+    <t>6.3.1 River—conservation</t>
+  </si>
+  <si>
+    <t>6.3.2 River—production</t>
+  </si>
+  <si>
+    <t>6.3.3 River—intensive use</t>
+  </si>
+  <si>
+    <t>6.4 Channel/aqueduct</t>
+  </si>
+  <si>
+    <t>6.4.1 Supply channel/aqueduct</t>
+  </si>
+  <si>
+    <t>6.4.2 Drainage channel/aqueduct</t>
+  </si>
+  <si>
+    <t>6.4.3 Stormwater</t>
+  </si>
+  <si>
+    <t>6.5 Marsh/wetland</t>
+  </si>
+  <si>
+    <t>6.5.1 Marsh/wetland—conservation</t>
+  </si>
+  <si>
+    <t>6.5.2 Marsh/wetland—production</t>
+  </si>
+  <si>
+    <t>6.5.3 Marsh/wetland—intensive use</t>
+  </si>
+  <si>
+    <t>6.5.4 Marsh/wetland—saline</t>
+  </si>
+  <si>
+    <t>6.6 Estuary/coastal waters</t>
+  </si>
+  <si>
+    <t>6.6.1 Estuary/coastal waters—conservation</t>
+  </si>
+  <si>
+    <t>6.6.2 Estuary/coastal waters—production</t>
+  </si>
+  <si>
+    <t>6.6.3 Estuary/coastal waters—intensive use</t>
+  </si>
+  <si>
+    <t>7.1 Coastal water</t>
+  </si>
+  <si>
+    <t>7.1.1  Coastal water-conservation</t>
+  </si>
+  <si>
+    <t>7.1.2  Coastal water-production</t>
+  </si>
+  <si>
+    <t>7.1.3  Coastal water-intensive use</t>
+  </si>
+  <si>
+    <t>7.2.1  Open ocean water-conservation</t>
+  </si>
+  <si>
+    <t>7.2.2  Open ocean water-production</t>
+  </si>
+  <si>
+    <t>7.2.3  Open ocean water-intensive use</t>
+  </si>
+  <si>
+    <t>Volume (L) of processed sample for DNA extraction</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3148,6 +5785,97 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3157,7 +5885,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -3180,18 +5908,88 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{0E344547-7525-45B9-97E0-C31E3CF71AD2}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3529,8 +6327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G495"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A472" workbookViewId="0">
-      <selection activeCell="A495" sqref="A495"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="E382" sqref="E382"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9764,7 +12562,7 @@
         <v>571</v>
       </c>
       <c r="G373" t="s">
-        <v>932</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.25">
@@ -9781,7 +12579,7 @@
         <v>589</v>
       </c>
       <c r="G374" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.25">
@@ -9801,7 +12599,7 @@
         <v>555</v>
       </c>
       <c r="G375" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.25">
@@ -9815,7 +12613,7 @@
         <v>507</v>
       </c>
       <c r="G376" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.25">
@@ -9835,7 +12633,7 @@
         <v>553</v>
       </c>
       <c r="G377" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.25">
@@ -9849,7 +12647,7 @@
         <v>507</v>
       </c>
       <c r="G378" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.25">
@@ -9869,7 +12667,7 @@
         <v>547</v>
       </c>
       <c r="G379" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.25">
@@ -9883,7 +12681,7 @@
         <v>506</v>
       </c>
       <c r="G380" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.25">
@@ -10175,7 +12973,7 @@
         <v>554</v>
       </c>
       <c r="G397" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.25">
@@ -10189,7 +12987,7 @@
         <v>507</v>
       </c>
       <c r="G398" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.25">
@@ -10209,7 +13007,7 @@
         <v>564</v>
       </c>
       <c r="G399" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.25">
@@ -10223,7 +13021,7 @@
         <v>505</v>
       </c>
       <c r="G400" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
@@ -10243,7 +13041,7 @@
         <v>551</v>
       </c>
       <c r="G401" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.25">
@@ -10257,7 +13055,7 @@
         <v>506</v>
       </c>
       <c r="G402" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
@@ -10277,7 +13075,7 @@
         <v>555</v>
       </c>
       <c r="G403" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.25">
@@ -10291,7 +13089,7 @@
         <v>507</v>
       </c>
       <c r="G404" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.25">
@@ -10311,7 +13109,7 @@
         <v>553</v>
       </c>
       <c r="G405" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.25">
@@ -10325,7 +13123,7 @@
         <v>507</v>
       </c>
       <c r="G406" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.25">
@@ -10345,7 +13143,7 @@
         <v>568</v>
       </c>
       <c r="G407" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.25">
@@ -10358,14 +13156,8 @@
       <c r="C408" t="s">
         <v>505</v>
       </c>
-      <c r="D408" t="s">
-        <v>517</v>
-      </c>
-      <c r="E408" t="s">
-        <v>568</v>
-      </c>
       <c r="G408" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.25">
@@ -10385,7 +13177,7 @@
         <v>573</v>
       </c>
       <c r="G409" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.25">
@@ -10399,7 +13191,7 @@
         <v>507</v>
       </c>
       <c r="G410" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.25">
@@ -10419,7 +13211,7 @@
         <v>555</v>
       </c>
       <c r="G411" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.25">
@@ -10433,7 +13225,7 @@
         <v>507</v>
       </c>
       <c r="G412" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
@@ -10453,7 +13245,7 @@
         <v>556</v>
       </c>
       <c r="G413" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.25">
@@ -10467,7 +13259,7 @@
         <v>506</v>
       </c>
       <c r="G414" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
@@ -10481,7 +13273,7 @@
         <v>505</v>
       </c>
       <c r="G415" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.25">
@@ -10501,7 +13293,7 @@
         <v>553</v>
       </c>
       <c r="G416" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.25">
@@ -10515,7 +13307,7 @@
         <v>507</v>
       </c>
       <c r="G417" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.25">
@@ -10535,7 +13327,7 @@
         <v>552</v>
       </c>
       <c r="G418" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.25">
@@ -10549,7 +13341,7 @@
         <v>507</v>
       </c>
       <c r="G419" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.25">
@@ -10569,7 +13361,7 @@
         <v>566</v>
       </c>
       <c r="G420" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.25">
@@ -10583,7 +13375,7 @@
         <v>506</v>
       </c>
       <c r="G421" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.25">
@@ -10603,7 +13395,7 @@
         <v>553</v>
       </c>
       <c r="G422" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.25">
@@ -10617,7 +13409,7 @@
         <v>507</v>
       </c>
       <c r="G423" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.25">
@@ -10637,7 +13429,7 @@
         <v>574</v>
       </c>
       <c r="G424" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
@@ -10651,7 +13443,7 @@
         <v>505</v>
       </c>
       <c r="G425" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.25">
@@ -10671,7 +13463,7 @@
         <v>553</v>
       </c>
       <c r="G426" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.25">
@@ -10685,7 +13477,7 @@
         <v>507</v>
       </c>
       <c r="G427" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.25">
@@ -10699,7 +13491,7 @@
         <v>507</v>
       </c>
       <c r="G428" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.25">
@@ -10713,7 +13505,7 @@
         <v>507</v>
       </c>
       <c r="G429" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.25">
@@ -10733,7 +13525,7 @@
         <v>553</v>
       </c>
       <c r="G430" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.25">
@@ -10747,7 +13539,7 @@
         <v>507</v>
       </c>
       <c r="G431" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.25">
@@ -10767,7 +13559,7 @@
         <v>553</v>
       </c>
       <c r="G432" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.25">
@@ -10781,7 +13573,7 @@
         <v>507</v>
       </c>
       <c r="G433" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.25">
@@ -10798,7 +13590,7 @@
         <v>590</v>
       </c>
       <c r="G434" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.25">
@@ -10818,7 +13610,7 @@
         <v>553</v>
       </c>
       <c r="G435" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.25">
@@ -10832,7 +13624,7 @@
         <v>507</v>
       </c>
       <c r="G436" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.25">
@@ -10852,7 +13644,7 @@
         <v>555</v>
       </c>
       <c r="G437" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.25">
@@ -10866,7 +13658,7 @@
         <v>506</v>
       </c>
       <c r="G438" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.25">
@@ -10886,7 +13678,7 @@
         <v>547</v>
       </c>
       <c r="G439" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.25">
@@ -10900,7 +13692,7 @@
         <v>506</v>
       </c>
       <c r="G440" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.25">
@@ -10920,7 +13712,7 @@
         <v>555</v>
       </c>
       <c r="G441" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.25">
@@ -10934,7 +13726,7 @@
         <v>506</v>
       </c>
       <c r="G442" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.25">
@@ -10948,7 +13740,7 @@
         <v>506</v>
       </c>
       <c r="G443" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.25">
@@ -10962,7 +13754,7 @@
         <v>506</v>
       </c>
       <c r="G444" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.25">
@@ -10982,7 +13774,7 @@
         <v>555</v>
       </c>
       <c r="G445" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.25">
@@ -10996,7 +13788,7 @@
         <v>506</v>
       </c>
       <c r="G446" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.25">
@@ -11016,7 +13808,7 @@
         <v>549</v>
       </c>
       <c r="G447" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.25">
@@ -11030,7 +13822,7 @@
         <v>506</v>
       </c>
       <c r="G448" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.25">
@@ -11084,12 +13876,12 @@
         <v>552</v>
       </c>
       <c r="G451" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B452" t="s">
         <v>500</v>
@@ -11098,7 +13890,7 @@
         <v>507</v>
       </c>
       <c r="G452" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.25">
@@ -11118,7 +13910,7 @@
         <v>552</v>
       </c>
       <c r="G453" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.25">
@@ -11132,7 +13924,7 @@
         <v>507</v>
       </c>
       <c r="G454" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.25">
@@ -11200,7 +13992,7 @@
         <v>556</v>
       </c>
       <c r="G458" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.25">
@@ -11214,7 +14006,7 @@
         <v>506</v>
       </c>
       <c r="G459" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="460" spans="1:7" x14ac:dyDescent="0.25">
@@ -11234,7 +14026,7 @@
         <v>553</v>
       </c>
       <c r="G460" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="461" spans="1:7" x14ac:dyDescent="0.25">
@@ -11248,7 +14040,7 @@
         <v>507</v>
       </c>
       <c r="G461" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="462" spans="1:7" x14ac:dyDescent="0.25">
@@ -11268,7 +14060,7 @@
         <v>575</v>
       </c>
       <c r="G462" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="463" spans="1:7" x14ac:dyDescent="0.25">
@@ -11282,7 +14074,7 @@
         <v>506</v>
       </c>
       <c r="G463" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.25">
@@ -11302,7 +14094,7 @@
         <v>553</v>
       </c>
       <c r="G464" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.25">
@@ -11316,7 +14108,7 @@
         <v>507</v>
       </c>
       <c r="G465" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.25">
@@ -11330,7 +14122,7 @@
         <v>505</v>
       </c>
       <c r="G466" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.25">
@@ -11350,7 +14142,7 @@
         <v>553</v>
       </c>
       <c r="G467" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.25">
@@ -11364,7 +14156,7 @@
         <v>507</v>
       </c>
       <c r="G468" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.25">
@@ -11384,7 +14176,7 @@
         <v>555</v>
       </c>
       <c r="G469" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.25">
@@ -11404,7 +14196,7 @@
         <v>555</v>
       </c>
       <c r="G470" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.25">
@@ -11424,7 +14216,7 @@
         <v>555</v>
       </c>
       <c r="G471" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="472" spans="1:7" x14ac:dyDescent="0.25">
@@ -11444,7 +14236,7 @@
         <v>555</v>
       </c>
       <c r="G472" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.25">
@@ -11464,7 +14256,7 @@
         <v>550</v>
       </c>
       <c r="G473" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.25">
@@ -11478,7 +14270,7 @@
         <v>506</v>
       </c>
       <c r="G474" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.25">
@@ -11492,7 +14284,7 @@
         <v>506</v>
       </c>
       <c r="G475" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.25">
@@ -11526,7 +14318,7 @@
         <v>555</v>
       </c>
       <c r="G477" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.25">
@@ -11540,7 +14332,7 @@
         <v>507</v>
       </c>
       <c r="G478" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.25">
@@ -11560,7 +14352,7 @@
         <v>576</v>
       </c>
       <c r="G479" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="480" spans="1:7" x14ac:dyDescent="0.25">
@@ -11574,7 +14366,7 @@
         <v>507</v>
       </c>
       <c r="G480" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.25">
@@ -11594,7 +14386,7 @@
         <v>553</v>
       </c>
       <c r="G481" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.25">
@@ -11608,7 +14400,7 @@
         <v>507</v>
       </c>
       <c r="G482" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.25">
@@ -11628,7 +14420,7 @@
         <v>553</v>
       </c>
       <c r="G483" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="484" spans="1:7" x14ac:dyDescent="0.25">
@@ -11642,7 +14434,7 @@
         <v>507</v>
       </c>
       <c r="G484" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="485" spans="1:7" x14ac:dyDescent="0.25">
@@ -11662,7 +14454,7 @@
         <v>550</v>
       </c>
       <c r="G485" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="486" spans="1:7" x14ac:dyDescent="0.25">
@@ -11676,7 +14468,7 @@
         <v>506</v>
       </c>
       <c r="G486" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="487" spans="1:7" x14ac:dyDescent="0.25">
@@ -11696,7 +14488,7 @@
         <v>553</v>
       </c>
       <c r="G487" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.25">
@@ -11710,7 +14502,7 @@
         <v>507</v>
       </c>
       <c r="G488" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="489" spans="1:7" x14ac:dyDescent="0.25">
@@ -11730,7 +14522,7 @@
         <v>550</v>
       </c>
       <c r="G489" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="490" spans="1:7" x14ac:dyDescent="0.25">
@@ -11744,7 +14536,7 @@
         <v>506</v>
       </c>
       <c r="G490" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="491" spans="1:7" x14ac:dyDescent="0.25">
@@ -11764,7 +14556,7 @@
         <v>577</v>
       </c>
       <c r="G491" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="492" spans="1:7" x14ac:dyDescent="0.25">
@@ -11778,7 +14570,7 @@
         <v>505</v>
       </c>
       <c r="G492" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="493" spans="1:7" x14ac:dyDescent="0.25">
@@ -11792,7 +14584,7 @@
         <v>505</v>
       </c>
       <c r="G493" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="494" spans="1:7" x14ac:dyDescent="0.25">
@@ -11806,12 +14598,12 @@
         <v>505</v>
       </c>
       <c r="G494" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B495" t="s">
         <v>500</v>
@@ -11820,10 +14612,2041 @@
         <v>505</v>
       </c>
       <c r="G495" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE41060-E109-4C1D-B42D-0981893BEDC4}">
+  <dimension ref="A1:R250"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.85546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="64.42578125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="51.5703125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="30" style="5" customWidth="1"/>
+    <col min="10" max="10" width="32.28515625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="17" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="38.28515625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="65.42578125" style="5" customWidth="1"/>
+    <col min="15" max="15" width="19.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="33.28515625" style="5" customWidth="1"/>
+    <col min="17" max="17" width="62.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.85546875" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>1036</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>1037</v>
+      </c>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4" t="s">
+        <v>1038</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>1039</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>1040</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>1042</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>1043</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>1044</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1052</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>1053</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8" t="s">
+        <v>1054</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>1055</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>1056</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>1057</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>1058</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>1059</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>1060</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>1068</v>
+      </c>
+      <c r="H3" s="13"/>
+      <c r="I3" s="5" t="s">
+        <v>1069</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>1070</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>1071</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>1072</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>1073</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>1074</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>1075</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>1076</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="14" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>1083</v>
+      </c>
+      <c r="H4" s="16"/>
+      <c r="I4" s="8" t="s">
+        <v>1084</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>1085</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>1086</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>1087</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>1088</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>1089</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>1090</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>1091</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="14" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>1097</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>1098</v>
+      </c>
+      <c r="H5" s="17"/>
+      <c r="I5" s="8" t="s">
+        <v>1099</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>1100</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>1101</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>1102</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>1103</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>1104</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>1105</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>1112</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>1113</v>
+      </c>
+      <c r="H6" s="19"/>
+      <c r="I6" s="8" t="s">
+        <v>1114</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>1115</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>1116</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>1117</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>1118</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>1119</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>1120</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="20" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>1127</v>
+      </c>
+      <c r="H7" s="21"/>
+      <c r="I7" s="8" t="s">
+        <v>1128</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>1129</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>1130</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>1131</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>1132</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>1133</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="14" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>1138</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>1139</v>
+      </c>
+      <c r="H8" s="22"/>
+      <c r="I8" s="8" t="s">
+        <v>1140</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>1141</v>
+      </c>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8" t="s">
+        <v>1142</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>1143</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="14" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>1146</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>1147</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>1148</v>
+      </c>
+      <c r="H9" s="22"/>
+      <c r="I9" s="8" t="s">
+        <v>1149</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>1150</v>
+      </c>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8" t="s">
+        <v>1151</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>1152</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="14" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="E10" s="10" t="s">
+        <v>1155</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>1156</v>
+      </c>
+      <c r="H10" s="22"/>
+      <c r="I10" s="8" t="s">
+        <v>1157</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>1158</v>
+      </c>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8" t="s">
+        <v>1159</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>1160</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="14" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="10"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="8" t="s">
+        <v>1163</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>1164</v>
+      </c>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8" t="s">
+        <v>1165</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>1166</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="G12" s="23" t="s">
+        <v>1169</v>
+      </c>
+      <c r="H12" s="23"/>
+      <c r="I12" s="8" t="s">
+        <v>1170</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>1171</v>
+      </c>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8" t="s">
+        <v>1172</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>1173</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>1176</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>1177</v>
+      </c>
+      <c r="H13" s="21"/>
+      <c r="I13" s="8" t="s">
+        <v>1178</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>1179</v>
+      </c>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8" t="s">
+        <v>1180</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>1181</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E14" s="10" t="s">
+        <v>1183</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>1184</v>
+      </c>
+      <c r="H14" s="22"/>
+      <c r="I14" s="8" t="s">
+        <v>1185</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>1186</v>
+      </c>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8" t="s">
+        <v>1187</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>1188</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E15" s="10" t="s">
+        <v>1190</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>1191</v>
+      </c>
+      <c r="H15" s="22"/>
+      <c r="I15" s="8" t="s">
+        <v>1192</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>1193</v>
+      </c>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8" t="s">
+        <v>1194</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>1195</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+      <c r="E16" s="10" t="s">
+        <v>1197</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>1198</v>
+      </c>
+      <c r="H16" s="22"/>
+      <c r="I16" s="8" t="s">
+        <v>1199</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>1200</v>
+      </c>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="5" t="s">
+        <v>1201</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="17" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E17" s="10" t="s">
+        <v>1203</v>
+      </c>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="8" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>1205</v>
+      </c>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="5" t="s">
+        <v>1206</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="18" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E18" s="10" t="s">
+        <v>1208</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>1209</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>1210</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>1211</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>1212</v>
+      </c>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="5" t="s">
+        <v>1213</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="19" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E19" s="10" t="s">
+        <v>1215</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>1216</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>1217</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>1212</v>
+      </c>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="5" t="s">
+        <v>1218</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="20" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E20" s="10" t="s">
+        <v>1220</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>1221</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>1222</v>
+      </c>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="5" t="s">
+        <v>1223</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="21" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E21" s="27"/>
+      <c r="G21" s="26" t="s">
+        <v>1225</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>1226</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>1176</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>1176</v>
+      </c>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="5" t="s">
+        <v>1227</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="22" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E22" s="28"/>
+      <c r="G22" s="26" t="s">
+        <v>1229</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>1230</v>
+      </c>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="5" t="s">
+        <v>1231</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="23" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E23" s="29"/>
+      <c r="G23" s="26" t="s">
+        <v>1233</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>1234</v>
+      </c>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="5" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="24" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="G24" s="26" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>1238</v>
+      </c>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="5" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="25" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="G25" s="26" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>1241</v>
+      </c>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="5" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="26" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="H26" s="14" t="s">
+        <v>1243</v>
+      </c>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="5" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="27" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="H27" s="14"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="5" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="28" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="H28" s="14" t="s">
+        <v>1246</v>
+      </c>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="5" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="29" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="H29" s="14" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="5" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="30" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="H30" s="14" t="s">
+        <v>1250</v>
+      </c>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="5" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="31" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="H31" s="14" t="s">
+        <v>1252</v>
+      </c>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="5" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="32" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="H32" s="14" t="s">
+        <v>1254</v>
+      </c>
+      <c r="M32" s="5" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="33" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H33" s="14" t="s">
+        <v>1256</v>
+      </c>
+      <c r="M33" s="5" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="34" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H34" s="14"/>
+      <c r="M34" s="5" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="35" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H35" s="14" t="s">
+        <v>1259</v>
+      </c>
+      <c r="M35" s="5" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="36" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H36" s="14" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="37" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H37" s="14" t="s">
+        <v>1262</v>
+      </c>
+      <c r="M37" s="5" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="38" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H38" s="14" t="s">
+        <v>1264</v>
+      </c>
+      <c r="M38" s="5" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="39" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H39" s="14" t="s">
+        <v>1266</v>
+      </c>
+      <c r="M39" s="5" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="40" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H40" s="14"/>
+      <c r="M40" s="5" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="41" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H41" s="14" t="s">
+        <v>1269</v>
+      </c>
+      <c r="M41" s="5" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="42" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H42" s="14" t="s">
+        <v>1271</v>
+      </c>
+      <c r="M42" s="5" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="43" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H43" s="14"/>
+      <c r="M43" s="5" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="44" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H44" s="14" t="s">
+        <v>1274</v>
+      </c>
+      <c r="M44" s="5" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="45" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H45" s="14" t="s">
+        <v>1276</v>
+      </c>
+      <c r="M45" s="5" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="46" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H46" s="14" t="s">
+        <v>1278</v>
+      </c>
+      <c r="M46" s="5" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="47" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H47" s="14"/>
+      <c r="M47" s="5" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="48" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H48" s="14" t="s">
+        <v>1281</v>
+      </c>
+      <c r="M48" s="5" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="49" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H49" s="14" t="s">
+        <v>1283</v>
+      </c>
+      <c r="M49" s="5" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="50" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H50" s="14" t="s">
+        <v>1285</v>
+      </c>
+      <c r="M50" s="5" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="51" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H51" s="14" t="s">
+        <v>1287</v>
+      </c>
+      <c r="M51" s="5" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="52" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H52" s="14" t="s">
+        <v>1289</v>
+      </c>
+      <c r="M52" s="5" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="53" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H53" s="14"/>
+      <c r="M53" s="5" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="54" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H54" s="14" t="s">
+        <v>1292</v>
+      </c>
+      <c r="M54" s="5" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="55" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H55" s="14" t="s">
+        <v>1294</v>
+      </c>
+      <c r="M55" s="5" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="56" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H56" s="14" t="s">
+        <v>1296</v>
+      </c>
+      <c r="M56" s="5" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="57" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H57" s="14" t="s">
+        <v>1298</v>
+      </c>
+      <c r="M57" s="5" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="58" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H58" s="14" t="s">
+        <v>1300</v>
+      </c>
+      <c r="M58" s="5" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="59" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H59" s="14" t="s">
+        <v>1302</v>
+      </c>
+      <c r="M59" s="5" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="60" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H60" s="14"/>
+      <c r="M60" s="5" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="61" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H61" s="14" t="s">
+        <v>1305</v>
+      </c>
+      <c r="M61" s="5" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="62" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H62" s="14" t="s">
+        <v>1307</v>
+      </c>
+      <c r="M62" s="5" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="63" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H63" s="14" t="s">
+        <v>1309</v>
+      </c>
+      <c r="M63" s="5" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="64" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H64" s="14" t="s">
+        <v>1311</v>
+      </c>
+      <c r="M64" s="5" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="65" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H65" s="14" t="s">
+        <v>1313</v>
+      </c>
+      <c r="M65" s="5" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="66" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H66" s="14" t="s">
+        <v>1315</v>
+      </c>
+      <c r="M66" s="5" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="67" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H67" s="14" t="s">
+        <v>1317</v>
+      </c>
+      <c r="M67" s="5" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="68" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H68" s="14" t="s">
+        <v>1319</v>
+      </c>
+      <c r="M68" s="5" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="69" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H69" s="14" t="s">
+        <v>1321</v>
+      </c>
+      <c r="M69" s="5" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="70" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H70" s="14"/>
+      <c r="M70" s="5" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="71" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H71" s="14" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="72" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H72" s="14" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="73" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H73" s="14" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="74" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H74" s="14" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="75" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H75" s="14" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="76" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H76" s="14" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="77" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H77" s="14" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="78" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H78" s="14" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="79" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H79" s="14" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="80" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H80" s="14" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="81" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H81" s="14"/>
+    </row>
+    <row r="82" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H82" s="14" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="83" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H83" s="14" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="84" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H84" s="14" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="85" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H85" s="14" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="86" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H86" s="14" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="87" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H87" s="14"/>
+    </row>
+    <row r="88" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H88" s="14" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="89" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H89" s="14" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="90" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H90" s="14" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="91" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H91" s="14" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="92" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H92" s="14" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="93" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H93" s="14" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="94" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H94" s="14"/>
+    </row>
+    <row r="95" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H95" s="14" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="96" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H96" s="14" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="97" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H97" s="14" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="98" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H98" s="14" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="99" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H99" s="14" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="100" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H100" s="14"/>
+    </row>
+    <row r="101" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H101" s="14" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="102" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H102" s="14" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="103" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H103" s="14" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="104" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H104" s="14" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="105" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H105" s="14" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="106" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H106" s="14"/>
+    </row>
+    <row r="107" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H107" s="14" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="108" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H108" s="14" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="109" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H109" s="14" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="110" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H110" s="14" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="111" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H111" s="14" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="112" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H112" s="14" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="113" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H113" s="14" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="114" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H114" s="14" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="115" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H115" s="14" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="116" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H116" s="14" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="117" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H117" s="14"/>
+    </row>
+    <row r="118" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H118" s="14" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="119" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H119" s="14" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="120" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H120" s="14" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="121" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H121" s="14" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="122" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H122" s="14" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="123" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H123" s="14" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="124" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H124" s="14" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="125" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H125" s="14" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="126" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H126" s="14" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="127" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H127" s="14" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="128" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H128" s="14"/>
+    </row>
+    <row r="129" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H129" s="14" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="130" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H130" s="14" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="131" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H131" s="14" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="132" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H132" s="14" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="133" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H133" s="14" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="134" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H134" s="14" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="135" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H135" s="14"/>
+    </row>
+    <row r="136" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H136" s="14" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="137" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H137" s="14" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="138" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H138" s="14" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="139" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H139" s="14" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="140" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H140" s="14" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="141" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H141" s="14" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="142" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H142" s="14"/>
+    </row>
+    <row r="143" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H143" s="14" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="144" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H144" s="14" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="145" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H145" s="14" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="146" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H146" s="14" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="147" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H147" s="14" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="148" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H148" s="14"/>
+    </row>
+    <row r="149" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H149" s="14" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="150" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H150" s="14" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="151" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H151" s="14" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="152" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H152" s="14" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="153" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H153" s="14" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="154" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H154" s="14" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="155" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H155" s="14" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="156" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H156" s="14" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="157" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H157" s="14" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="158" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H158" s="14" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="159" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H159" s="14"/>
+    </row>
+    <row r="160" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H160" s="14" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="161" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H161" s="14" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="162" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H162" s="14" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="163" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H163" s="14" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="164" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H164" s="14" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="165" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H165" s="14" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="166" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H166" s="14" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="167" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H167" s="14" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="168" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H168" s="14" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="169" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H169" s="14"/>
+    </row>
+    <row r="170" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H170" s="14" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="171" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H171" s="14" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="172" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H172" s="14" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="173" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H173" s="14" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="174" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H174" s="14" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="175" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H175" s="14" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="176" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H176" s="14"/>
+    </row>
+    <row r="177" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H177" s="14" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="178" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H178" s="14" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="179" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H179" s="14" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="180" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H180" s="14" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="181" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H181" s="14" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="182" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H182" s="14"/>
+    </row>
+    <row r="183" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H183" s="14" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="184" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H184" s="14" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="185" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H185" s="14" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="186" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H186" s="14" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="187" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H187" s="14" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="188" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H188" s="14" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="189" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H189" s="14" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="190" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H190" s="14"/>
+    </row>
+    <row r="191" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H191" s="14" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="192" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H192" s="14" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="193" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H193" s="14" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="194" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H194" s="14" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="195" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H195" s="14" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="196" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H196" s="14" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="197" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H197" s="14"/>
+    </row>
+    <row r="198" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H198" s="14" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="199" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H199" s="14" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="200" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H200" s="14" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="201" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H201" s="14" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="202" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H202" s="14" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="203" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H203" s="14"/>
+    </row>
+    <row r="204" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H204" s="14" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="205" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H205" s="14" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="206" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H206" s="14" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="207" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H207" s="14" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="208" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H208" s="14" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="209" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H209" s="14" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="210" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H210" s="14"/>
+    </row>
+    <row r="211" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H211" s="26" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="212" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H212" s="14" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="213" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H213" s="14" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="214" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H214" s="14" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="215" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H215" s="14" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="216" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H216" s="14"/>
+    </row>
+    <row r="217" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H217" s="14" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="218" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H218" s="14" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="219" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H219" s="14" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="220" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H220" s="14" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="221" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H221" s="14"/>
+    </row>
+    <row r="222" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H222" s="14" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="223" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H223" s="14" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="224" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H224" s="14" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="225" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H225" s="14" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="226" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H226" s="14" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="227" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H227" s="14" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="228" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H228" s="14" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="229" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H229" s="14" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="230" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H230" s="14"/>
+    </row>
+    <row r="231" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H231" s="14" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="232" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H232" s="14" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="233" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H233" s="14" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="234" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H234" s="14" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="235" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H235" s="14" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="236" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H236" s="14"/>
+    </row>
+    <row r="237" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H237" s="14" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="238" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H238" s="14" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="239" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H239" s="14" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="240" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H240" s="14" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="241" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H241" s="14"/>
+    </row>
+    <row r="242" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H242" s="26" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="243" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H243" s="14" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="244" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H244" s="14" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="245" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H245" s="14" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="246" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H246" s="14"/>
+    </row>
+    <row r="247" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H247" s="14" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="248" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H248" s="14" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="249" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H249" s="14" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="250" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H250" s="14" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G3" r:id="rId1" xr:uid="{334309F1-4FC5-491E-9E6C-AEDA1E76A4A5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/db_schema_definitions/db_schema_definitions.xlsx
+++ b/db_schema_definitions/db_schema_definitions.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/smi9a9_csiro_au/Documents/Documents/AM_metadata/Github/contextualdb_doc/db_schema_definitions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFA42528-2505-4CDF-8739-A4A5BC9D3E6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{AFA42528-2505-4CDF-8739-A4A5BC9D3E6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0C5DF500-B4CB-4E6E-8C5F-B8E1B699DB4A}"/>
   <bookViews>
-    <workbookView xWindow="9555" yWindow="5310" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4980" yWindow="6585" windowWidth="19095" windowHeight="9735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="2.0.1" sheetId="1" r:id="rId1"/>
+    <sheet name="2.0.2" sheetId="1" r:id="rId1"/>
     <sheet name="Control_vocab" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2880" uniqueCount="1480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2881" uniqueCount="1481">
   <si>
     <t>Field</t>
   </si>
@@ -5763,6 +5763,9 @@
   </si>
   <si>
     <t>Volume (L) of processed sample for DNA extraction</t>
+  </si>
+  <si>
+    <t>WARNING: Samples mislabelled (depth of sample)</t>
   </si>
 </sst>
 </file>
@@ -5940,9 +5943,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -5953,8 +5954,6 @@
     <xf numFmtId="11" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -5962,15 +5961,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5985,6 +5980,14 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6327,7 +6330,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G495"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+    <sheetView topLeftCell="A184" workbookViewId="0">
       <selection activeCell="E382" sqref="E382"/>
     </sheetView>
   </sheetViews>
@@ -14624,31 +14627,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE41060-E109-4C1D-B42D-0981893BEDC4}">
   <dimension ref="A1:R250"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.85546875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="64.42578125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="51.5703125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="30" style="5" customWidth="1"/>
-    <col min="10" max="10" width="32.28515625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="17" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="38.28515625" style="5" customWidth="1"/>
-    <col min="14" max="14" width="65.42578125" style="5" customWidth="1"/>
-    <col min="15" max="15" width="19.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="33.28515625" style="5" customWidth="1"/>
-    <col min="17" max="17" width="62.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.85546875" style="15" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="64.42578125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="51.5703125" style="15" customWidth="1"/>
+    <col min="9" max="9" width="30" style="15" customWidth="1"/>
+    <col min="10" max="10" width="32.28515625" style="15" customWidth="1"/>
+    <col min="11" max="11" width="17" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="38.28515625" style="15" customWidth="1"/>
+    <col min="14" max="14" width="65.42578125" style="15" customWidth="1"/>
+    <col min="15" max="15" width="19.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="33.28515625" style="15" customWidth="1"/>
+    <col min="17" max="17" width="62.85546875" style="15" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.85546875" style="5"/>
+    <col min="19" max="16384" width="8.85546875" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14703,16 +14706,16 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="15" t="s">
         <v>1047</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>1048</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="15" t="s">
         <v>1049</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="15" t="s">
         <v>1050</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -14721,29 +14724,29 @@
       <c r="F2" s="2" t="s">
         <v>1052</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="25" t="s">
         <v>1053</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="8" t="s">
+      <c r="H2" s="25"/>
+      <c r="I2" s="6" t="s">
         <v>1054</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="6" t="s">
         <v>1055</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="6" t="s">
         <v>1056</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="6" t="s">
         <v>1057</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>1058</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="7" t="s">
         <v>1059</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="15" t="s">
         <v>1060</v>
       </c>
       <c r="P2" s="2" t="s">
@@ -14754,579 +14757,582 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>1063</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="15" t="s">
         <v>1064</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="15" t="s">
         <v>1065</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="8" t="s">
         <v>1066</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="9" t="s">
         <v>1067</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="26" t="s">
         <v>1068</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="5" t="s">
+      <c r="H3" s="27"/>
+      <c r="I3" s="15" t="s">
         <v>1069</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="15" t="s">
         <v>1070</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="6" t="s">
         <v>1071</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="6" t="s">
         <v>1072</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="15" t="s">
         <v>1073</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="7" t="s">
         <v>1074</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="15" t="s">
         <v>1075</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="P3" s="15" t="s">
         <v>1076</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="Q3" s="15" t="s">
         <v>1077</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="10" t="s">
         <v>1078</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="15" t="s">
         <v>1079</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="15" t="s">
         <v>1080</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="8" t="s">
         <v>1081</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="11" t="s">
         <v>1082</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="12" t="s">
         <v>1083</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="8" t="s">
+      <c r="H4" s="12"/>
+      <c r="I4" s="6" t="s">
         <v>1084</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="15" t="s">
         <v>1085</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="6" t="s">
         <v>1086</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="6" t="s">
         <v>1087</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="15" t="s">
         <v>1088</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="7" t="s">
         <v>1089</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="O4" s="15" t="s">
         <v>1090</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="P4" s="15" t="s">
         <v>1091</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="Q4" s="15" t="s">
         <v>1092</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="10" t="s">
         <v>1093</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="15" t="s">
         <v>1094</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="15" t="s">
         <v>1095</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="8" t="s">
         <v>1096</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="11" t="s">
         <v>1097</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="28" t="s">
         <v>1098</v>
       </c>
-      <c r="H5" s="17"/>
-      <c r="I5" s="8" t="s">
+      <c r="H5" s="28"/>
+      <c r="I5" s="6" t="s">
         <v>1099</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="6" t="s">
         <v>1100</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="6" t="s">
         <v>1101</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="6" t="s">
         <v>1102</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="15" t="s">
         <v>1103</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="O5" s="15" t="s">
         <v>1104</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="P5" s="15" t="s">
         <v>1105</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="Q5" s="15" t="s">
         <v>1106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="15" t="s">
         <v>1107</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="10" t="s">
         <v>1108</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="13" t="s">
         <v>1109</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="15" t="s">
         <v>1110</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="8" t="s">
         <v>1111</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="11" t="s">
         <v>1112</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="29" t="s">
         <v>1113</v>
       </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="8" t="s">
+      <c r="H6" s="29"/>
+      <c r="I6" s="6" t="s">
         <v>1114</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="6" t="s">
         <v>1115</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="6" t="s">
         <v>1116</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="L6" s="6" t="s">
         <v>1117</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="M6" s="15" t="s">
         <v>1118</v>
       </c>
-      <c r="O6" s="5" t="s">
+      <c r="O6" s="15" t="s">
         <v>1119</v>
       </c>
-      <c r="P6" s="5" t="s">
+      <c r="P6" s="15" t="s">
         <v>1120</v>
       </c>
-      <c r="Q6" s="5" t="s">
+      <c r="Q6" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="14" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>1127</v>
+      </c>
+      <c r="H7" s="23"/>
+      <c r="I7" s="6" t="s">
+        <v>1128</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>1129</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>1130</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>1131</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>1132</v>
+      </c>
+      <c r="O7" s="15" t="s">
+        <v>1133</v>
+      </c>
+      <c r="P7" s="15" t="s">
+        <v>1134</v>
+      </c>
+      <c r="Q7" s="15" t="s">
         <v>1121</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="20" t="s">
-        <v>1122</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>1123</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>1124</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>1125</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>1126</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>1127</v>
-      </c>
-      <c r="H7" s="21"/>
-      <c r="I7" s="8" t="s">
-        <v>1128</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>1129</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>1130</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>1131</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>1132</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>1133</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>1134</v>
-      </c>
-    </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="10" t="s">
         <v>1135</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="15" t="s">
         <v>1136</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="8" t="s">
         <v>1137</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="11" t="s">
         <v>1138</v>
       </c>
       <c r="G8" s="22" t="s">
         <v>1139</v>
       </c>
       <c r="H8" s="22"/>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="6" t="s">
         <v>1140</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="6" t="s">
         <v>1141</v>
       </c>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8" t="s">
+      <c r="K8" s="6"/>
+      <c r="L8" s="6" t="s">
         <v>1142</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="M8" s="15" t="s">
         <v>1143</v>
       </c>
-      <c r="O8" s="5" t="s">
+      <c r="O8" s="15" t="s">
         <v>1144</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="10" t="s">
         <v>1145</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="8" t="s">
         <v>1146</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="11" t="s">
         <v>1147</v>
       </c>
       <c r="G9" s="22" t="s">
         <v>1148</v>
       </c>
       <c r="H9" s="22"/>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="6" t="s">
         <v>1149</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="6" t="s">
         <v>1150</v>
       </c>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8" t="s">
+      <c r="K9" s="6"/>
+      <c r="L9" s="6" t="s">
         <v>1151</v>
       </c>
-      <c r="M9" s="5" t="s">
+      <c r="M9" s="15" t="s">
         <v>1152</v>
       </c>
-      <c r="O9" s="5" t="s">
+      <c r="O9" s="15" t="s">
         <v>1153</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="10" t="s">
         <v>1154</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="8" t="s">
         <v>1155</v>
       </c>
       <c r="G10" s="22" t="s">
         <v>1156</v>
       </c>
       <c r="H10" s="22"/>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="6" t="s">
         <v>1157</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="6" t="s">
         <v>1158</v>
       </c>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8" t="s">
+      <c r="K10" s="6"/>
+      <c r="L10" s="6" t="s">
         <v>1159</v>
       </c>
-      <c r="M10" s="5" t="s">
+      <c r="M10" s="15" t="s">
         <v>1160</v>
       </c>
-      <c r="O10" s="5" t="s">
+      <c r="O10" s="15" t="s">
         <v>1161</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="10" t="s">
         <v>1162</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="10"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="8" t="s">
+      <c r="E11" s="8"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="6" t="s">
         <v>1163</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="J11" s="6" t="s">
         <v>1164</v>
       </c>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8" t="s">
+      <c r="K11" s="6"/>
+      <c r="L11" s="6" t="s">
         <v>1165</v>
       </c>
-      <c r="M11" s="5" t="s">
+      <c r="M11" s="15" t="s">
         <v>1166</v>
       </c>
-      <c r="O11" s="5" t="s">
+      <c r="O11" s="15" t="s">
         <v>1167</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="15" t="s">
         <v>1168</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="G12" s="23" t="s">
+      <c r="E12" s="8"/>
+      <c r="G12" s="24" t="s">
         <v>1169</v>
       </c>
-      <c r="H12" s="23"/>
-      <c r="I12" s="8" t="s">
+      <c r="H12" s="24"/>
+      <c r="I12" s="6" t="s">
         <v>1170</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="J12" s="6" t="s">
         <v>1171</v>
       </c>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8" t="s">
+      <c r="K12" s="6"/>
+      <c r="L12" s="6" t="s">
         <v>1172</v>
       </c>
-      <c r="M12" s="5" t="s">
+      <c r="M12" s="15" t="s">
         <v>1173</v>
       </c>
-      <c r="O12" s="5" t="s">
+      <c r="O12" s="15" t="s">
         <v>1174</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="15" t="s">
         <v>1175</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>1176</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="23" t="s">
         <v>1177</v>
       </c>
-      <c r="H13" s="21"/>
-      <c r="I13" s="8" t="s">
+      <c r="H13" s="23"/>
+      <c r="I13" s="6" t="s">
         <v>1178</v>
       </c>
-      <c r="J13" s="8" t="s">
+      <c r="J13" s="6" t="s">
         <v>1179</v>
       </c>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8" t="s">
+      <c r="K13" s="6"/>
+      <c r="L13" s="6" t="s">
         <v>1180</v>
       </c>
-      <c r="M13" s="5" t="s">
+      <c r="M13" s="15" t="s">
         <v>1181</v>
       </c>
-      <c r="O13" s="5" t="s">
+      <c r="O13" s="15" t="s">
         <v>1182</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="8" t="s">
         <v>1183</v>
       </c>
       <c r="G14" s="22" t="s">
         <v>1184</v>
       </c>
       <c r="H14" s="22"/>
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="6" t="s">
         <v>1185</v>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="J14" s="6" t="s">
         <v>1186</v>
       </c>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8" t="s">
+      <c r="K14" s="6"/>
+      <c r="L14" s="6" t="s">
         <v>1187</v>
       </c>
-      <c r="M14" s="5" t="s">
+      <c r="M14" s="15" t="s">
         <v>1188</v>
       </c>
-      <c r="O14" s="5" t="s">
+      <c r="O14" s="15" t="s">
         <v>1189</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="8" t="s">
         <v>1190</v>
       </c>
       <c r="G15" s="22" t="s">
         <v>1191</v>
       </c>
       <c r="H15" s="22"/>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="6" t="s">
         <v>1192</v>
       </c>
-      <c r="J15" s="8" t="s">
+      <c r="J15" s="6" t="s">
         <v>1193</v>
       </c>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8" t="s">
+      <c r="K15" s="6"/>
+      <c r="L15" s="6" t="s">
         <v>1194</v>
       </c>
-      <c r="M15" s="5" t="s">
+      <c r="M15" s="15" t="s">
         <v>1195</v>
       </c>
-      <c r="O15" s="5" t="s">
+      <c r="O15" s="15" t="s">
         <v>1196</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="8" t="s">
         <v>1197</v>
       </c>
       <c r="G16" s="22" t="s">
         <v>1198</v>
       </c>
       <c r="H16" s="22"/>
-      <c r="I16" s="8" t="s">
+      <c r="I16" s="6" t="s">
         <v>1199</v>
       </c>
-      <c r="J16" s="8" t="s">
+      <c r="J16" s="6" t="s">
         <v>1200</v>
       </c>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="5" t="s">
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="15" t="s">
         <v>1201</v>
       </c>
-      <c r="O16" s="5" t="s">
+      <c r="O16" s="15" t="s">
         <v>1202</v>
       </c>
     </row>
     <row r="17" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="8" t="s">
         <v>1203</v>
       </c>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="8" t="s">
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="6" t="s">
         <v>1204</v>
       </c>
-      <c r="J17" s="8" t="s">
+      <c r="J17" s="6" t="s">
         <v>1205</v>
       </c>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="5" t="s">
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="15" t="s">
         <v>1206</v>
       </c>
-      <c r="O17" s="5" t="s">
+      <c r="O17" s="15" t="s">
         <v>1207</v>
       </c>
     </row>
     <row r="18" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="8" t="s">
         <v>1208</v>
       </c>
-      <c r="G18" s="24" t="s">
+      <c r="G18" s="16" t="s">
         <v>1209</v>
       </c>
-      <c r="H18" s="25" t="s">
+      <c r="H18" s="17" t="s">
         <v>1210</v>
       </c>
-      <c r="I18" s="8" t="s">
+      <c r="I18" s="6" t="s">
         <v>1211</v>
       </c>
-      <c r="J18" s="8" t="s">
+      <c r="J18" s="6" t="s">
         <v>1212</v>
       </c>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="5" t="s">
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="15" t="s">
         <v>1213</v>
       </c>
-      <c r="O18" s="5" t="s">
+      <c r="O18" s="15" t="s">
         <v>1214</v>
       </c>
     </row>
     <row r="19" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="8" t="s">
         <v>1215</v>
       </c>
-      <c r="G19" s="26" t="s">
+      <c r="G19" s="18" t="s">
         <v>1216</v>
       </c>
-      <c r="H19" s="14" t="s">
+      <c r="H19" s="10" t="s">
         <v>1217</v>
       </c>
-      <c r="I19" s="8" t="s">
+      <c r="I19" s="6" t="s">
         <v>1212</v>
       </c>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="5" t="s">
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="15" t="s">
         <v>1218</v>
       </c>
-      <c r="O19" s="5" t="s">
+      <c r="O19" s="15" t="s">
         <v>1219</v>
       </c>
     </row>
     <row r="20" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="8" t="s">
         <v>1220</v>
       </c>
-      <c r="G20" s="26" t="s">
+      <c r="G20" s="18" t="s">
         <v>1221</v>
       </c>
-      <c r="H20" s="14" t="s">
+      <c r="H20" s="10" t="s">
         <v>1222</v>
       </c>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="5" t="s">
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="15" t="s">
         <v>1223</v>
       </c>
-      <c r="O20" s="5" t="s">
+      <c r="O20" s="15" t="s">
         <v>1224</v>
       </c>
     </row>
     <row r="21" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E21" s="27"/>
-      <c r="G21" s="26" t="s">
+      <c r="E21" s="19"/>
+      <c r="G21" s="18" t="s">
         <v>1225</v>
       </c>
-      <c r="H21" s="14" t="s">
+      <c r="H21" s="10" t="s">
         <v>1226</v>
       </c>
       <c r="I21" s="2" t="s">
@@ -15335,1299 +15341,1305 @@
       <c r="J21" s="2" t="s">
         <v>1176</v>
       </c>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="5" t="s">
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="15" t="s">
         <v>1227</v>
       </c>
-      <c r="O21" s="5" t="s">
+      <c r="O21" s="15" t="s">
         <v>1228</v>
       </c>
     </row>
     <row r="22" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E22" s="28"/>
-      <c r="G22" s="26" t="s">
+      <c r="E22" s="20"/>
+      <c r="G22" s="18" t="s">
         <v>1229</v>
       </c>
-      <c r="H22" s="14" t="s">
+      <c r="H22" s="10" t="s">
         <v>1230</v>
       </c>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="5" t="s">
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="15" t="s">
         <v>1231</v>
       </c>
-      <c r="O22" s="5" t="s">
+      <c r="O22" s="15" t="s">
         <v>1232</v>
       </c>
     </row>
     <row r="23" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E23" s="29"/>
-      <c r="G23" s="26" t="s">
+      <c r="E23" s="21"/>
+      <c r="G23" s="18" t="s">
         <v>1233</v>
       </c>
-      <c r="H23" s="14" t="s">
+      <c r="H23" s="10" t="s">
         <v>1234</v>
       </c>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="5" t="s">
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="15" t="s">
         <v>1235</v>
       </c>
-      <c r="O23" s="5" t="s">
+      <c r="O23" s="15" t="s">
         <v>1236</v>
       </c>
     </row>
     <row r="24" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="G24" s="26" t="s">
+      <c r="G24" s="18" t="s">
         <v>1237</v>
       </c>
-      <c r="H24" s="14" t="s">
+      <c r="H24" s="10" t="s">
         <v>1238</v>
       </c>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="5" t="s">
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="15" t="s">
         <v>1239</v>
       </c>
     </row>
     <row r="25" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="G25" s="26" t="s">
+      <c r="G25" s="18" t="s">
         <v>1240</v>
       </c>
-      <c r="H25" s="14" t="s">
+      <c r="H25" s="10" t="s">
         <v>1241</v>
       </c>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="5" t="s">
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="15" t="s">
         <v>1242</v>
       </c>
     </row>
     <row r="26" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="H26" s="14" t="s">
+      <c r="H26" s="10" t="s">
         <v>1243</v>
       </c>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="5" t="s">
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="15" t="s">
         <v>1244</v>
       </c>
     </row>
     <row r="27" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="H27" s="14"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="5" t="s">
+      <c r="H27" s="10"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="15" t="s">
         <v>1245</v>
       </c>
     </row>
     <row r="28" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="H28" s="14" t="s">
+      <c r="H28" s="10" t="s">
         <v>1246</v>
       </c>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="5" t="s">
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="15" t="s">
         <v>1247</v>
       </c>
     </row>
     <row r="29" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="H29" s="14" t="s">
+      <c r="H29" s="10" t="s">
         <v>1248</v>
       </c>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="5" t="s">
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="15" t="s">
         <v>1249</v>
       </c>
     </row>
     <row r="30" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="H30" s="14" t="s">
+      <c r="H30" s="10" t="s">
         <v>1250</v>
       </c>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="5" t="s">
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="15" t="s">
         <v>1251</v>
       </c>
     </row>
     <row r="31" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="H31" s="14" t="s">
+      <c r="H31" s="10" t="s">
         <v>1252</v>
       </c>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="5" t="s">
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="15" t="s">
         <v>1253</v>
       </c>
     </row>
     <row r="32" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="H32" s="14" t="s">
+      <c r="H32" s="10" t="s">
         <v>1254</v>
       </c>
-      <c r="M32" s="5" t="s">
+      <c r="M32" s="15" t="s">
         <v>1255</v>
       </c>
     </row>
     <row r="33" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H33" s="14" t="s">
+      <c r="H33" s="10" t="s">
         <v>1256</v>
       </c>
-      <c r="M33" s="5" t="s">
+      <c r="M33" s="15" t="s">
         <v>1257</v>
       </c>
     </row>
     <row r="34" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H34" s="14"/>
-      <c r="M34" s="5" t="s">
+      <c r="H34" s="10"/>
+      <c r="M34" s="15" t="s">
         <v>1258</v>
       </c>
     </row>
     <row r="35" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H35" s="14" t="s">
+      <c r="H35" s="10" t="s">
         <v>1259</v>
       </c>
-      <c r="M35" s="5" t="s">
+      <c r="M35" s="15" t="s">
         <v>1260</v>
       </c>
     </row>
     <row r="36" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H36" s="14" t="s">
+      <c r="H36" s="10" t="s">
         <v>1261</v>
       </c>
     </row>
     <row r="37" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H37" s="14" t="s">
+      <c r="H37" s="10" t="s">
         <v>1262</v>
       </c>
-      <c r="M37" s="5" t="s">
+      <c r="M37" s="15" t="s">
         <v>1263</v>
       </c>
     </row>
     <row r="38" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H38" s="14" t="s">
+      <c r="H38" s="10" t="s">
         <v>1264</v>
       </c>
-      <c r="M38" s="5" t="s">
+      <c r="M38" s="15" t="s">
         <v>1265</v>
       </c>
     </row>
     <row r="39" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H39" s="14" t="s">
+      <c r="H39" s="10" t="s">
         <v>1266</v>
       </c>
-      <c r="M39" s="5" t="s">
+      <c r="M39" s="15" t="s">
         <v>1267</v>
       </c>
     </row>
     <row r="40" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H40" s="14"/>
-      <c r="M40" s="5" t="s">
+      <c r="H40" s="10"/>
+      <c r="M40" s="15" t="s">
         <v>1268</v>
       </c>
     </row>
     <row r="41" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H41" s="14" t="s">
+      <c r="H41" s="10" t="s">
         <v>1269</v>
       </c>
-      <c r="M41" s="5" t="s">
+      <c r="M41" s="15" t="s">
         <v>1270</v>
       </c>
     </row>
     <row r="42" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H42" s="14" t="s">
+      <c r="H42" s="10" t="s">
         <v>1271</v>
       </c>
-      <c r="M42" s="5" t="s">
+      <c r="M42" s="15" t="s">
         <v>1272</v>
       </c>
     </row>
     <row r="43" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H43" s="14"/>
-      <c r="M43" s="5" t="s">
+      <c r="H43" s="10"/>
+      <c r="M43" s="15" t="s">
         <v>1273</v>
       </c>
     </row>
     <row r="44" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H44" s="14" t="s">
+      <c r="H44" s="10" t="s">
         <v>1274</v>
       </c>
-      <c r="M44" s="5" t="s">
+      <c r="M44" s="15" t="s">
         <v>1275</v>
       </c>
     </row>
     <row r="45" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H45" s="14" t="s">
+      <c r="H45" s="10" t="s">
         <v>1276</v>
       </c>
-      <c r="M45" s="5" t="s">
+      <c r="M45" s="15" t="s">
         <v>1277</v>
       </c>
     </row>
     <row r="46" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H46" s="14" t="s">
+      <c r="H46" s="10" t="s">
         <v>1278</v>
       </c>
-      <c r="M46" s="5" t="s">
+      <c r="M46" s="15" t="s">
         <v>1279</v>
       </c>
     </row>
     <row r="47" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H47" s="14"/>
-      <c r="M47" s="5" t="s">
+      <c r="H47" s="10"/>
+      <c r="M47" s="15" t="s">
         <v>1280</v>
       </c>
     </row>
     <row r="48" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H48" s="14" t="s">
+      <c r="H48" s="10" t="s">
         <v>1281</v>
       </c>
-      <c r="M48" s="5" t="s">
+      <c r="M48" s="15" t="s">
         <v>1282</v>
       </c>
     </row>
     <row r="49" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H49" s="14" t="s">
+      <c r="H49" s="10" t="s">
         <v>1283</v>
       </c>
-      <c r="M49" s="5" t="s">
+      <c r="M49" s="15" t="s">
         <v>1284</v>
       </c>
     </row>
     <row r="50" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H50" s="14" t="s">
+      <c r="H50" s="10" t="s">
         <v>1285</v>
       </c>
-      <c r="M50" s="5" t="s">
+      <c r="M50" s="15" t="s">
         <v>1286</v>
       </c>
     </row>
     <row r="51" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H51" s="14" t="s">
+      <c r="H51" s="10" t="s">
         <v>1287</v>
       </c>
-      <c r="M51" s="5" t="s">
+      <c r="M51" s="15" t="s">
         <v>1288</v>
       </c>
     </row>
     <row r="52" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H52" s="14" t="s">
+      <c r="H52" s="10" t="s">
         <v>1289</v>
       </c>
-      <c r="M52" s="5" t="s">
+      <c r="M52" s="15" t="s">
         <v>1290</v>
       </c>
     </row>
     <row r="53" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H53" s="14"/>
-      <c r="M53" s="5" t="s">
+      <c r="H53" s="10"/>
+      <c r="M53" s="15" t="s">
         <v>1291</v>
       </c>
     </row>
     <row r="54" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H54" s="14" t="s">
+      <c r="H54" s="10" t="s">
         <v>1292</v>
       </c>
-      <c r="M54" s="5" t="s">
+      <c r="M54" s="15" t="s">
         <v>1293</v>
       </c>
     </row>
     <row r="55" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H55" s="14" t="s">
+      <c r="H55" s="10" t="s">
         <v>1294</v>
       </c>
-      <c r="M55" s="5" t="s">
+      <c r="M55" s="15" t="s">
         <v>1295</v>
       </c>
     </row>
     <row r="56" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H56" s="14" t="s">
+      <c r="H56" s="10" t="s">
         <v>1296</v>
       </c>
-      <c r="M56" s="5" t="s">
+      <c r="M56" s="15" t="s">
         <v>1297</v>
       </c>
     </row>
     <row r="57" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H57" s="14" t="s">
+      <c r="H57" s="10" t="s">
         <v>1298</v>
       </c>
-      <c r="M57" s="5" t="s">
+      <c r="M57" s="15" t="s">
         <v>1299</v>
       </c>
     </row>
     <row r="58" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H58" s="14" t="s">
+      <c r="H58" s="10" t="s">
         <v>1300</v>
       </c>
-      <c r="M58" s="5" t="s">
+      <c r="M58" s="15" t="s">
         <v>1301</v>
       </c>
     </row>
     <row r="59" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H59" s="14" t="s">
+      <c r="H59" s="10" t="s">
         <v>1302</v>
       </c>
-      <c r="M59" s="5" t="s">
+      <c r="M59" s="15" t="s">
         <v>1303</v>
       </c>
     </row>
     <row r="60" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H60" s="14"/>
-      <c r="M60" s="5" t="s">
+      <c r="H60" s="10"/>
+      <c r="M60" s="15" t="s">
         <v>1304</v>
       </c>
     </row>
     <row r="61" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H61" s="14" t="s">
+      <c r="H61" s="10" t="s">
         <v>1305</v>
       </c>
-      <c r="M61" s="5" t="s">
+      <c r="M61" s="15" t="s">
         <v>1306</v>
       </c>
     </row>
     <row r="62" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H62" s="14" t="s">
+      <c r="H62" s="10" t="s">
         <v>1307</v>
       </c>
-      <c r="M62" s="5" t="s">
+      <c r="M62" s="15" t="s">
         <v>1308</v>
       </c>
     </row>
     <row r="63" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H63" s="14" t="s">
+      <c r="H63" s="10" t="s">
         <v>1309</v>
       </c>
-      <c r="M63" s="5" t="s">
+      <c r="M63" s="15" t="s">
         <v>1310</v>
       </c>
     </row>
     <row r="64" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H64" s="14" t="s">
+      <c r="H64" s="10" t="s">
         <v>1311</v>
       </c>
-      <c r="M64" s="5" t="s">
+      <c r="M64" s="15" t="s">
         <v>1312</v>
       </c>
     </row>
     <row r="65" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H65" s="14" t="s">
+      <c r="H65" s="10" t="s">
         <v>1313</v>
       </c>
-      <c r="M65" s="5" t="s">
+      <c r="M65" s="15" t="s">
         <v>1314</v>
       </c>
     </row>
     <row r="66" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H66" s="14" t="s">
+      <c r="H66" s="10" t="s">
         <v>1315</v>
       </c>
-      <c r="M66" s="5" t="s">
+      <c r="M66" s="15" t="s">
         <v>1316</v>
       </c>
     </row>
     <row r="67" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H67" s="14" t="s">
+      <c r="H67" s="10" t="s">
         <v>1317</v>
       </c>
-      <c r="M67" s="5" t="s">
+      <c r="M67" s="15" t="s">
         <v>1318</v>
       </c>
     </row>
     <row r="68" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H68" s="14" t="s">
+      <c r="H68" s="10" t="s">
         <v>1319</v>
       </c>
-      <c r="M68" s="5" t="s">
+      <c r="M68" s="15" t="s">
         <v>1320</v>
       </c>
     </row>
     <row r="69" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H69" s="14" t="s">
+      <c r="H69" s="10" t="s">
         <v>1321</v>
       </c>
-      <c r="M69" s="5" t="s">
+      <c r="M69" s="15" t="s">
         <v>1322</v>
       </c>
     </row>
     <row r="70" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H70" s="14"/>
-      <c r="M70" s="5" t="s">
+      <c r="H70" s="10"/>
+      <c r="M70" s="15" t="s">
         <v>1323</v>
       </c>
     </row>
     <row r="71" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H71" s="14" t="s">
+      <c r="H71" s="10" t="s">
         <v>1324</v>
       </c>
     </row>
     <row r="72" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H72" s="14" t="s">
+      <c r="H72" s="10" t="s">
         <v>1325</v>
       </c>
     </row>
     <row r="73" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H73" s="14" t="s">
+      <c r="H73" s="10" t="s">
         <v>1326</v>
       </c>
     </row>
     <row r="74" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H74" s="14" t="s">
+      <c r="H74" s="10" t="s">
         <v>1327</v>
       </c>
     </row>
     <row r="75" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H75" s="14" t="s">
+      <c r="H75" s="10" t="s">
         <v>1328</v>
       </c>
     </row>
     <row r="76" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H76" s="14" t="s">
+      <c r="H76" s="10" t="s">
         <v>1329</v>
       </c>
     </row>
     <row r="77" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H77" s="14" t="s">
+      <c r="H77" s="10" t="s">
         <v>1330</v>
       </c>
     </row>
     <row r="78" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H78" s="14" t="s">
+      <c r="H78" s="10" t="s">
         <v>1331</v>
       </c>
     </row>
     <row r="79" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H79" s="14" t="s">
+      <c r="H79" s="10" t="s">
         <v>1332</v>
       </c>
     </row>
     <row r="80" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H80" s="14" t="s">
+      <c r="H80" s="10" t="s">
         <v>1333</v>
       </c>
     </row>
     <row r="81" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H81" s="14"/>
+      <c r="H81" s="10"/>
     </row>
     <row r="82" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H82" s="14" t="s">
+      <c r="H82" s="10" t="s">
         <v>1334</v>
       </c>
     </row>
     <row r="83" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H83" s="14" t="s">
+      <c r="H83" s="10" t="s">
         <v>1335</v>
       </c>
     </row>
     <row r="84" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H84" s="14" t="s">
+      <c r="H84" s="10" t="s">
         <v>1336</v>
       </c>
     </row>
     <row r="85" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H85" s="14" t="s">
+      <c r="H85" s="10" t="s">
         <v>1337</v>
       </c>
     </row>
     <row r="86" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H86" s="14" t="s">
+      <c r="H86" s="10" t="s">
         <v>1338</v>
       </c>
     </row>
     <row r="87" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H87" s="14"/>
+      <c r="H87" s="10"/>
     </row>
     <row r="88" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H88" s="14" t="s">
+      <c r="H88" s="10" t="s">
         <v>1339</v>
       </c>
     </row>
     <row r="89" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H89" s="14" t="s">
+      <c r="H89" s="10" t="s">
         <v>1340</v>
       </c>
     </row>
     <row r="90" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H90" s="14" t="s">
+      <c r="H90" s="10" t="s">
         <v>1341</v>
       </c>
     </row>
     <row r="91" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H91" s="14" t="s">
+      <c r="H91" s="10" t="s">
         <v>1342</v>
       </c>
     </row>
     <row r="92" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H92" s="14" t="s">
+      <c r="H92" s="10" t="s">
         <v>1343</v>
       </c>
     </row>
     <row r="93" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H93" s="14" t="s">
+      <c r="H93" s="10" t="s">
         <v>1344</v>
       </c>
     </row>
     <row r="94" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H94" s="14"/>
+      <c r="H94" s="10"/>
     </row>
     <row r="95" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H95" s="14" t="s">
+      <c r="H95" s="10" t="s">
         <v>1345</v>
       </c>
     </row>
     <row r="96" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H96" s="14" t="s">
+      <c r="H96" s="10" t="s">
         <v>1346</v>
       </c>
     </row>
     <row r="97" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H97" s="14" t="s">
+      <c r="H97" s="10" t="s">
         <v>1347</v>
       </c>
     </row>
     <row r="98" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H98" s="14" t="s">
+      <c r="H98" s="10" t="s">
         <v>1348</v>
       </c>
     </row>
     <row r="99" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H99" s="14" t="s">
+      <c r="H99" s="10" t="s">
         <v>1349</v>
       </c>
     </row>
     <row r="100" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H100" s="14"/>
+      <c r="H100" s="10"/>
     </row>
     <row r="101" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H101" s="14" t="s">
+      <c r="H101" s="10" t="s">
         <v>1350</v>
       </c>
     </row>
     <row r="102" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H102" s="14" t="s">
+      <c r="H102" s="10" t="s">
         <v>1351</v>
       </c>
     </row>
     <row r="103" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H103" s="14" t="s">
+      <c r="H103" s="10" t="s">
         <v>1352</v>
       </c>
     </row>
     <row r="104" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H104" s="14" t="s">
+      <c r="H104" s="10" t="s">
         <v>1353</v>
       </c>
     </row>
     <row r="105" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H105" s="14" t="s">
+      <c r="H105" s="10" t="s">
         <v>1354</v>
       </c>
     </row>
     <row r="106" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H106" s="14"/>
+      <c r="H106" s="10"/>
     </row>
     <row r="107" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H107" s="14" t="s">
+      <c r="H107" s="10" t="s">
         <v>1355</v>
       </c>
     </row>
     <row r="108" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H108" s="14" t="s">
+      <c r="H108" s="10" t="s">
         <v>1356</v>
       </c>
     </row>
     <row r="109" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H109" s="14" t="s">
+      <c r="H109" s="10" t="s">
         <v>1357</v>
       </c>
     </row>
     <row r="110" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H110" s="14" t="s">
+      <c r="H110" s="10" t="s">
         <v>1358</v>
       </c>
     </row>
     <row r="111" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H111" s="14" t="s">
+      <c r="H111" s="10" t="s">
         <v>1359</v>
       </c>
     </row>
     <row r="112" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H112" s="14" t="s">
+      <c r="H112" s="10" t="s">
         <v>1360</v>
       </c>
     </row>
     <row r="113" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H113" s="14" t="s">
+      <c r="H113" s="10" t="s">
         <v>1361</v>
       </c>
     </row>
     <row r="114" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H114" s="14" t="s">
+      <c r="H114" s="10" t="s">
         <v>1362</v>
       </c>
     </row>
     <row r="115" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H115" s="14" t="s">
+      <c r="H115" s="10" t="s">
         <v>1363</v>
       </c>
     </row>
     <row r="116" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H116" s="14" t="s">
+      <c r="H116" s="10" t="s">
         <v>1364</v>
       </c>
     </row>
     <row r="117" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H117" s="14"/>
+      <c r="H117" s="10"/>
     </row>
     <row r="118" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H118" s="14" t="s">
+      <c r="H118" s="10" t="s">
         <v>1365</v>
       </c>
     </row>
     <row r="119" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H119" s="14" t="s">
+      <c r="H119" s="10" t="s">
         <v>1366</v>
       </c>
     </row>
     <row r="120" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H120" s="14" t="s">
+      <c r="H120" s="10" t="s">
         <v>1367</v>
       </c>
     </row>
     <row r="121" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H121" s="14" t="s">
+      <c r="H121" s="10" t="s">
         <v>1368</v>
       </c>
     </row>
     <row r="122" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H122" s="14" t="s">
+      <c r="H122" s="10" t="s">
         <v>1369</v>
       </c>
     </row>
     <row r="123" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H123" s="14" t="s">
+      <c r="H123" s="10" t="s">
         <v>1370</v>
       </c>
     </row>
     <row r="124" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H124" s="14" t="s">
+      <c r="H124" s="10" t="s">
         <v>1371</v>
       </c>
     </row>
     <row r="125" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H125" s="14" t="s">
+      <c r="H125" s="10" t="s">
         <v>1372</v>
       </c>
     </row>
     <row r="126" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H126" s="14" t="s">
+      <c r="H126" s="10" t="s">
         <v>1373</v>
       </c>
     </row>
     <row r="127" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H127" s="14" t="s">
+      <c r="H127" s="10" t="s">
         <v>1374</v>
       </c>
     </row>
     <row r="128" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H128" s="14"/>
+      <c r="H128" s="10"/>
     </row>
     <row r="129" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H129" s="14" t="s">
+      <c r="H129" s="10" t="s">
         <v>1375</v>
       </c>
     </row>
     <row r="130" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H130" s="14" t="s">
+      <c r="H130" s="10" t="s">
         <v>1376</v>
       </c>
     </row>
     <row r="131" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H131" s="14" t="s">
+      <c r="H131" s="10" t="s">
         <v>1377</v>
       </c>
     </row>
     <row r="132" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H132" s="14" t="s">
+      <c r="H132" s="10" t="s">
         <v>1378</v>
       </c>
     </row>
     <row r="133" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H133" s="14" t="s">
+      <c r="H133" s="10" t="s">
         <v>1379</v>
       </c>
     </row>
     <row r="134" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H134" s="14" t="s">
+      <c r="H134" s="10" t="s">
         <v>1380</v>
       </c>
     </row>
     <row r="135" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H135" s="14"/>
+      <c r="H135" s="10"/>
     </row>
     <row r="136" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H136" s="14" t="s">
+      <c r="H136" s="10" t="s">
         <v>1381</v>
       </c>
     </row>
     <row r="137" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H137" s="14" t="s">
+      <c r="H137" s="10" t="s">
         <v>1382</v>
       </c>
     </row>
     <row r="138" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H138" s="14" t="s">
+      <c r="H138" s="10" t="s">
         <v>1383</v>
       </c>
     </row>
     <row r="139" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H139" s="14" t="s">
+      <c r="H139" s="10" t="s">
         <v>1384</v>
       </c>
     </row>
     <row r="140" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H140" s="14" t="s">
+      <c r="H140" s="10" t="s">
         <v>1385</v>
       </c>
     </row>
     <row r="141" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H141" s="14" t="s">
+      <c r="H141" s="10" t="s">
         <v>1386</v>
       </c>
     </row>
     <row r="142" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H142" s="14"/>
+      <c r="H142" s="10"/>
     </row>
     <row r="143" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H143" s="14" t="s">
+      <c r="H143" s="10" t="s">
         <v>1387</v>
       </c>
     </row>
     <row r="144" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H144" s="14" t="s">
+      <c r="H144" s="10" t="s">
         <v>1388</v>
       </c>
     </row>
     <row r="145" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H145" s="14" t="s">
+      <c r="H145" s="10" t="s">
         <v>1389</v>
       </c>
     </row>
     <row r="146" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H146" s="14" t="s">
+      <c r="H146" s="10" t="s">
         <v>1390</v>
       </c>
     </row>
     <row r="147" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H147" s="14" t="s">
+      <c r="H147" s="10" t="s">
         <v>1391</v>
       </c>
     </row>
     <row r="148" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H148" s="14"/>
+      <c r="H148" s="10"/>
     </row>
     <row r="149" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H149" s="14" t="s">
+      <c r="H149" s="10" t="s">
         <v>1392</v>
       </c>
     </row>
     <row r="150" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H150" s="14" t="s">
+      <c r="H150" s="10" t="s">
         <v>1393</v>
       </c>
     </row>
     <row r="151" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H151" s="14" t="s">
+      <c r="H151" s="10" t="s">
         <v>1394</v>
       </c>
     </row>
     <row r="152" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H152" s="14" t="s">
+      <c r="H152" s="10" t="s">
         <v>1395</v>
       </c>
     </row>
     <row r="153" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H153" s="14" t="s">
+      <c r="H153" s="10" t="s">
         <v>1396</v>
       </c>
     </row>
     <row r="154" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H154" s="14" t="s">
+      <c r="H154" s="10" t="s">
         <v>1397</v>
       </c>
     </row>
     <row r="155" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H155" s="14" t="s">
+      <c r="H155" s="10" t="s">
         <v>1398</v>
       </c>
     </row>
     <row r="156" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H156" s="14" t="s">
+      <c r="H156" s="10" t="s">
         <v>1399</v>
       </c>
     </row>
     <row r="157" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H157" s="14" t="s">
+      <c r="H157" s="10" t="s">
         <v>1400</v>
       </c>
     </row>
     <row r="158" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H158" s="14" t="s">
+      <c r="H158" s="10" t="s">
         <v>1401</v>
       </c>
     </row>
     <row r="159" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H159" s="14"/>
+      <c r="H159" s="10"/>
     </row>
     <row r="160" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H160" s="14" t="s">
+      <c r="H160" s="10" t="s">
         <v>1402</v>
       </c>
     </row>
     <row r="161" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H161" s="14" t="s">
+      <c r="H161" s="10" t="s">
         <v>1403</v>
       </c>
     </row>
     <row r="162" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H162" s="14" t="s">
+      <c r="H162" s="10" t="s">
         <v>1404</v>
       </c>
     </row>
     <row r="163" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H163" s="14" t="s">
+      <c r="H163" s="10" t="s">
         <v>1405</v>
       </c>
     </row>
     <row r="164" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H164" s="14" t="s">
+      <c r="H164" s="10" t="s">
         <v>1406</v>
       </c>
     </row>
     <row r="165" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H165" s="14" t="s">
+      <c r="H165" s="10" t="s">
         <v>1407</v>
       </c>
     </row>
     <row r="166" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H166" s="14" t="s">
+      <c r="H166" s="10" t="s">
         <v>1408</v>
       </c>
     </row>
     <row r="167" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H167" s="14" t="s">
+      <c r="H167" s="10" t="s">
         <v>1409</v>
       </c>
     </row>
     <row r="168" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H168" s="14" t="s">
+      <c r="H168" s="10" t="s">
         <v>1410</v>
       </c>
     </row>
     <row r="169" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H169" s="14"/>
+      <c r="H169" s="10"/>
     </row>
     <row r="170" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H170" s="14" t="s">
+      <c r="H170" s="10" t="s">
         <v>1411</v>
       </c>
     </row>
     <row r="171" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H171" s="14" t="s">
+      <c r="H171" s="10" t="s">
         <v>1412</v>
       </c>
     </row>
     <row r="172" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H172" s="14" t="s">
+      <c r="H172" s="10" t="s">
         <v>1413</v>
       </c>
     </row>
     <row r="173" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H173" s="14" t="s">
+      <c r="H173" s="10" t="s">
         <v>1414</v>
       </c>
     </row>
     <row r="174" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H174" s="14" t="s">
+      <c r="H174" s="10" t="s">
         <v>1415</v>
       </c>
     </row>
     <row r="175" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H175" s="14" t="s">
+      <c r="H175" s="10" t="s">
         <v>1416</v>
       </c>
     </row>
     <row r="176" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H176" s="14"/>
+      <c r="H176" s="10"/>
     </row>
     <row r="177" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H177" s="14" t="s">
+      <c r="H177" s="10" t="s">
         <v>1417</v>
       </c>
     </row>
     <row r="178" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H178" s="14" t="s">
+      <c r="H178" s="10" t="s">
         <v>1418</v>
       </c>
     </row>
     <row r="179" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H179" s="14" t="s">
+      <c r="H179" s="10" t="s">
         <v>1419</v>
       </c>
     </row>
     <row r="180" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H180" s="14" t="s">
+      <c r="H180" s="10" t="s">
         <v>1420</v>
       </c>
     </row>
     <row r="181" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H181" s="14" t="s">
+      <c r="H181" s="10" t="s">
         <v>1421</v>
       </c>
     </row>
     <row r="182" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H182" s="14"/>
+      <c r="H182" s="10"/>
     </row>
     <row r="183" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H183" s="14" t="s">
+      <c r="H183" s="10" t="s">
         <v>1422</v>
       </c>
     </row>
     <row r="184" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H184" s="14" t="s">
+      <c r="H184" s="10" t="s">
         <v>1423</v>
       </c>
     </row>
     <row r="185" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H185" s="14" t="s">
+      <c r="H185" s="10" t="s">
         <v>1424</v>
       </c>
     </row>
     <row r="186" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H186" s="14" t="s">
+      <c r="H186" s="10" t="s">
         <v>1425</v>
       </c>
     </row>
     <row r="187" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H187" s="14" t="s">
+      <c r="H187" s="10" t="s">
         <v>1426</v>
       </c>
     </row>
     <row r="188" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H188" s="14" t="s">
+      <c r="H188" s="10" t="s">
         <v>1427</v>
       </c>
     </row>
     <row r="189" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H189" s="14" t="s">
+      <c r="H189" s="10" t="s">
         <v>1428</v>
       </c>
     </row>
     <row r="190" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H190" s="14"/>
+      <c r="H190" s="10"/>
     </row>
     <row r="191" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H191" s="14" t="s">
+      <c r="H191" s="10" t="s">
         <v>1429</v>
       </c>
     </row>
     <row r="192" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H192" s="14" t="s">
+      <c r="H192" s="10" t="s">
         <v>1430</v>
       </c>
     </row>
     <row r="193" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H193" s="14" t="s">
+      <c r="H193" s="10" t="s">
         <v>1431</v>
       </c>
     </row>
     <row r="194" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H194" s="14" t="s">
+      <c r="H194" s="10" t="s">
         <v>1432</v>
       </c>
     </row>
     <row r="195" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H195" s="14" t="s">
+      <c r="H195" s="10" t="s">
         <v>1433</v>
       </c>
     </row>
     <row r="196" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H196" s="14" t="s">
+      <c r="H196" s="10" t="s">
         <v>1434</v>
       </c>
     </row>
     <row r="197" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H197" s="14"/>
+      <c r="H197" s="10"/>
     </row>
     <row r="198" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H198" s="14" t="s">
+      <c r="H198" s="10" t="s">
         <v>1435</v>
       </c>
     </row>
     <row r="199" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H199" s="14" t="s">
+      <c r="H199" s="10" t="s">
         <v>1436</v>
       </c>
     </row>
     <row r="200" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H200" s="14" t="s">
+      <c r="H200" s="10" t="s">
         <v>1437</v>
       </c>
     </row>
     <row r="201" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H201" s="14" t="s">
+      <c r="H201" s="10" t="s">
         <v>1438</v>
       </c>
     </row>
     <row r="202" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H202" s="14" t="s">
+      <c r="H202" s="10" t="s">
         <v>1439</v>
       </c>
     </row>
     <row r="203" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H203" s="14"/>
+      <c r="H203" s="10"/>
     </row>
     <row r="204" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H204" s="14" t="s">
+      <c r="H204" s="10" t="s">
         <v>1440</v>
       </c>
     </row>
     <row r="205" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H205" s="14" t="s">
+      <c r="H205" s="10" t="s">
         <v>1441</v>
       </c>
     </row>
     <row r="206" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H206" s="14" t="s">
+      <c r="H206" s="10" t="s">
         <v>1442</v>
       </c>
     </row>
     <row r="207" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H207" s="14" t="s">
+      <c r="H207" s="10" t="s">
         <v>1443</v>
       </c>
     </row>
     <row r="208" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H208" s="14" t="s">
+      <c r="H208" s="10" t="s">
         <v>1444</v>
       </c>
     </row>
     <row r="209" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H209" s="14" t="s">
+      <c r="H209" s="10" t="s">
         <v>1445</v>
       </c>
     </row>
     <row r="210" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H210" s="14"/>
+      <c r="H210" s="10"/>
     </row>
     <row r="211" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H211" s="26" t="s">
+      <c r="H211" s="18" t="s">
         <v>1446</v>
       </c>
     </row>
     <row r="212" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H212" s="14" t="s">
+      <c r="H212" s="10" t="s">
         <v>1447</v>
       </c>
     </row>
     <row r="213" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H213" s="14" t="s">
+      <c r="H213" s="10" t="s">
         <v>1448</v>
       </c>
     </row>
     <row r="214" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H214" s="14" t="s">
+      <c r="H214" s="10" t="s">
         <v>1449</v>
       </c>
     </row>
     <row r="215" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H215" s="14" t="s">
+      <c r="H215" s="10" t="s">
         <v>1450</v>
       </c>
     </row>
     <row r="216" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H216" s="14"/>
+      <c r="H216" s="10"/>
     </row>
     <row r="217" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H217" s="14" t="s">
+      <c r="H217" s="10" t="s">
         <v>1451</v>
       </c>
     </row>
     <row r="218" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H218" s="14" t="s">
+      <c r="H218" s="10" t="s">
         <v>1452</v>
       </c>
     </row>
     <row r="219" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H219" s="14" t="s">
+      <c r="H219" s="10" t="s">
         <v>1453</v>
       </c>
     </row>
     <row r="220" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H220" s="14" t="s">
+      <c r="H220" s="10" t="s">
         <v>1454</v>
       </c>
     </row>
     <row r="221" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H221" s="14"/>
+      <c r="H221" s="10"/>
     </row>
     <row r="222" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H222" s="14" t="s">
+      <c r="H222" s="10" t="s">
         <v>1455</v>
       </c>
     </row>
     <row r="223" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H223" s="14" t="s">
+      <c r="H223" s="10" t="s">
         <v>1456</v>
       </c>
     </row>
     <row r="224" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H224" s="14" t="s">
+      <c r="H224" s="10" t="s">
         <v>1457</v>
       </c>
     </row>
     <row r="225" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H225" s="14" t="s">
+      <c r="H225" s="10" t="s">
         <v>1458</v>
       </c>
     </row>
     <row r="226" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H226" s="14" t="s">
+      <c r="H226" s="10" t="s">
         <v>1459</v>
       </c>
     </row>
     <row r="227" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H227" s="14" t="s">
+      <c r="H227" s="10" t="s">
         <v>1460</v>
       </c>
     </row>
     <row r="228" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H228" s="14" t="s">
+      <c r="H228" s="10" t="s">
         <v>1461</v>
       </c>
     </row>
     <row r="229" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H229" s="14" t="s">
+      <c r="H229" s="10" t="s">
         <v>1462</v>
       </c>
     </row>
     <row r="230" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H230" s="14"/>
+      <c r="H230" s="10"/>
     </row>
     <row r="231" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H231" s="14" t="s">
+      <c r="H231" s="10" t="s">
         <v>1463</v>
       </c>
     </row>
     <row r="232" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H232" s="14" t="s">
+      <c r="H232" s="10" t="s">
         <v>1464</v>
       </c>
     </row>
     <row r="233" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H233" s="14" t="s">
+      <c r="H233" s="10" t="s">
         <v>1465</v>
       </c>
     </row>
     <row r="234" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H234" s="14" t="s">
+      <c r="H234" s="10" t="s">
         <v>1466</v>
       </c>
     </row>
     <row r="235" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H235" s="14" t="s">
+      <c r="H235" s="10" t="s">
         <v>1467</v>
       </c>
     </row>
     <row r="236" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H236" s="14"/>
+      <c r="H236" s="10"/>
     </row>
     <row r="237" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H237" s="14" t="s">
+      <c r="H237" s="10" t="s">
         <v>1468</v>
       </c>
     </row>
     <row r="238" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H238" s="14" t="s">
+      <c r="H238" s="10" t="s">
         <v>1469</v>
       </c>
     </row>
     <row r="239" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H239" s="14" t="s">
+      <c r="H239" s="10" t="s">
         <v>1470</v>
       </c>
     </row>
     <row r="240" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H240" s="14" t="s">
+      <c r="H240" s="10" t="s">
         <v>1471</v>
       </c>
     </row>
     <row r="241" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H241" s="14"/>
+      <c r="H241" s="10"/>
     </row>
     <row r="242" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H242" s="26" t="s">
+      <c r="H242" s="18" t="s">
         <v>1472</v>
       </c>
     </row>
     <row r="243" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H243" s="14" t="s">
+      <c r="H243" s="10" t="s">
         <v>1473</v>
       </c>
     </row>
     <row r="244" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H244" s="14" t="s">
+      <c r="H244" s="10" t="s">
         <v>1474</v>
       </c>
     </row>
     <row r="245" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H245" s="14" t="s">
+      <c r="H245" s="10" t="s">
         <v>1475</v>
       </c>
     </row>
     <row r="246" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H246" s="14"/>
+      <c r="H246" s="10"/>
     </row>
     <row r="247" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H247" s="14" t="s">
+      <c r="H247" s="10" t="s">
         <v>1169</v>
       </c>
     </row>
     <row r="248" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H248" s="14" t="s">
+      <c r="H248" s="10" t="s">
         <v>1476</v>
       </c>
     </row>
     <row r="249" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H249" s="14" t="s">
+      <c r="H249" s="10" t="s">
         <v>1477</v>
       </c>
     </row>
     <row r="250" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H250" s="14" t="s">
+      <c r="H250" s="10" t="s">
         <v>1478</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="G17:H17"/>
@@ -16637,15 +16649,9 @@
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1" xr:uid="{334309F1-4FC5-491E-9E6C-AEDA1E76A4A5}"/>
+    <hyperlink ref="G3" r:id="rId1" xr:uid="{2F9AADC0-A215-494B-A769-B10ABD5977AE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/db_schema_definitions/db_schema_definitions.xlsx
+++ b/db_schema_definitions/db_schema_definitions.xlsx
@@ -5,20 +5,20 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/smi9a9_csiro_au/Documents/Documents/AM_metadata/Github/db_schema_definitions_V3.0.0/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/smi9a9_csiro_au/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="241" documentId="8_{BAC29253-ED42-4A2B-9110-91E62E7CD63F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{083ED79C-30F9-49F7-9F7A-E1D070F4BE1C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{32EB7CA5-E909-4785-ABD0-2BFFA28CE52E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2835" yWindow="2715" windowWidth="28770" windowHeight="16695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17175" yWindow="1140" windowWidth="19185" windowHeight="10785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="4" r:id="rId1"/>
-    <sheet name="Schema_3.0.0" sheetId="1" r:id="rId2"/>
+    <sheet name="Schema_3.0.1" sheetId="1" r:id="rId2"/>
     <sheet name="Control_Vocab" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Schema_3.0.0'!$E$1:$E$507</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Schema_3.0.1'!$E$1:$E$507</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -377,6 +377,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{59905FD0-A23E-4ADC-935F-6DC1DC0D9B1A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Definition: The mixture of gases (roughly (by molar content/volume: 78% nitrogen, 20.95% oxygen, 0.93% argon, 0.038% carbon dioxide, trace amounts of other gases, and a variable amount (average around 1%) of water vapor) that surrounds the planet Earth. [database_cross_reference: https://en.wikipedia.org/wiki/Air]. http://purl.obolibrary.org/obo/ENVO_00002005</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B13" authorId="0" shapeId="0" xr:uid="{D678414D-35AE-4403-998B-47D3E17F95BD}">
       <text>
         <r>
@@ -408,7 +421,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2944" uniqueCount="1560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2945" uniqueCount="1561">
   <si>
     <t>Field</t>
   </si>
@@ -6977,6 +6990,9 @@
   </si>
   <si>
     <t>Version number follows the format MAJOR.MINOR.PATCH. Increments in numbers can be defined as:</t>
+  </si>
+  <si>
+    <t>Air [ENVO_00002005]</t>
   </si>
 </sst>
 </file>
@@ -7220,9 +7236,18 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7233,15 +7258,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7616,132 +7632,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>1526</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="30"/>
     </row>
     <row r="2" spans="1:2" ht="29.25" customHeight="1">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="31" t="s">
         <v>1555</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="31"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="27"/>
       <c r="B3" s="27"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="30" t="s">
         <v>1554</v>
       </c>
-      <c r="B4" s="28"/>
+      <c r="B4" s="30"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="32" t="s">
         <v>1532</v>
       </c>
-      <c r="B5" s="36"/>
+      <c r="B5" s="32"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="29" t="s">
         <v>1559</v>
       </c>
-      <c r="B6" s="34"/>
+      <c r="B6" s="29"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="28" t="s">
         <v>1544</v>
       </c>
-      <c r="B7" s="29"/>
+      <c r="B7" s="28"/>
     </row>
     <row r="8" spans="1:2" ht="30.75" customHeight="1">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="28" t="s">
         <v>1545</v>
       </c>
-      <c r="B8" s="29"/>
+      <c r="B8" s="28"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="28" t="s">
         <v>1546</v>
       </c>
-      <c r="B9" s="29"/>
+      <c r="B9" s="28"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="29" t="s">
         <v>1533</v>
       </c>
-      <c r="B10" s="34"/>
+      <c r="B10" s="29"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="28" t="s">
         <v>1547</v>
       </c>
-      <c r="B11" s="29"/>
+      <c r="B11" s="28"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="28" t="s">
         <v>1548</v>
       </c>
-      <c r="B12" s="29"/>
+      <c r="B12" s="28"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="28" t="s">
         <v>1549</v>
       </c>
-      <c r="B13" s="29"/>
+      <c r="B13" s="28"/>
     </row>
     <row r="14" spans="1:2" s="14" customFormat="1">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="28" t="s">
         <v>1550</v>
       </c>
-      <c r="B14" s="29"/>
+      <c r="B14" s="28"/>
     </row>
     <row r="15" spans="1:2" s="14" customFormat="1">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="28" t="s">
         <v>1551</v>
       </c>
-      <c r="B15" s="29"/>
+      <c r="B15" s="28"/>
     </row>
     <row r="16" spans="1:2" s="14" customFormat="1">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="28" t="s">
         <v>1552</v>
       </c>
-      <c r="B16" s="29"/>
+      <c r="B16" s="28"/>
     </row>
     <row r="17" spans="1:2" s="14" customFormat="1">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="28" t="s">
         <v>1553</v>
       </c>
-      <c r="B17" s="29"/>
+      <c r="B17" s="28"/>
     </row>
     <row r="18" spans="1:2" s="14" customFormat="1">
       <c r="A18" s="26"/>
       <c r="B18" s="26"/>
     </row>
     <row r="19" spans="1:2" s="14" customFormat="1">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="33" t="s">
         <v>1540</v>
       </c>
-      <c r="B19" s="30"/>
+      <c r="B19" s="33"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="34" t="s">
         <v>1558</v>
       </c>
-      <c r="B20" s="31"/>
+      <c r="B20" s="34"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="35" t="s">
         <v>1541</v>
       </c>
-      <c r="B21" s="33"/>
+      <c r="B21" s="36"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="30" t="s">
         <v>1542</v>
       </c>
-      <c r="B23" s="28"/>
+      <c r="B23" s="30"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="22" t="s">
@@ -7785,6 +7801,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A1:B1"/>
@@ -7800,11 +7821,6 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -16765,7 +16781,9 @@
       <c r="B10" s="5" t="s">
         <v>1084</v>
       </c>
-      <c r="E10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>1560</v>
+      </c>
       <c r="H10" s="5" t="s">
         <v>1161</v>
       </c>

--- a/db_schema_definitions/db_schema_definitions.xlsx
+++ b/db_schema_definitions/db_schema_definitions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/smi9a9_csiro_au/Documents/Documents/AM_metadata/Github/db_schema_definitions_V3.1.0/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/smi9a9_csiro_au/Documents/Documents/AM_metadata/Github/db_schema_definitions_V3.1.1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="8_{A4E1E3CC-01D8-4E8E-B70F-FBE4F5FB7F06}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8726FBF9-EBD6-4D03-ADC3-7EF32092B117}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="8_{A4E1E3CC-01D8-4E8E-B70F-FBE4F5FB7F06}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{369483A8-0610-4752-ABE2-7250CE909588}"/>
   <bookViews>
-    <workbookView xWindow="885" yWindow="3945" windowWidth="30000" windowHeight="16725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1110" yWindow="4860" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Control_Vocab" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Schema_3.1.0'!$E$1:$E$510</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Schema_3.1.0'!$B$1:$B$510</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -421,7 +421,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2957" uniqueCount="1569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2957" uniqueCount="1568">
   <si>
     <t>Field</t>
   </si>
@@ -6993,9 +6993,6 @@
   </si>
   <si>
     <t>Bottle position/number in the CTD rosette</t>
-  </si>
-  <si>
-    <t>`</t>
   </si>
   <si>
     <t>cast_id</t>
@@ -7260,18 +7257,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7282,6 +7270,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7656,132 +7653,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="28" t="s">
         <v>1524</v>
       </c>
-      <c r="B1" s="30"/>
+      <c r="B1" s="28"/>
     </row>
     <row r="2" spans="1:2" ht="29.25" customHeight="1">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="35" t="s">
         <v>1553</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="35"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="27"/>
       <c r="B3" s="27"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="28" t="s">
         <v>1552</v>
       </c>
-      <c r="B4" s="30"/>
+      <c r="B4" s="28"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="36" t="s">
         <v>1530</v>
       </c>
-      <c r="B5" s="32"/>
+      <c r="B5" s="36"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="34" t="s">
         <v>1557</v>
       </c>
-      <c r="B6" s="29"/>
+      <c r="B6" s="34"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="29" t="s">
         <v>1542</v>
       </c>
-      <c r="B7" s="28"/>
+      <c r="B7" s="29"/>
     </row>
     <row r="8" spans="1:2" ht="30.75" customHeight="1">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="29" t="s">
         <v>1543</v>
       </c>
-      <c r="B8" s="28"/>
+      <c r="B8" s="29"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="29" t="s">
         <v>1544</v>
       </c>
-      <c r="B9" s="28"/>
+      <c r="B9" s="29"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="34" t="s">
         <v>1531</v>
       </c>
-      <c r="B10" s="29"/>
+      <c r="B10" s="34"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="29" t="s">
         <v>1545</v>
       </c>
-      <c r="B11" s="28"/>
+      <c r="B11" s="29"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="29" t="s">
         <v>1546</v>
       </c>
-      <c r="B12" s="28"/>
+      <c r="B12" s="29"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="29" t="s">
         <v>1547</v>
       </c>
-      <c r="B13" s="28"/>
+      <c r="B13" s="29"/>
     </row>
     <row r="14" spans="1:2" s="14" customFormat="1">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="29" t="s">
         <v>1548</v>
       </c>
-      <c r="B14" s="28"/>
+      <c r="B14" s="29"/>
     </row>
     <row r="15" spans="1:2" s="14" customFormat="1">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="29" t="s">
         <v>1549</v>
       </c>
-      <c r="B15" s="28"/>
+      <c r="B15" s="29"/>
     </row>
     <row r="16" spans="1:2" s="14" customFormat="1">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="29" t="s">
         <v>1550</v>
       </c>
-      <c r="B16" s="28"/>
+      <c r="B16" s="29"/>
     </row>
     <row r="17" spans="1:2" s="14" customFormat="1">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="29" t="s">
         <v>1551</v>
       </c>
-      <c r="B17" s="28"/>
+      <c r="B17" s="29"/>
     </row>
     <row r="18" spans="1:2" s="14" customFormat="1">
       <c r="A18" s="26"/>
       <c r="B18" s="26"/>
     </row>
     <row r="19" spans="1:2" s="14" customFormat="1">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="30" t="s">
         <v>1538</v>
       </c>
-      <c r="B19" s="33"/>
+      <c r="B19" s="30"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="31" t="s">
         <v>1556</v>
       </c>
-      <c r="B20" s="34"/>
+      <c r="B20" s="31"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="32" t="s">
         <v>1539</v>
       </c>
-      <c r="B21" s="36"/>
+      <c r="B21" s="33"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="28" t="s">
         <v>1540</v>
       </c>
-      <c r="B23" s="30"/>
+      <c r="B23" s="28"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="22" t="s">
@@ -7825,11 +7822,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A1:B1"/>
@@ -7845,6 +7837,11 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -9146,7 +9143,7 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="15" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="B77" s="15" t="s">
         <v>496</v>
@@ -9155,7 +9152,7 @@
         <v>502</v>
       </c>
       <c r="G77" s="15" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -9175,7 +9172,7 @@
         <v>553</v>
       </c>
       <c r="G78" s="15" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -9189,7 +9186,7 @@
         <v>503</v>
       </c>
       <c r="G79" s="15" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -14091,7 +14088,7 @@
         <v>366</v>
       </c>
       <c r="B373" s="15" t="s">
-        <v>1561</v>
+        <v>496</v>
       </c>
       <c r="C373" s="15" t="s">
         <v>503</v>
@@ -15091,7 +15088,7 @@
     </row>
     <row r="432" spans="1:7">
       <c r="A432" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="B432" s="15" t="s">
         <v>496</v>
@@ -15100,7 +15097,7 @@
         <v>501</v>
       </c>
       <c r="G432" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="433" spans="1:7">
@@ -15853,7 +15850,7 @@
         <v>501</v>
       </c>
       <c r="G477" s="15" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="478" spans="1:7">

--- a/db_schema_definitions/db_schema_definitions.xlsx
+++ b/db_schema_definitions/db_schema_definitions.xlsx
@@ -5,20 +5,20 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/smi9a9_csiro_au/Documents/Documents/AM_metadata/Github/db_schema_definitions_V3.1.1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/smi9a9_csiro_au/Documents/Documents/AM_metadata/Github/db_schema_definitions_V3.1.2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="8_{A4E1E3CC-01D8-4E8E-B70F-FBE4F5FB7F06}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{369483A8-0610-4752-ABE2-7250CE909588}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{325C5C69-A088-4B15-B42C-E5B149F8036D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{5ADAFAEB-0C82-493D-B105-184C850F0533}"/>
   <bookViews>
-    <workbookView xWindow="1110" yWindow="4860" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1815" yWindow="5040" windowWidth="28800" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="4" r:id="rId1"/>
-    <sheet name="Schema_3.1.0" sheetId="1" r:id="rId2"/>
+    <sheet name="Schema_3.1.2" sheetId="1" r:id="rId2"/>
     <sheet name="Control_Vocab" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Schema_3.1.0'!$B$1:$B$510</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Schema_3.1.2'!$B$1:$B$510</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -7257,9 +7257,18 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7270,15 +7279,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7653,132 +7653,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>1524</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="30"/>
     </row>
     <row r="2" spans="1:2" ht="29.25" customHeight="1">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="31" t="s">
         <v>1553</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="31"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="27"/>
       <c r="B3" s="27"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="30" t="s">
         <v>1552</v>
       </c>
-      <c r="B4" s="28"/>
+      <c r="B4" s="30"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="32" t="s">
         <v>1530</v>
       </c>
-      <c r="B5" s="36"/>
+      <c r="B5" s="32"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="29" t="s">
         <v>1557</v>
       </c>
-      <c r="B6" s="34"/>
+      <c r="B6" s="29"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="28" t="s">
         <v>1542</v>
       </c>
-      <c r="B7" s="29"/>
+      <c r="B7" s="28"/>
     </row>
     <row r="8" spans="1:2" ht="30.75" customHeight="1">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="28" t="s">
         <v>1543</v>
       </c>
-      <c r="B8" s="29"/>
+      <c r="B8" s="28"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="28" t="s">
         <v>1544</v>
       </c>
-      <c r="B9" s="29"/>
+      <c r="B9" s="28"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="29" t="s">
         <v>1531</v>
       </c>
-      <c r="B10" s="34"/>
+      <c r="B10" s="29"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="28" t="s">
         <v>1545</v>
       </c>
-      <c r="B11" s="29"/>
+      <c r="B11" s="28"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="28" t="s">
         <v>1546</v>
       </c>
-      <c r="B12" s="29"/>
+      <c r="B12" s="28"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="28" t="s">
         <v>1547</v>
       </c>
-      <c r="B13" s="29"/>
+      <c r="B13" s="28"/>
     </row>
     <row r="14" spans="1:2" s="14" customFormat="1">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="28" t="s">
         <v>1548</v>
       </c>
-      <c r="B14" s="29"/>
+      <c r="B14" s="28"/>
     </row>
     <row r="15" spans="1:2" s="14" customFormat="1">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="28" t="s">
         <v>1549</v>
       </c>
-      <c r="B15" s="29"/>
+      <c r="B15" s="28"/>
     </row>
     <row r="16" spans="1:2" s="14" customFormat="1">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="28" t="s">
         <v>1550</v>
       </c>
-      <c r="B16" s="29"/>
+      <c r="B16" s="28"/>
     </row>
     <row r="17" spans="1:2" s="14" customFormat="1">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="28" t="s">
         <v>1551</v>
       </c>
-      <c r="B17" s="29"/>
+      <c r="B17" s="28"/>
     </row>
     <row r="18" spans="1:2" s="14" customFormat="1">
       <c r="A18" s="26"/>
       <c r="B18" s="26"/>
     </row>
     <row r="19" spans="1:2" s="14" customFormat="1">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="33" t="s">
         <v>1538</v>
       </c>
-      <c r="B19" s="30"/>
+      <c r="B19" s="33"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="34" t="s">
         <v>1556</v>
       </c>
-      <c r="B20" s="31"/>
+      <c r="B20" s="34"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="35" t="s">
         <v>1539</v>
       </c>
-      <c r="B21" s="33"/>
+      <c r="B21" s="36"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="30" t="s">
         <v>1540</v>
       </c>
-      <c r="B23" s="28"/>
+      <c r="B23" s="30"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="22" t="s">
@@ -7822,6 +7822,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A1:B1"/>
@@ -7837,11 +7842,6 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>

--- a/db_schema_definitions/db_schema_definitions.xlsx
+++ b/db_schema_definitions/db_schema_definitions.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/smi9a9_csiro_au/Documents/Documents/AM_metadata/Github/db_schema_definitions_V4.0.0/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/smi9a9_csiro_au/Documents/Documents/AM_metadata/Github/db_schema_definitions_v4.1.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="8_{B1A75CB5-9BE7-4842-BCCC-C762B2B77B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2632CBB1-D8CA-42EC-B48E-627ADC21B9B6}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{943C6335-3D7C-4B96-9B41-7435865CE14F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C03839D-F15B-4F48-BE7D-FD976909B8ED}"/>
   <bookViews>
-    <workbookView xWindow="-34980" yWindow="-3510" windowWidth="28620" windowHeight="15795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="0" windowWidth="18990" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="4" r:id="rId1"/>
-    <sheet name="Schema_4.0.0" sheetId="1" r:id="rId2"/>
+    <sheet name="Schema_4.1.0" sheetId="1" r:id="rId2"/>
     <sheet name="Control_Vocab" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Schema_4.0.0'!$B$1:$B$515</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Schema_4.1.0'!$B$1:$B$515</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -7222,7 +7222,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -7290,18 +7290,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7312,6 +7303,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7330,6 +7330,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -7686,132 +7689,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="29" t="s">
         <v>1492</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="29"/>
     </row>
     <row r="2" spans="1:2" ht="29.25" customHeight="1">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="36" t="s">
         <v>1521</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="36"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="27"/>
       <c r="B3" s="27"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="29" t="s">
         <v>1520</v>
       </c>
-      <c r="B4" s="31"/>
+      <c r="B4" s="29"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="37" t="s">
         <v>1498</v>
       </c>
-      <c r="B5" s="33"/>
+      <c r="B5" s="37"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="35" t="s">
         <v>1525</v>
       </c>
-      <c r="B6" s="30"/>
+      <c r="B6" s="35"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="30" t="s">
         <v>1510</v>
       </c>
-      <c r="B7" s="29"/>
+      <c r="B7" s="30"/>
     </row>
     <row r="8" spans="1:2" ht="30.75" customHeight="1">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="30" t="s">
         <v>1511</v>
       </c>
-      <c r="B8" s="29"/>
+      <c r="B8" s="30"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="30" t="s">
         <v>1512</v>
       </c>
-      <c r="B9" s="29"/>
+      <c r="B9" s="30"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="35" t="s">
         <v>1499</v>
       </c>
-      <c r="B10" s="30"/>
+      <c r="B10" s="35"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="30" t="s">
         <v>1513</v>
       </c>
-      <c r="B11" s="29"/>
+      <c r="B11" s="30"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="30" t="s">
         <v>1514</v>
       </c>
-      <c r="B12" s="29"/>
+      <c r="B12" s="30"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="30" t="s">
         <v>1515</v>
       </c>
-      <c r="B13" s="29"/>
+      <c r="B13" s="30"/>
     </row>
     <row r="14" spans="1:2" s="14" customFormat="1">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="30" t="s">
         <v>1516</v>
       </c>
-      <c r="B14" s="29"/>
+      <c r="B14" s="30"/>
     </row>
     <row r="15" spans="1:2" s="14" customFormat="1">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="30" t="s">
         <v>1517</v>
       </c>
-      <c r="B15" s="29"/>
+      <c r="B15" s="30"/>
     </row>
     <row r="16" spans="1:2" s="14" customFormat="1">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="30" t="s">
         <v>1518</v>
       </c>
-      <c r="B16" s="29"/>
+      <c r="B16" s="30"/>
     </row>
     <row r="17" spans="1:2" s="14" customFormat="1">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="30" t="s">
         <v>1519</v>
       </c>
-      <c r="B17" s="29"/>
+      <c r="B17" s="30"/>
     </row>
     <row r="18" spans="1:2" s="14" customFormat="1">
       <c r="A18" s="26"/>
       <c r="B18" s="26"/>
     </row>
     <row r="19" spans="1:2" s="14" customFormat="1">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="31" t="s">
         <v>1506</v>
       </c>
-      <c r="B19" s="34"/>
+      <c r="B19" s="31"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="32" t="s">
         <v>1524</v>
       </c>
-      <c r="B20" s="35"/>
+      <c r="B20" s="32"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="36" t="s">
+      <c r="A21" s="33" t="s">
         <v>1507</v>
       </c>
-      <c r="B21" s="37"/>
+      <c r="B21" s="34"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="29" t="s">
         <v>1508</v>
       </c>
-      <c r="B23" s="31"/>
+      <c r="B23" s="29"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="22" t="s">
@@ -7855,11 +7858,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A1:B1"/>
@@ -7875,6 +7873,11 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -7894,7 +7897,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="40.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" style="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" style="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38" style="15" customWidth="1"/>
     <col min="5" max="5" width="29" style="15" customWidth="1"/>
@@ -7907,7 +7910,7 @@
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="44" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="25" t="s">
@@ -7930,7 +7933,7 @@
       <c r="A2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="13" t="s">
         <v>491</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -7944,7 +7947,7 @@
       <c r="A3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C3" s="15" t="s">
@@ -7958,7 +7961,7 @@
       <c r="A4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="13" t="s">
         <v>493</v>
       </c>
       <c r="C4" s="15" t="s">
@@ -7978,7 +7981,7 @@
       <c r="A5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="13" t="s">
         <v>494</v>
       </c>
       <c r="C5" s="15" t="s">
@@ -7998,7 +8001,7 @@
       <c r="A6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C6" s="15" t="s">
@@ -8018,7 +8021,7 @@
       <c r="A7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C7" s="15" t="s">
@@ -8038,7 +8041,7 @@
       <c r="A8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C8" s="15" t="s">
@@ -8058,7 +8061,7 @@
       <c r="A9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C9" s="15" t="s">
@@ -8078,7 +8081,7 @@
       <c r="A10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C10" s="15" t="s">
@@ -8092,7 +8095,7 @@
       <c r="A11" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C11" s="15" t="s">
@@ -8106,7 +8109,7 @@
       <c r="A12" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C12" s="15" t="s">
@@ -8120,7 +8123,7 @@
       <c r="A13" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C13" s="15" t="s">
@@ -8134,7 +8137,7 @@
       <c r="A14" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C14" s="15" t="s">
@@ -8148,7 +8151,7 @@
       <c r="A15" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C15" s="15" t="s">
@@ -8162,7 +8165,7 @@
       <c r="A16" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C16" s="15" t="s">
@@ -8176,7 +8179,7 @@
       <c r="A17" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C17" s="15" t="s">
@@ -8190,7 +8193,7 @@
       <c r="A18" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C18" s="15" t="s">
@@ -8207,7 +8210,7 @@
       <c r="A19" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C19" s="15" t="s">
@@ -8224,7 +8227,7 @@
       <c r="A20" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C20" s="15" t="s">
@@ -8241,7 +8244,7 @@
       <c r="A21" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C21" s="15" t="s">
@@ -8258,7 +8261,7 @@
       <c r="A22" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C22" s="15" t="s">
@@ -8275,7 +8278,7 @@
       <c r="A23" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C23" s="15" t="s">
@@ -8292,7 +8295,7 @@
       <c r="A24" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C24" s="15" t="s">
@@ -8306,7 +8309,7 @@
       <c r="A25" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C25" s="15" t="s">
@@ -8326,7 +8329,7 @@
       <c r="A26" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C26" s="15" t="s">
@@ -8346,7 +8349,7 @@
       <c r="A27" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C27" s="15" t="s">
@@ -8366,7 +8369,7 @@
       <c r="A28" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C28" s="15" t="s">
@@ -8383,7 +8386,7 @@
       <c r="A29" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C29" s="15" t="s">
@@ -8400,7 +8403,7 @@
       <c r="A30" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C30" s="15" t="s">
@@ -8414,7 +8417,7 @@
       <c r="A31" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C31" s="15" t="s">
@@ -8434,7 +8437,7 @@
       <c r="A32" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C32" s="15" t="s">
@@ -8448,7 +8451,7 @@
       <c r="A33" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C33" s="15" t="s">
@@ -8462,7 +8465,7 @@
       <c r="A34" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C34" s="15" t="s">
@@ -8476,7 +8479,7 @@
       <c r="A35" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C35" s="15" t="s">
@@ -8490,7 +8493,7 @@
       <c r="A36" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C36" s="15" t="s">
@@ -8510,7 +8513,7 @@
       <c r="A37" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C37" s="15" t="s">
@@ -8524,7 +8527,7 @@
       <c r="A38" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C38" s="15" t="s">
@@ -8538,7 +8541,7 @@
       <c r="A39" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C39" s="15" t="s">
@@ -8558,7 +8561,7 @@
       <c r="A40" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C40" s="15" t="s">
@@ -8572,7 +8575,7 @@
       <c r="A41" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C41" s="15" t="s">
@@ -8592,7 +8595,7 @@
       <c r="A42" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C42" s="15" t="s">
@@ -8606,7 +8609,7 @@
       <c r="A43" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C43" s="15" t="s">
@@ -8626,7 +8629,7 @@
       <c r="A44" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C44" s="15" t="s">
@@ -8640,7 +8643,7 @@
       <c r="A45" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C45" s="15" t="s">
@@ -8660,7 +8663,7 @@
       <c r="A46" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C46" s="15" t="s">
@@ -8674,7 +8677,7 @@
       <c r="A47" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C47" s="15" t="s">
@@ -8694,7 +8697,7 @@
       <c r="A48" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C48" s="15" t="s">
@@ -8708,7 +8711,7 @@
       <c r="A49" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B49" s="15" t="s">
+      <c r="B49" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C49" s="15" t="s">
@@ -8728,7 +8731,7 @@
       <c r="A50" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="15" t="s">
+      <c r="B50" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C50" s="15" t="s">
@@ -8742,7 +8745,7 @@
       <c r="A51" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="15" t="s">
+      <c r="B51" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C51" s="15" t="s">
@@ -8762,7 +8765,7 @@
       <c r="A52" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C52" s="15" t="s">
@@ -8776,7 +8779,7 @@
       <c r="A53" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B53" s="15" t="s">
+      <c r="B53" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C53" s="15" t="s">
@@ -8796,7 +8799,7 @@
       <c r="A54" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B54" s="15" t="s">
+      <c r="B54" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C54" s="15" t="s">
@@ -8810,7 +8813,7 @@
       <c r="A55" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B55" s="15" t="s">
+      <c r="B55" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C55" s="15" t="s">
@@ -8830,7 +8833,7 @@
       <c r="A56" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B56" s="15" t="s">
+      <c r="B56" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C56" s="15" t="s">
@@ -8844,7 +8847,7 @@
       <c r="A57" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B57" s="15" t="s">
+      <c r="B57" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C57" s="15" t="s">
@@ -8864,7 +8867,7 @@
       <c r="A58" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B58" s="15" t="s">
+      <c r="B58" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C58" s="15" t="s">
@@ -8878,7 +8881,7 @@
       <c r="A59" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B59" s="15" t="s">
+      <c r="B59" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C59" s="15" t="s">
@@ -8898,7 +8901,7 @@
       <c r="A60" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="B60" s="15" t="s">
+      <c r="B60" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C60" s="15" t="s">
@@ -8912,7 +8915,7 @@
       <c r="A61" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B61" s="15" t="s">
+      <c r="B61" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C61" s="15" t="s">
@@ -8932,7 +8935,7 @@
       <c r="A62" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B62" s="15" t="s">
+      <c r="B62" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C62" s="15" t="s">
@@ -8946,7 +8949,7 @@
       <c r="A63" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B63" s="15" t="s">
+      <c r="B63" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C63" s="15" t="s">
@@ -8960,7 +8963,7 @@
       <c r="A64" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="B64" s="15" t="s">
+      <c r="B64" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C64" s="15" t="s">
@@ -8974,7 +8977,7 @@
       <c r="A65" s="15" t="s">
         <v>1545</v>
       </c>
-      <c r="B65" s="15" t="s">
+      <c r="B65" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C65" s="15" t="s">
@@ -8994,7 +8997,7 @@
       <c r="A66" s="15" t="s">
         <v>1546</v>
       </c>
-      <c r="B66" s="15" t="s">
+      <c r="B66" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C66" s="15" t="s">
@@ -9008,7 +9011,7 @@
       <c r="A67" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B67" s="15" t="s">
+      <c r="B67" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C67" s="15" t="s">
@@ -9028,7 +9031,7 @@
       <c r="A68" s="15" t="s">
         <v>1479</v>
       </c>
-      <c r="B68" s="15" t="s">
+      <c r="B68" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C68" s="15" t="s">
@@ -9042,7 +9045,7 @@
       <c r="A69" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="B69" s="15" t="s">
+      <c r="B69" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C69" s="15" t="s">
@@ -9062,7 +9065,7 @@
       <c r="A70" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B70" s="15" t="s">
+      <c r="B70" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C70" s="15" t="s">
@@ -9076,7 +9079,7 @@
       <c r="A71" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B71" s="15" t="s">
+      <c r="B71" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C71" s="15" t="s">
@@ -9096,7 +9099,7 @@
       <c r="A72" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="B72" s="15" t="s">
+      <c r="B72" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C72" s="15" t="s">
@@ -9110,8 +9113,8 @@
       <c r="A73" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="B73" s="15" t="s">
-        <v>492</v>
+      <c r="B73" s="13" t="s">
+        <v>495</v>
       </c>
       <c r="C73" s="15" t="s">
         <v>499</v>
@@ -9130,7 +9133,7 @@
       <c r="A74" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B74" s="15" t="s">
+      <c r="B74" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C74" s="15" t="s">
@@ -9144,7 +9147,7 @@
       <c r="A75" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B75" s="15" t="s">
+      <c r="B75" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C75" s="15" t="s">
@@ -9164,7 +9167,7 @@
       <c r="A76" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B76" s="15" t="s">
+      <c r="B76" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C76" s="15" t="s">
@@ -9178,7 +9181,7 @@
       <c r="A77" s="15" t="s">
         <v>1544</v>
       </c>
-      <c r="B77" s="15" t="s">
+      <c r="B77" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C77" s="15" t="s">
@@ -9198,7 +9201,7 @@
       <c r="A78" s="15" t="s">
         <v>1543</v>
       </c>
-      <c r="B78" s="15" t="s">
+      <c r="B78" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C78" s="15" t="s">
@@ -9212,7 +9215,7 @@
       <c r="A79" s="15" t="s">
         <v>1529</v>
       </c>
-      <c r="B79" s="15" t="s">
+      <c r="B79" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C79" s="15" t="s">
@@ -9226,8 +9229,8 @@
       <c r="A80" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="B80" s="15" t="s">
-        <v>492</v>
+      <c r="B80" s="13" t="s">
+        <v>495</v>
       </c>
       <c r="C80" s="15" t="s">
         <v>499</v>
@@ -9246,7 +9249,7 @@
       <c r="A81" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="B81" s="15" t="s">
+      <c r="B81" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C81" s="15" t="s">
@@ -9260,7 +9263,7 @@
       <c r="A82" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="B82" s="15" t="s">
+      <c r="B82" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C82" s="15" t="s">
@@ -9280,7 +9283,7 @@
       <c r="A83" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B83" s="15" t="s">
+      <c r="B83" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C83" s="15" t="s">
@@ -9294,7 +9297,7 @@
       <c r="A84" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B84" s="15" t="s">
+      <c r="B84" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C84" s="15" t="s">
@@ -9314,7 +9317,7 @@
       <c r="A85" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="B85" s="15" t="s">
+      <c r="B85" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C85" s="15" t="s">
@@ -9328,7 +9331,7 @@
       <c r="A86" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B86" s="15" t="s">
+      <c r="B86" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C86" s="15" t="s">
@@ -9348,7 +9351,7 @@
       <c r="A87" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="B87" s="15" t="s">
+      <c r="B87" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C87" s="15" t="s">
@@ -9362,7 +9365,7 @@
       <c r="A88" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="B88" s="15" t="s">
+      <c r="B88" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C88" s="15" t="s">
@@ -9382,7 +9385,7 @@
       <c r="A89" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="B89" s="15" t="s">
+      <c r="B89" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C89" s="15" t="s">
@@ -9396,7 +9399,7 @@
       <c r="A90" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="B90" s="15" t="s">
+      <c r="B90" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C90" s="15" t="s">
@@ -9416,7 +9419,7 @@
       <c r="A91" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="B91" s="15" t="s">
+      <c r="B91" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C91" s="15" t="s">
@@ -9430,7 +9433,7 @@
       <c r="A92" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="B92" s="15" t="s">
+      <c r="B92" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C92" s="15" t="s">
@@ -9450,7 +9453,7 @@
       <c r="A93" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="B93" s="15" t="s">
+      <c r="B93" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C93" s="15" t="s">
@@ -9464,7 +9467,7 @@
       <c r="A94" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="B94" s="15" t="s">
+      <c r="B94" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C94" s="15" t="s">
@@ -9484,7 +9487,7 @@
       <c r="A95" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B95" s="15" t="s">
+      <c r="B95" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C95" s="15" t="s">
@@ -9498,7 +9501,7 @@
       <c r="A96" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="B96" s="15" t="s">
+      <c r="B96" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C96" s="15" t="s">
@@ -9518,7 +9521,7 @@
       <c r="A97" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="B97" s="15" t="s">
+      <c r="B97" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C97" s="15" t="s">
@@ -9532,7 +9535,7 @@
       <c r="A98" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="B98" s="15" t="s">
+      <c r="B98" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C98" s="15" t="s">
@@ -9552,7 +9555,7 @@
       <c r="A99" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="B99" s="15" t="s">
+      <c r="B99" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C99" s="15" t="s">
@@ -9566,7 +9569,7 @@
       <c r="A100" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="B100" s="15" t="s">
+      <c r="B100" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C100" s="15" t="s">
@@ -9586,7 +9589,7 @@
       <c r="A101" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="B101" s="15" t="s">
+      <c r="B101" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C101" s="15" t="s">
@@ -9600,7 +9603,7 @@
       <c r="A102" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="B102" s="15" t="s">
+      <c r="B102" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C102" s="15" t="s">
@@ -9620,7 +9623,7 @@
       <c r="A103" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="B103" s="15" t="s">
+      <c r="B103" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C103" s="15" t="s">
@@ -9634,7 +9637,7 @@
       <c r="A104" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="B104" s="15" t="s">
+      <c r="B104" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C104" s="15" t="s">
@@ -9648,7 +9651,7 @@
       <c r="A105" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="B105" s="15" t="s">
+      <c r="B105" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C105" s="15" t="s">
@@ -9668,7 +9671,7 @@
       <c r="A106" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B106" s="15" t="s">
+      <c r="B106" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C106" s="15" t="s">
@@ -9682,7 +9685,7 @@
       <c r="A107" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="B107" s="15" t="s">
+      <c r="B107" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C107" s="15" t="s">
@@ -9696,7 +9699,7 @@
       <c r="A108" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="B108" s="15" t="s">
+      <c r="B108" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C108" s="15" t="s">
@@ -9716,7 +9719,7 @@
       <c r="A109" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="B109" s="15" t="s">
+      <c r="B109" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C109" s="15" t="s">
@@ -9730,7 +9733,7 @@
       <c r="A110" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="B110" s="15" t="s">
+      <c r="B110" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C110" s="15" t="s">
@@ -9747,7 +9750,7 @@
       <c r="A111" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="B111" s="15" t="s">
+      <c r="B111" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C111" s="15" t="s">
@@ -9761,7 +9764,7 @@
       <c r="A112" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B112" s="15" t="s">
+      <c r="B112" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C112" s="15" t="s">
@@ -9781,7 +9784,7 @@
       <c r="A113" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B113" s="15" t="s">
+      <c r="B113" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C113" s="15" t="s">
@@ -9795,8 +9798,8 @@
       <c r="A114" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="B114" s="15" t="s">
-        <v>492</v>
+      <c r="B114" s="13" t="s">
+        <v>495</v>
       </c>
       <c r="C114" s="15" t="s">
         <v>498</v>
@@ -9815,7 +9818,7 @@
       <c r="A115" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="B115" s="15" t="s">
+      <c r="B115" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C115" s="15" t="s">
@@ -9829,7 +9832,7 @@
       <c r="A116" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="B116" s="15" t="s">
+      <c r="B116" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C116" s="15" t="s">
@@ -9849,7 +9852,7 @@
       <c r="A117" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="B117" s="15" t="s">
+      <c r="B117" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C117" s="15" t="s">
@@ -9863,7 +9866,7 @@
       <c r="A118" s="15" t="s">
         <v>1539</v>
       </c>
-      <c r="B118" s="15" t="s">
+      <c r="B118" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C118" s="15" t="s">
@@ -9877,7 +9880,7 @@
       <c r="A119" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="B119" s="15" t="s">
+      <c r="B119" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C119" s="15" t="s">
@@ -9897,7 +9900,7 @@
       <c r="A120" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="B120" s="15" t="s">
+      <c r="B120" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C120" s="15" t="s">
@@ -9911,7 +9914,7 @@
       <c r="A121" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="B121" s="15" t="s">
+      <c r="B121" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C121" s="15" t="s">
@@ -9928,7 +9931,7 @@
       <c r="A122" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="B122" s="15" t="s">
+      <c r="B122" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C122" s="15" t="s">
@@ -9945,7 +9948,7 @@
       <c r="A123" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="B123" s="15" t="s">
+      <c r="B123" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C123" s="15" t="s">
@@ -9962,7 +9965,7 @@
       <c r="A124" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="B124" s="15" t="s">
+      <c r="B124" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C124" s="15" t="s">
@@ -9979,7 +9982,7 @@
       <c r="A125" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="B125" s="15" t="s">
+      <c r="B125" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C125" s="15" t="s">
@@ -9996,7 +9999,7 @@
       <c r="A126" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="B126" s="15" t="s">
+      <c r="B126" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C126" s="15" t="s">
@@ -10010,7 +10013,7 @@
       <c r="A127" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="B127" s="15" t="s">
+      <c r="B127" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C127" s="15" t="s">
@@ -10030,7 +10033,7 @@
       <c r="A128" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="B128" s="15" t="s">
+      <c r="B128" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C128" s="15" t="s">
@@ -10050,7 +10053,7 @@
       <c r="A129" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="B129" s="15" t="s">
+      <c r="B129" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C129" s="15" t="s">
@@ -10064,7 +10067,7 @@
       <c r="A130" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="B130" s="15" t="s">
+      <c r="B130" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C130" s="15" t="s">
@@ -10084,7 +10087,7 @@
       <c r="A131" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="B131" s="15" t="s">
+      <c r="B131" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C131" s="15" t="s">
@@ -10098,7 +10101,7 @@
       <c r="A132" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="B132" s="15" t="s">
+      <c r="B132" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C132" s="15" t="s">
@@ -10118,7 +10121,7 @@
       <c r="A133" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="B133" s="15" t="s">
+      <c r="B133" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C133" s="15" t="s">
@@ -10132,7 +10135,7 @@
       <c r="A134" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="B134" s="15" t="s">
+      <c r="B134" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C134" s="15" t="s">
@@ -10152,7 +10155,7 @@
       <c r="A135" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="B135" s="15" t="s">
+      <c r="B135" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C135" s="15" t="s">
@@ -10166,7 +10169,7 @@
       <c r="A136" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="B136" s="15" t="s">
+      <c r="B136" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C136" s="15" t="s">
@@ -10186,7 +10189,7 @@
       <c r="A137" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="B137" s="15" t="s">
+      <c r="B137" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C137" s="15" t="s">
@@ -10200,7 +10203,7 @@
       <c r="A138" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="B138" s="15" t="s">
+      <c r="B138" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C138" s="15" t="s">
@@ -10220,7 +10223,7 @@
       <c r="A139" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="B139" s="15" t="s">
+      <c r="B139" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C139" s="15" t="s">
@@ -10234,7 +10237,7 @@
       <c r="A140" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="B140" s="15" t="s">
+      <c r="B140" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C140" s="15" t="s">
@@ -10254,7 +10257,7 @@
       <c r="A141" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="B141" s="15" t="s">
+      <c r="B141" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C141" s="15" t="s">
@@ -10268,7 +10271,7 @@
       <c r="A142" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="B142" s="15" t="s">
+      <c r="B142" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C142" s="15" t="s">
@@ -10288,7 +10291,7 @@
       <c r="A143" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="B143" s="15" t="s">
+      <c r="B143" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C143" s="15" t="s">
@@ -10302,7 +10305,7 @@
       <c r="A144" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="B144" s="15" t="s">
+      <c r="B144" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C144" s="15" t="s">
@@ -10322,7 +10325,7 @@
       <c r="A145" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="B145" s="15" t="s">
+      <c r="B145" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C145" s="15" t="s">
@@ -10336,7 +10339,7 @@
       <c r="A146" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="B146" s="15" t="s">
+      <c r="B146" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C146" s="15" t="s">
@@ -10356,7 +10359,7 @@
       <c r="A147" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="B147" s="15" t="s">
+      <c r="B147" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C147" s="15" t="s">
@@ -10370,7 +10373,7 @@
       <c r="A148" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="B148" s="15" t="s">
+      <c r="B148" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C148" s="15" t="s">
@@ -10390,7 +10393,7 @@
       <c r="A149" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="B149" s="15" t="s">
+      <c r="B149" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C149" s="15" t="s">
@@ -10404,7 +10407,7 @@
       <c r="A150" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="B150" s="15" t="s">
+      <c r="B150" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C150" s="15" t="s">
@@ -10424,7 +10427,7 @@
       <c r="A151" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="B151" s="15" t="s">
+      <c r="B151" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C151" s="15" t="s">
@@ -10438,7 +10441,7 @@
       <c r="A152" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="B152" s="15" t="s">
+      <c r="B152" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C152" s="15" t="s">
@@ -10458,7 +10461,7 @@
       <c r="A153" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="B153" s="15" t="s">
+      <c r="B153" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C153" s="15" t="s">
@@ -10472,7 +10475,7 @@
       <c r="A154" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="B154" s="15" t="s">
+      <c r="B154" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C154" s="15" t="s">
@@ -10492,7 +10495,7 @@
       <c r="A155" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="B155" s="15" t="s">
+      <c r="B155" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C155" s="15" t="s">
@@ -10506,7 +10509,7 @@
       <c r="A156" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="B156" s="15" t="s">
+      <c r="B156" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C156" s="15" t="s">
@@ -10526,7 +10529,7 @@
       <c r="A157" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="B157" s="15" t="s">
+      <c r="B157" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C157" s="15" t="s">
@@ -10540,7 +10543,7 @@
       <c r="A158" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="B158" s="15" t="s">
+      <c r="B158" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C158" s="15" t="s">
@@ -10560,7 +10563,7 @@
       <c r="A159" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="B159" s="15" t="s">
+      <c r="B159" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C159" s="15" t="s">
@@ -10580,7 +10583,7 @@
       <c r="A160" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="B160" s="15" t="s">
+      <c r="B160" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C160" s="15" t="s">
@@ -10594,7 +10597,7 @@
       <c r="A161" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="B161" s="15" t="s">
+      <c r="B161" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C161" s="15" t="s">
@@ -10614,7 +10617,7 @@
       <c r="A162" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B162" s="15" t="s">
+      <c r="B162" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C162" s="15" t="s">
@@ -10628,7 +10631,7 @@
       <c r="A163" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="B163" s="15" t="s">
+      <c r="B163" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C163" s="15" t="s">
@@ -10648,7 +10651,7 @@
       <c r="A164" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="B164" s="15" t="s">
+      <c r="B164" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C164" s="15" t="s">
@@ -10662,7 +10665,7 @@
       <c r="A165" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="B165" s="15" t="s">
+      <c r="B165" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C165" s="15" t="s">
@@ -10682,7 +10685,7 @@
       <c r="A166" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="B166" s="15" t="s">
+      <c r="B166" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C166" s="15" t="s">
@@ -10696,7 +10699,7 @@
       <c r="A167" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="B167" s="15" t="s">
+      <c r="B167" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C167" s="15" t="s">
@@ -10716,7 +10719,7 @@
       <c r="A168" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="B168" s="15" t="s">
+      <c r="B168" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C168" s="15" t="s">
@@ -10730,7 +10733,7 @@
       <c r="A169" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="B169" s="15" t="s">
+      <c r="B169" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C169" s="15" t="s">
@@ -10750,7 +10753,7 @@
       <c r="A170" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="B170" s="15" t="s">
+      <c r="B170" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C170" s="15" t="s">
@@ -10764,7 +10767,7 @@
       <c r="A171" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="B171" s="15" t="s">
+      <c r="B171" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C171" s="15" t="s">
@@ -10784,7 +10787,7 @@
       <c r="A172" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="B172" s="15" t="s">
+      <c r="B172" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C172" s="15" t="s">
@@ -10798,7 +10801,7 @@
       <c r="A173" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="B173" s="15" t="s">
+      <c r="B173" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C173" s="15" t="s">
@@ -10812,7 +10815,7 @@
       <c r="A174" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="B174" s="15" t="s">
+      <c r="B174" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C174" s="15" t="s">
@@ -10832,7 +10835,7 @@
       <c r="A175" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="B175" s="15" t="s">
+      <c r="B175" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C175" s="15" t="s">
@@ -10846,7 +10849,7 @@
       <c r="A176" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="B176" s="15" t="s">
+      <c r="B176" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C176" s="15" t="s">
@@ -10866,7 +10869,7 @@
       <c r="A177" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="B177" s="15" t="s">
+      <c r="B177" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C177" s="15" t="s">
@@ -10880,7 +10883,7 @@
       <c r="A178" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="B178" s="15" t="s">
+      <c r="B178" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C178" s="15" t="s">
@@ -10894,7 +10897,7 @@
       <c r="A179" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="B179" s="15" t="s">
+      <c r="B179" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C179" s="15" t="s">
@@ -10908,7 +10911,7 @@
       <c r="A180" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="B180" s="15" t="s">
+      <c r="B180" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C180" s="15" t="s">
@@ -10922,7 +10925,7 @@
       <c r="A181" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="B181" s="15" t="s">
+      <c r="B181" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C181" s="15" t="s">
@@ -10942,7 +10945,7 @@
       <c r="A182" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="B182" s="15" t="s">
+      <c r="B182" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C182" s="15" t="s">
@@ -10956,7 +10959,7 @@
       <c r="A183" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="B183" s="15" t="s">
+      <c r="B183" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C183" s="15" t="s">
@@ -10976,7 +10979,7 @@
       <c r="A184" s="15" t="s">
         <v>1471</v>
       </c>
-      <c r="B184" s="15" t="s">
+      <c r="B184" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C184" s="15" t="s">
@@ -10990,7 +10993,7 @@
       <c r="A185" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="B185" s="15" t="s">
+      <c r="B185" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C185" s="15" t="s">
@@ -11004,7 +11007,7 @@
       <c r="A186" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="B186" s="15" t="s">
+      <c r="B186" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C186" s="15" t="s">
@@ -11024,7 +11027,7 @@
       <c r="A187" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="B187" s="15" t="s">
+      <c r="B187" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C187" s="15" t="s">
@@ -11038,7 +11041,7 @@
       <c r="A188" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="B188" s="15" t="s">
+      <c r="B188" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C188" s="15" t="s">
@@ -11058,7 +11061,7 @@
       <c r="A189" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="B189" s="15" t="s">
+      <c r="B189" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C189" s="15" t="s">
@@ -11072,7 +11075,7 @@
       <c r="A190" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="B190" s="15" t="s">
+      <c r="B190" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C190" s="15" t="s">
@@ -11092,7 +11095,7 @@
       <c r="A191" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="B191" s="15" t="s">
+      <c r="B191" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C191" s="15" t="s">
@@ -11106,7 +11109,7 @@
       <c r="A192" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="B192" s="15" t="s">
+      <c r="B192" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C192" s="15" t="s">
@@ -11126,7 +11129,7 @@
       <c r="A193" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="B193" s="15" t="s">
+      <c r="B193" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C193" s="15" t="s">
@@ -11140,7 +11143,7 @@
       <c r="A194" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="B194" s="15" t="s">
+      <c r="B194" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C194" s="15" t="s">
@@ -11160,7 +11163,7 @@
       <c r="A195" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="B195" s="15" t="s">
+      <c r="B195" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C195" s="15" t="s">
@@ -11174,7 +11177,7 @@
       <c r="A196" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="B196" s="15" t="s">
+      <c r="B196" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C196" s="15" t="s">
@@ -11194,7 +11197,7 @@
       <c r="A197" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="B197" s="15" t="s">
+      <c r="B197" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C197" s="15" t="s">
@@ -11208,7 +11211,7 @@
       <c r="A198" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="B198" s="15" t="s">
+      <c r="B198" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C198" s="15" t="s">
@@ -11228,7 +11231,7 @@
       <c r="A199" s="15" t="s">
         <v>1496</v>
       </c>
-      <c r="B199" s="15" t="s">
+      <c r="B199" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C199" s="15" t="s">
@@ -11242,8 +11245,8 @@
       <c r="A200" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="B200" s="15" t="s">
-        <v>492</v>
+      <c r="B200" s="13" t="s">
+        <v>495</v>
       </c>
       <c r="C200" s="15" t="s">
         <v>497</v>
@@ -11262,7 +11265,7 @@
       <c r="A201" s="15" t="s">
         <v>1469</v>
       </c>
-      <c r="B201" s="15" t="s">
+      <c r="B201" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C201" s="15" t="s">
@@ -11276,7 +11279,7 @@
       <c r="A202" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="B202" s="15" t="s">
+      <c r="B202" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C202" s="15" t="s">
@@ -11296,7 +11299,7 @@
       <c r="A203" s="15" t="s">
         <v>1467</v>
       </c>
-      <c r="B203" s="15" t="s">
+      <c r="B203" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C203" s="15" t="s">
@@ -11310,7 +11313,7 @@
       <c r="A204" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="B204" s="15" t="s">
+      <c r="B204" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C204" s="15" t="s">
@@ -11330,7 +11333,7 @@
       <c r="A205" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="B205" s="15" t="s">
+      <c r="B205" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C205" s="15" t="s">
@@ -11344,7 +11347,7 @@
       <c r="A206" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="B206" s="15" t="s">
+      <c r="B206" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C206" s="15" t="s">
@@ -11364,7 +11367,7 @@
       <c r="A207" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="B207" s="15" t="s">
+      <c r="B207" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C207" s="15" t="s">
@@ -11378,7 +11381,7 @@
       <c r="A208" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="B208" s="15" t="s">
+      <c r="B208" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C208" s="15" t="s">
@@ -11398,7 +11401,7 @@
       <c r="A209" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="B209" s="15" t="s">
+      <c r="B209" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C209" s="15" t="s">
@@ -11412,7 +11415,7 @@
       <c r="A210" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="B210" s="15" t="s">
+      <c r="B210" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C210" s="15" t="s">
@@ -11432,7 +11435,7 @@
       <c r="A211" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="B211" s="15" t="s">
+      <c r="B211" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C211" s="15" t="s">
@@ -11446,7 +11449,7 @@
       <c r="A212" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="B212" s="15" t="s">
+      <c r="B212" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C212" s="15" t="s">
@@ -11463,7 +11466,7 @@
       <c r="A213" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="B213" s="15" t="s">
+      <c r="B213" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C213" s="15" t="s">
@@ -11483,7 +11486,7 @@
       <c r="A214" s="15" t="s">
         <v>1473</v>
       </c>
-      <c r="B214" s="15" t="s">
+      <c r="B214" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C214" s="15" t="s">
@@ -11497,7 +11500,7 @@
       <c r="A215" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="B215" s="15" t="s">
+      <c r="B215" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C215" s="15" t="s">
@@ -11517,7 +11520,7 @@
       <c r="A216" s="15" t="s">
         <v>1476</v>
       </c>
-      <c r="B216" s="15" t="s">
+      <c r="B216" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C216" s="15" t="s">
@@ -11531,7 +11534,7 @@
       <c r="A217" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="B217" s="15" t="s">
+      <c r="B217" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C217" s="15" t="s">
@@ -11551,7 +11554,7 @@
       <c r="A218" s="15" t="s">
         <v>1478</v>
       </c>
-      <c r="B218" s="15" t="s">
+      <c r="B218" s="13" t="s">
         <v>492</v>
       </c>
       <c r="G218" s="15" t="s">
@@ -11562,7 +11565,7 @@
       <c r="A219" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="B219" s="15" t="s">
+      <c r="B219" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C219" s="15" t="s">
@@ -11579,7 +11582,7 @@
       <c r="A220" s="15" t="s">
         <v>1481</v>
       </c>
-      <c r="B220" s="15" t="s">
+      <c r="B220" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C220" s="15" t="s">
@@ -11599,7 +11602,7 @@
       <c r="A221" s="15" t="s">
         <v>1482</v>
       </c>
-      <c r="B221" s="15" t="s">
+      <c r="B221" s="13" t="s">
         <v>492</v>
       </c>
       <c r="G221" s="15" t="s">
@@ -11610,7 +11613,7 @@
       <c r="A222" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="B222" s="15" t="s">
+      <c r="B222" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C222" s="15" t="s">
@@ -11624,7 +11627,7 @@
       <c r="A223" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="B223" s="15" t="s">
+      <c r="B223" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C223" s="15" t="s">
@@ -11638,7 +11641,7 @@
       <c r="A224" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="B224" s="15" t="s">
+      <c r="B224" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C224" s="15" t="s">
@@ -11655,7 +11658,7 @@
       <c r="A225" s="15" t="s">
         <v>1536</v>
       </c>
-      <c r="B225" s="15" t="s">
+      <c r="B225" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C225" s="15" t="s">
@@ -11669,7 +11672,7 @@
       <c r="A226" s="15" t="s">
         <v>1537</v>
       </c>
-      <c r="B226" s="15" t="s">
+      <c r="B226" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C226" s="15" t="s">
@@ -11683,7 +11686,7 @@
       <c r="A227" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="B227" s="15" t="s">
+      <c r="B227" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C227" s="15" t="s">
@@ -11703,7 +11706,7 @@
       <c r="A228" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="B228" s="15" t="s">
+      <c r="B228" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C228" s="15" t="s">
@@ -11717,7 +11720,7 @@
       <c r="A229" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="B229" s="15" t="s">
+      <c r="B229" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C229" s="15" t="s">
@@ -11737,7 +11740,7 @@
       <c r="A230" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="B230" s="15" t="s">
+      <c r="B230" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C230" s="15" t="s">
@@ -11751,7 +11754,7 @@
       <c r="A231" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="B231" s="15" t="s">
+      <c r="B231" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C231" s="15" t="s">
@@ -11771,7 +11774,7 @@
       <c r="A232" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="B232" s="15" t="s">
+      <c r="B232" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C232" s="15" t="s">
@@ -11785,7 +11788,7 @@
       <c r="A233" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="B233" s="15" t="s">
+      <c r="B233" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C233" s="15" t="s">
@@ -11805,7 +11808,7 @@
       <c r="A234" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="B234" s="15" t="s">
+      <c r="B234" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C234" s="15" t="s">
@@ -11819,7 +11822,7 @@
       <c r="A235" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="B235" s="15" t="s">
+      <c r="B235" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C235" s="15" t="s">
@@ -11839,7 +11842,7 @@
       <c r="A236" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="B236" s="15" t="s">
+      <c r="B236" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C236" s="15" t="s">
@@ -11853,7 +11856,7 @@
       <c r="A237" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="B237" s="15" t="s">
+      <c r="B237" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C237" s="15" t="s">
@@ -11873,7 +11876,7 @@
       <c r="A238" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="B238" s="15" t="s">
+      <c r="B238" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C238" s="15" t="s">
@@ -11887,7 +11890,7 @@
       <c r="A239" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="B239" s="15" t="s">
+      <c r="B239" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C239" s="15" t="s">
@@ -11907,7 +11910,7 @@
       <c r="A240" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="B240" s="15" t="s">
+      <c r="B240" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C240" s="15" t="s">
@@ -11921,7 +11924,7 @@
       <c r="A241" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="B241" s="15" t="s">
+      <c r="B241" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C241" s="15" t="s">
@@ -11941,7 +11944,7 @@
       <c r="A242" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="B242" s="15" t="s">
+      <c r="B242" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C242" s="15" t="s">
@@ -11955,7 +11958,7 @@
       <c r="A243" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="B243" s="15" t="s">
+      <c r="B243" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C243" s="15" t="s">
@@ -11972,7 +11975,7 @@
       <c r="A244" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="B244" s="15" t="s">
+      <c r="B244" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C244" s="15" t="s">
@@ -11986,7 +11989,7 @@
       <c r="A245" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="B245" s="15" t="s">
+      <c r="B245" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C245" s="15" t="s">
@@ -12000,7 +12003,7 @@
       <c r="A246" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="B246" s="15" t="s">
+      <c r="B246" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C246" s="15" t="s">
@@ -12020,7 +12023,7 @@
       <c r="A247" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="B247" s="15" t="s">
+      <c r="B247" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C247" s="15" t="s">
@@ -12034,7 +12037,7 @@
       <c r="A248" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="B248" s="15" t="s">
+      <c r="B248" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C248" s="15" t="s">
@@ -12054,7 +12057,7 @@
       <c r="A249" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="B249" s="15" t="s">
+      <c r="B249" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C249" s="15" t="s">
@@ -12068,7 +12071,7 @@
       <c r="A250" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="B250" s="15" t="s">
+      <c r="B250" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C250" s="15" t="s">
@@ -12088,7 +12091,7 @@
       <c r="A251" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="B251" s="15" t="s">
+      <c r="B251" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C251" s="15" t="s">
@@ -12102,7 +12105,7 @@
       <c r="A252" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="B252" s="15" t="s">
+      <c r="B252" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C252" s="15" t="s">
@@ -12122,7 +12125,7 @@
       <c r="A253" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B253" s="15" t="s">
+      <c r="B253" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C253" s="15" t="s">
@@ -12136,7 +12139,7 @@
       <c r="A254" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="B254" s="15" t="s">
+      <c r="B254" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C254" s="15" t="s">
@@ -12156,7 +12159,7 @@
       <c r="A255" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="B255" s="15" t="s">
+      <c r="B255" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C255" s="15" t="s">
@@ -12170,7 +12173,7 @@
       <c r="A256" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="B256" s="15" t="s">
+      <c r="B256" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C256" s="15" t="s">
@@ -12190,7 +12193,7 @@
       <c r="A257" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="B257" s="15" t="s">
+      <c r="B257" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C257" s="15" t="s">
@@ -12204,7 +12207,7 @@
       <c r="A258" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="B258" s="15" t="s">
+      <c r="B258" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C258" s="15" t="s">
@@ -12224,7 +12227,7 @@
       <c r="A259" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="B259" s="15" t="s">
+      <c r="B259" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C259" s="15" t="s">
@@ -12238,7 +12241,7 @@
       <c r="A260" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="B260" s="15" t="s">
+      <c r="B260" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C260" s="15" t="s">
@@ -12258,7 +12261,7 @@
       <c r="A261" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="B261" s="15" t="s">
+      <c r="B261" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C261" s="15" t="s">
@@ -12272,7 +12275,7 @@
       <c r="A262" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="B262" s="15" t="s">
+      <c r="B262" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C262" s="15" t="s">
@@ -12292,7 +12295,7 @@
       <c r="A263" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="B263" s="15" t="s">
+      <c r="B263" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C263" s="15" t="s">
@@ -12306,7 +12309,7 @@
       <c r="A264" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="B264" s="15" t="s">
+      <c r="B264" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C264" s="15" t="s">
@@ -12323,7 +12326,7 @@
       <c r="A265" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="B265" s="15" t="s">
+      <c r="B265" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C265" s="15" t="s">
@@ -12337,7 +12340,7 @@
       <c r="A266" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="B266" s="15" t="s">
+      <c r="B266" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C266" s="15" t="s">
@@ -12357,7 +12360,7 @@
       <c r="A267" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="B267" s="15" t="s">
+      <c r="B267" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C267" s="15" t="s">
@@ -12371,7 +12374,7 @@
       <c r="A268" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="B268" s="15" t="s">
+      <c r="B268" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C268" s="15" t="s">
@@ -12391,7 +12394,7 @@
       <c r="A269" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="B269" s="15" t="s">
+      <c r="B269" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C269" s="15" t="s">
@@ -12405,7 +12408,7 @@
       <c r="A270" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="B270" s="15" t="s">
+      <c r="B270" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C270" s="15" t="s">
@@ -12425,7 +12428,7 @@
       <c r="A271" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="B271" s="15" t="s">
+      <c r="B271" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C271" s="15" t="s">
@@ -12439,7 +12442,7 @@
       <c r="A272" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="B272" s="15" t="s">
+      <c r="B272" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C272" s="15" t="s">
@@ -12459,7 +12462,7 @@
       <c r="A273" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="B273" s="15" t="s">
+      <c r="B273" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C273" s="15" t="s">
@@ -12473,7 +12476,7 @@
       <c r="A274" s="15" t="s">
         <v>261</v>
       </c>
-      <c r="B274" s="15" t="s">
+      <c r="B274" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C274" s="15" t="s">
@@ -12493,7 +12496,7 @@
       <c r="A275" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="B275" s="15" t="s">
+      <c r="B275" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C275" s="15" t="s">
@@ -12507,7 +12510,7 @@
       <c r="A276" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="B276" s="15" t="s">
+      <c r="B276" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C276" s="15" t="s">
@@ -12527,7 +12530,7 @@
       <c r="A277" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="B277" s="15" t="s">
+      <c r="B277" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C277" s="15" t="s">
@@ -12541,7 +12544,7 @@
       <c r="A278" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="B278" s="15" t="s">
+      <c r="B278" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C278" s="15" t="s">
@@ -12555,7 +12558,7 @@
       <c r="A279" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="B279" s="15" t="s">
+      <c r="B279" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C279" s="15" t="s">
@@ -12569,7 +12572,7 @@
       <c r="A280" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="B280" s="15" t="s">
+      <c r="B280" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C280" s="15" t="s">
@@ -12589,7 +12592,7 @@
       <c r="A281" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="B281" s="15" t="s">
+      <c r="B281" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C281" s="15" t="s">
@@ -12603,7 +12606,7 @@
       <c r="A282" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="B282" s="15" t="s">
+      <c r="B282" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C282" s="15" t="s">
@@ -12617,7 +12620,7 @@
       <c r="A283" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="B283" s="15" t="s">
+      <c r="B283" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C283" s="15" t="s">
@@ -12631,7 +12634,7 @@
       <c r="A284" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="B284" s="15" t="s">
+      <c r="B284" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C284" s="15" t="s">
@@ -12651,7 +12654,7 @@
       <c r="A285" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="B285" s="15" t="s">
+      <c r="B285" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C285" s="15" t="s">
@@ -12665,7 +12668,7 @@
       <c r="A286" s="15" t="s">
         <v>273</v>
       </c>
-      <c r="B286" s="15" t="s">
+      <c r="B286" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C286" s="15" t="s">
@@ -12685,7 +12688,7 @@
       <c r="A287" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="B287" s="15" t="s">
+      <c r="B287" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C287" s="15" t="s">
@@ -12699,7 +12702,7 @@
       <c r="A288" s="15" t="s">
         <v>275</v>
       </c>
-      <c r="B288" s="15" t="s">
+      <c r="B288" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C288" s="15" t="s">
@@ -12719,7 +12722,7 @@
       <c r="A289" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="B289" s="15" t="s">
+      <c r="B289" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C289" s="15" t="s">
@@ -12733,7 +12736,7 @@
       <c r="A290" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="B290" s="15" t="s">
+      <c r="B290" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C290" s="15" t="s">
@@ -12753,7 +12756,7 @@
       <c r="A291" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="B291" s="15" t="s">
+      <c r="B291" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C291" s="15" t="s">
@@ -12767,7 +12770,7 @@
       <c r="A292" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="B292" s="15" t="s">
+      <c r="B292" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C292" s="15" t="s">
@@ -12787,7 +12790,7 @@
       <c r="A293" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="B293" s="15" t="s">
+      <c r="B293" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C293" s="15" t="s">
@@ -12801,7 +12804,7 @@
       <c r="A294" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="B294" s="15" t="s">
+      <c r="B294" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C294" s="15" t="s">
@@ -12821,7 +12824,7 @@
       <c r="A295" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="B295" s="15" t="s">
+      <c r="B295" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C295" s="15" t="s">
@@ -12835,7 +12838,7 @@
       <c r="A296" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="B296" s="15" t="s">
+      <c r="B296" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C296" s="15" t="s">
@@ -12855,7 +12858,7 @@
       <c r="A297" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="B297" s="15" t="s">
+      <c r="B297" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C297" s="15" t="s">
@@ -12869,7 +12872,7 @@
       <c r="A298" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="B298" s="15" t="s">
+      <c r="B298" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C298" s="15" t="s">
@@ -12889,7 +12892,7 @@
       <c r="A299" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="B299" s="15" t="s">
+      <c r="B299" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C299" s="15" t="s">
@@ -12903,7 +12906,7 @@
       <c r="A300" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="B300" s="15" t="s">
+      <c r="B300" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C300" s="15" t="s">
@@ -12923,7 +12926,7 @@
       <c r="A301" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="B301" s="15" t="s">
+      <c r="B301" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C301" s="15" t="s">
@@ -12937,7 +12940,7 @@
       <c r="A302" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="B302" s="15" t="s">
+      <c r="B302" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C302" s="15" t="s">
@@ -12957,7 +12960,7 @@
       <c r="A303" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="B303" s="15" t="s">
+      <c r="B303" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C303" s="15" t="s">
@@ -12971,7 +12974,7 @@
       <c r="A304" s="15" t="s">
         <v>291</v>
       </c>
-      <c r="B304" s="15" t="s">
+      <c r="B304" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C304" s="15" t="s">
@@ -12991,7 +12994,7 @@
       <c r="A305" s="15" t="s">
         <v>292</v>
       </c>
-      <c r="B305" s="15" t="s">
+      <c r="B305" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C305" s="15" t="s">
@@ -13005,7 +13008,7 @@
       <c r="A306" s="15" t="s">
         <v>293</v>
       </c>
-      <c r="B306" s="15" t="s">
+      <c r="B306" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C306" s="15" t="s">
@@ -13019,7 +13022,7 @@
       <c r="A307" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="B307" s="15" t="s">
+      <c r="B307" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C307" s="15" t="s">
@@ -13033,7 +13036,7 @@
       <c r="A308" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="B308" s="15" t="s">
+      <c r="B308" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C308" s="15" t="s">
@@ -13053,7 +13056,7 @@
       <c r="A309" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="B309" s="15" t="s">
+      <c r="B309" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C309" s="15" t="s">
@@ -13067,7 +13070,7 @@
       <c r="A310" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="B310" s="15" t="s">
+      <c r="B310" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C310" s="15" t="s">
@@ -13087,7 +13090,7 @@
       <c r="A311" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="B311" s="15" t="s">
+      <c r="B311" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C311" s="15" t="s">
@@ -13101,7 +13104,7 @@
       <c r="A312" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="B312" s="15" t="s">
+      <c r="B312" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C312" s="15" t="s">
@@ -13121,7 +13124,7 @@
       <c r="A313" s="15" t="s">
         <v>300</v>
       </c>
-      <c r="B313" s="15" t="s">
+      <c r="B313" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C313" s="15" t="s">
@@ -13135,7 +13138,7 @@
       <c r="A314" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="B314" s="15" t="s">
+      <c r="B314" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C314" s="15" t="s">
@@ -13155,7 +13158,7 @@
       <c r="A315" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="B315" s="15" t="s">
+      <c r="B315" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C315" s="15" t="s">
@@ -13169,7 +13172,7 @@
       <c r="A316" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="B316" s="15" t="s">
+      <c r="B316" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C316" s="15" t="s">
@@ -13189,7 +13192,7 @@
       <c r="A317" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="B317" s="15" t="s">
+      <c r="B317" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C317" s="15" t="s">
@@ -13203,7 +13206,7 @@
       <c r="A318" s="15" t="s">
         <v>305</v>
       </c>
-      <c r="B318" s="15" t="s">
+      <c r="B318" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C318" s="15" t="s">
@@ -13223,7 +13226,7 @@
       <c r="A319" s="15" t="s">
         <v>306</v>
       </c>
-      <c r="B319" s="15" t="s">
+      <c r="B319" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C319" s="15" t="s">
@@ -13237,7 +13240,7 @@
       <c r="A320" s="15" t="s">
         <v>307</v>
       </c>
-      <c r="B320" s="15" t="s">
+      <c r="B320" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C320" s="15" t="s">
@@ -13257,7 +13260,7 @@
       <c r="A321" s="15" t="s">
         <v>308</v>
       </c>
-      <c r="B321" s="15" t="s">
+      <c r="B321" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C321" s="15" t="s">
@@ -13271,7 +13274,7 @@
       <c r="A322" s="15" t="s">
         <v>309</v>
       </c>
-      <c r="B322" s="15" t="s">
+      <c r="B322" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C322" s="15" t="s">
@@ -13291,7 +13294,7 @@
       <c r="A323" s="15" t="s">
         <v>310</v>
       </c>
-      <c r="B323" s="15" t="s">
+      <c r="B323" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C323" s="15" t="s">
@@ -13305,7 +13308,7 @@
       <c r="A324" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="B324" s="15" t="s">
+      <c r="B324" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C324" s="15" t="s">
@@ -13319,7 +13322,7 @@
       <c r="A325" s="15" t="s">
         <v>312</v>
       </c>
-      <c r="B325" s="15" t="s">
+      <c r="B325" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C325" s="15" t="s">
@@ -13333,7 +13336,7 @@
       <c r="A326" s="15" t="s">
         <v>313</v>
       </c>
-      <c r="B326" s="15" t="s">
+      <c r="B326" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C326" s="15" t="s">
@@ -13353,7 +13356,7 @@
       <c r="A327" s="15" t="s">
         <v>314</v>
       </c>
-      <c r="B327" s="15" t="s">
+      <c r="B327" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C327" s="15" t="s">
@@ -13367,7 +13370,7 @@
       <c r="A328" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="B328" s="15" t="s">
+      <c r="B328" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C328" s="15" t="s">
@@ -13387,7 +13390,7 @@
       <c r="A329" s="15" t="s">
         <v>316</v>
       </c>
-      <c r="B329" s="15" t="s">
+      <c r="B329" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C329" s="15" t="s">
@@ -13401,7 +13404,7 @@
       <c r="A330" s="15" t="s">
         <v>317</v>
       </c>
-      <c r="B330" s="15" t="s">
+      <c r="B330" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C330" s="15" t="s">
@@ -13421,7 +13424,7 @@
       <c r="A331" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="B331" s="15" t="s">
+      <c r="B331" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C331" s="15" t="s">
@@ -13435,7 +13438,7 @@
       <c r="A332" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="B332" s="15" t="s">
+      <c r="B332" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C332" s="15" t="s">
@@ -13449,7 +13452,7 @@
       <c r="A333" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="B333" s="15" t="s">
+      <c r="B333" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C333" s="15" t="s">
@@ -13463,7 +13466,7 @@
       <c r="A334" s="15" t="s">
         <v>321</v>
       </c>
-      <c r="B334" s="15" t="s">
+      <c r="B334" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C334" s="15" t="s">
@@ -13477,7 +13480,7 @@
       <c r="A335" s="15" t="s">
         <v>322</v>
       </c>
-      <c r="B335" s="15" t="s">
+      <c r="B335" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C335" s="15" t="s">
@@ -13491,7 +13494,7 @@
       <c r="A336" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="B336" s="15" t="s">
+      <c r="B336" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C336" s="15" t="s">
@@ -13511,7 +13514,7 @@
       <c r="A337" s="15" t="s">
         <v>324</v>
       </c>
-      <c r="B337" s="15" t="s">
+      <c r="B337" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C337" s="15" t="s">
@@ -13525,7 +13528,7 @@
       <c r="A338" s="15" t="s">
         <v>325</v>
       </c>
-      <c r="B338" s="15" t="s">
+      <c r="B338" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C338" s="15" t="s">
@@ -13545,7 +13548,7 @@
       <c r="A339" s="15" t="s">
         <v>326</v>
       </c>
-      <c r="B339" s="15" t="s">
+      <c r="B339" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C339" s="15" t="s">
@@ -13559,7 +13562,7 @@
       <c r="A340" s="15" t="s">
         <v>327</v>
       </c>
-      <c r="B340" s="15" t="s">
+      <c r="B340" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C340" s="15" t="s">
@@ -13579,7 +13582,7 @@
       <c r="A341" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="B341" s="15" t="s">
+      <c r="B341" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C341" s="15" t="s">
@@ -13593,7 +13596,7 @@
       <c r="A342" s="15" t="s">
         <v>329</v>
       </c>
-      <c r="B342" s="15" t="s">
+      <c r="B342" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C342" s="15" t="s">
@@ -13613,7 +13616,7 @@
       <c r="A343" s="15" t="s">
         <v>330</v>
       </c>
-      <c r="B343" s="15" t="s">
+      <c r="B343" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C343" s="15" t="s">
@@ -13627,7 +13630,7 @@
       <c r="A344" s="15" t="s">
         <v>331</v>
       </c>
-      <c r="B344" s="15" t="s">
+      <c r="B344" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C344" s="15" t="s">
@@ -13647,7 +13650,7 @@
       <c r="A345" s="15" t="s">
         <v>332</v>
       </c>
-      <c r="B345" s="15" t="s">
+      <c r="B345" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C345" s="15" t="s">
@@ -13661,7 +13664,7 @@
       <c r="A346" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="B346" s="15" t="s">
+      <c r="B346" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C346" s="15" t="s">
@@ -13681,7 +13684,7 @@
       <c r="A347" s="15" t="s">
         <v>334</v>
       </c>
-      <c r="B347" s="15" t="s">
+      <c r="B347" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C347" s="15" t="s">
@@ -13695,7 +13698,7 @@
       <c r="A348" s="15" t="s">
         <v>335</v>
       </c>
-      <c r="B348" s="15" t="s">
+      <c r="B348" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C348" s="15" t="s">
@@ -13709,7 +13712,7 @@
       <c r="A349" s="15" t="s">
         <v>336</v>
       </c>
-      <c r="B349" s="15" t="s">
+      <c r="B349" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C349" s="15" t="s">
@@ -13723,7 +13726,7 @@
       <c r="A350" s="15" t="s">
         <v>337</v>
       </c>
-      <c r="B350" s="15" t="s">
+      <c r="B350" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C350" s="15" t="s">
@@ -13737,7 +13740,7 @@
       <c r="A351" s="15" t="s">
         <v>338</v>
       </c>
-      <c r="B351" s="15" t="s">
+      <c r="B351" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C351" s="15" t="s">
@@ -13757,7 +13760,7 @@
       <c r="A352" s="15" t="s">
         <v>339</v>
       </c>
-      <c r="B352" s="15" t="s">
+      <c r="B352" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C352" s="15" t="s">
@@ -13771,7 +13774,7 @@
       <c r="A353" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="B353" s="15" t="s">
+      <c r="B353" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C353" s="15" t="s">
@@ -13791,7 +13794,7 @@
       <c r="A354" s="15" t="s">
         <v>341</v>
       </c>
-      <c r="B354" s="15" t="s">
+      <c r="B354" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C354" s="15" t="s">
@@ -13805,7 +13808,7 @@
       <c r="A355" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="B355" s="15" t="s">
+      <c r="B355" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C355" s="15" t="s">
@@ -13825,7 +13828,7 @@
       <c r="A356" s="15" t="s">
         <v>343</v>
       </c>
-      <c r="B356" s="15" t="s">
+      <c r="B356" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C356" s="15" t="s">
@@ -13839,7 +13842,7 @@
       <c r="A357" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="B357" s="15" t="s">
+      <c r="B357" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C357" s="15" t="s">
@@ -13859,7 +13862,7 @@
       <c r="A358" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="B358" s="15" t="s">
+      <c r="B358" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C358" s="15" t="s">
@@ -13873,7 +13876,7 @@
       <c r="A359" s="15" t="s">
         <v>346</v>
       </c>
-      <c r="B359" s="15" t="s">
+      <c r="B359" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C359" s="15" t="s">
@@ -13893,7 +13896,7 @@
       <c r="A360" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="B360" s="15" t="s">
+      <c r="B360" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C360" s="15" t="s">
@@ -13907,7 +13910,7 @@
       <c r="A361" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="B361" s="15" t="s">
+      <c r="B361" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C361" s="15" t="s">
@@ -13927,7 +13930,7 @@
       <c r="A362" s="15" t="s">
         <v>349</v>
       </c>
-      <c r="B362" s="15" t="s">
+      <c r="B362" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C362" s="15" t="s">
@@ -13941,7 +13944,7 @@
       <c r="A363" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="B363" s="15" t="s">
+      <c r="B363" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C363" s="15" t="s">
@@ -13961,7 +13964,7 @@
       <c r="A364" s="15" t="s">
         <v>351</v>
       </c>
-      <c r="B364" s="15" t="s">
+      <c r="B364" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C364" s="15" t="s">
@@ -13975,7 +13978,7 @@
       <c r="A365" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="B365" s="15" t="s">
+      <c r="B365" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C365" s="15" t="s">
@@ -13995,7 +13998,7 @@
       <c r="A366" s="15" t="s">
         <v>353</v>
       </c>
-      <c r="B366" s="15" t="s">
+      <c r="B366" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C366" s="15" t="s">
@@ -14009,7 +14012,7 @@
       <c r="A367" s="15" t="s">
         <v>354</v>
       </c>
-      <c r="B367" s="15" t="s">
+      <c r="B367" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C367" s="15" t="s">
@@ -14026,7 +14029,7 @@
       <c r="A368" s="15" t="s">
         <v>355</v>
       </c>
-      <c r="B368" s="15" t="s">
+      <c r="B368" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C368" s="15" t="s">
@@ -14046,7 +14049,7 @@
       <c r="A369" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="B369" s="15" t="s">
+      <c r="B369" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C369" s="15" t="s">
@@ -14060,7 +14063,7 @@
       <c r="A370" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="B370" s="15" t="s">
+      <c r="B370" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C370" s="15" t="s">
@@ -14080,7 +14083,7 @@
       <c r="A371" s="15" t="s">
         <v>358</v>
       </c>
-      <c r="B371" s="15" t="s">
+      <c r="B371" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C371" s="15" t="s">
@@ -14094,7 +14097,7 @@
       <c r="A372" s="15" t="s">
         <v>359</v>
       </c>
-      <c r="B372" s="15" t="s">
+      <c r="B372" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C372" s="15" t="s">
@@ -14114,7 +14117,7 @@
       <c r="A373" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="B373" s="15" t="s">
+      <c r="B373" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C373" s="15" t="s">
@@ -14128,7 +14131,7 @@
       <c r="A374" s="15" t="s">
         <v>361</v>
       </c>
-      <c r="B374" s="15" t="s">
+      <c r="B374" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C374" s="15" t="s">
@@ -14148,7 +14151,7 @@
       <c r="A375" s="15" t="s">
         <v>362</v>
       </c>
-      <c r="B375" s="15" t="s">
+      <c r="B375" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C375" s="15" t="s">
@@ -14162,7 +14165,7 @@
       <c r="A376" s="15" t="s">
         <v>1527</v>
       </c>
-      <c r="B376" s="15" t="s">
+      <c r="B376" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C376" s="15" t="s">
@@ -14176,7 +14179,7 @@
       <c r="A377" s="15" t="s">
         <v>363</v>
       </c>
-      <c r="B377" s="15" t="s">
+      <c r="B377" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C377" s="15" t="s">
@@ -14196,7 +14199,7 @@
       <c r="A378" s="15" t="s">
         <v>364</v>
       </c>
-      <c r="B378" s="15" t="s">
+      <c r="B378" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C378" s="15" t="s">
@@ -14210,7 +14213,7 @@
       <c r="A379" s="15" t="s">
         <v>365</v>
       </c>
-      <c r="B379" s="15" t="s">
+      <c r="B379" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C379" s="15" t="s">
@@ -14230,7 +14233,7 @@
       <c r="A380" s="15" t="s">
         <v>366</v>
       </c>
-      <c r="B380" s="15" t="s">
+      <c r="B380" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C380" s="15" t="s">
@@ -14244,7 +14247,7 @@
       <c r="A381" s="15" t="s">
         <v>367</v>
       </c>
-      <c r="B381" s="15" t="s">
+      <c r="B381" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C381" s="15" t="s">
@@ -14264,7 +14267,7 @@
       <c r="A382" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="B382" s="15" t="s">
+      <c r="B382" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C382" s="15" t="s">
@@ -14278,7 +14281,7 @@
       <c r="A383" s="15" t="s">
         <v>369</v>
       </c>
-      <c r="B383" s="15" t="s">
+      <c r="B383" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C383" s="15" t="s">
@@ -14298,7 +14301,7 @@
       <c r="A384" s="15" t="s">
         <v>370</v>
       </c>
-      <c r="B384" s="15" t="s">
+      <c r="B384" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C384" s="15" t="s">
@@ -14312,7 +14315,7 @@
       <c r="A385" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="B385" s="15" t="s">
+      <c r="B385" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C385" s="15" t="s">
@@ -14332,7 +14335,7 @@
       <c r="A386" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="B386" s="15" t="s">
+      <c r="B386" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C386" s="15" t="s">
@@ -14346,7 +14349,7 @@
       <c r="A387" s="15" t="s">
         <v>373</v>
       </c>
-      <c r="B387" s="15" t="s">
+      <c r="B387" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C387" s="15" t="s">
@@ -14366,7 +14369,7 @@
       <c r="A388" s="15" t="s">
         <v>374</v>
       </c>
-      <c r="B388" s="15" t="s">
+      <c r="B388" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C388" s="15" t="s">
@@ -14386,7 +14389,7 @@
       <c r="A389" s="15" t="s">
         <v>375</v>
       </c>
-      <c r="B389" s="15" t="s">
+      <c r="B389" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C389" s="15" t="s">
@@ -14403,7 +14406,7 @@
       <c r="A390" s="15" t="s">
         <v>376</v>
       </c>
-      <c r="B390" s="15" t="s">
+      <c r="B390" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C390" s="15" t="s">
@@ -14423,7 +14426,7 @@
       <c r="A391" s="15" t="s">
         <v>377</v>
       </c>
-      <c r="B391" s="15" t="s">
+      <c r="B391" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C391" s="15" t="s">
@@ -14437,7 +14440,7 @@
       <c r="A392" s="15" t="s">
         <v>378</v>
       </c>
-      <c r="B392" s="15" t="s">
+      <c r="B392" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C392" s="15" t="s">
@@ -14457,7 +14460,7 @@
       <c r="A393" s="15" t="s">
         <v>379</v>
       </c>
-      <c r="B393" s="15" t="s">
+      <c r="B393" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C393" s="15" t="s">
@@ -14471,7 +14474,7 @@
       <c r="A394" s="15" t="s">
         <v>380</v>
       </c>
-      <c r="B394" s="15" t="s">
+      <c r="B394" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C394" s="15" t="s">
@@ -14491,7 +14494,7 @@
       <c r="A395" s="15" t="s">
         <v>381</v>
       </c>
-      <c r="B395" s="15" t="s">
+      <c r="B395" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C395" s="15" t="s">
@@ -14505,7 +14508,7 @@
       <c r="A396" s="15" t="s">
         <v>382</v>
       </c>
-      <c r="B396" s="15" t="s">
+      <c r="B396" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C396" s="15" t="s">
@@ -14525,7 +14528,7 @@
       <c r="A397" s="15" t="s">
         <v>383</v>
       </c>
-      <c r="B397" s="15" t="s">
+      <c r="B397" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C397" s="15" t="s">
@@ -14539,7 +14542,7 @@
       <c r="A398" s="15" t="s">
         <v>384</v>
       </c>
-      <c r="B398" s="15" t="s">
+      <c r="B398" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C398" s="15" t="s">
@@ -14559,7 +14562,7 @@
       <c r="A399" s="15" t="s">
         <v>385</v>
       </c>
-      <c r="B399" s="15" t="s">
+      <c r="B399" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C399" s="15" t="s">
@@ -14573,7 +14576,7 @@
       <c r="A400" s="15" t="s">
         <v>386</v>
       </c>
-      <c r="B400" s="15" t="s">
+      <c r="B400" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C400" s="15" t="s">
@@ -14593,7 +14596,7 @@
       <c r="A401" s="15" t="s">
         <v>387</v>
       </c>
-      <c r="B401" s="15" t="s">
+      <c r="B401" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C401" s="15" t="s">
@@ -14607,7 +14610,7 @@
       <c r="A402" s="15" t="s">
         <v>388</v>
       </c>
-      <c r="B402" s="15" t="s">
+      <c r="B402" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C402" s="15" t="s">
@@ -14627,7 +14630,7 @@
       <c r="A403" s="15" t="s">
         <v>389</v>
       </c>
-      <c r="B403" s="15" t="s">
+      <c r="B403" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C403" s="15" t="s">
@@ -14641,7 +14644,7 @@
       <c r="A404" s="15" t="s">
         <v>390</v>
       </c>
-      <c r="B404" s="15" t="s">
+      <c r="B404" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C404" s="15" t="s">
@@ -14661,7 +14664,7 @@
       <c r="A405" s="15" t="s">
         <v>391</v>
       </c>
-      <c r="B405" s="15" t="s">
+      <c r="B405" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C405" s="15" t="s">
@@ -14675,7 +14678,7 @@
       <c r="A406" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="B406" s="15" t="s">
+      <c r="B406" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C406" s="15" t="s">
@@ -14695,7 +14698,7 @@
       <c r="A407" s="15" t="s">
         <v>393</v>
       </c>
-      <c r="B407" s="15" t="s">
+      <c r="B407" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C407" s="15" t="s">
@@ -14709,7 +14712,7 @@
       <c r="A408" s="15" t="s">
         <v>394</v>
       </c>
-      <c r="B408" s="15" t="s">
+      <c r="B408" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C408" s="15" t="s">
@@ -14729,7 +14732,7 @@
       <c r="A409" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="B409" s="15" t="s">
+      <c r="B409" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C409" s="15" t="s">
@@ -14743,7 +14746,7 @@
       <c r="A410" s="15" t="s">
         <v>396</v>
       </c>
-      <c r="B410" s="15" t="s">
+      <c r="B410" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C410" s="15" t="s">
@@ -14763,7 +14766,7 @@
       <c r="A411" s="15" t="s">
         <v>397</v>
       </c>
-      <c r="B411" s="15" t="s">
+      <c r="B411" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C411" s="15" t="s">
@@ -14777,7 +14780,7 @@
       <c r="A412" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="B412" s="15" t="s">
+      <c r="B412" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C412" s="15" t="s">
@@ -14797,7 +14800,7 @@
       <c r="A413" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="B413" s="15" t="s">
+      <c r="B413" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C413" s="15" t="s">
@@ -14811,7 +14814,7 @@
       <c r="A414" s="15" t="s">
         <v>400</v>
       </c>
-      <c r="B414" s="15" t="s">
+      <c r="B414" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C414" s="15" t="s">
@@ -14831,7 +14834,7 @@
       <c r="A415" s="15" t="s">
         <v>401</v>
       </c>
-      <c r="B415" s="15" t="s">
+      <c r="B415" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C415" s="15" t="s">
@@ -14845,7 +14848,7 @@
       <c r="A416" s="15" t="s">
         <v>402</v>
       </c>
-      <c r="B416" s="15" t="s">
+      <c r="B416" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C416" s="15" t="s">
@@ -14865,7 +14868,7 @@
       <c r="A417" s="15" t="s">
         <v>403</v>
       </c>
-      <c r="B417" s="15" t="s">
+      <c r="B417" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C417" s="15" t="s">
@@ -14879,7 +14882,7 @@
       <c r="A418" s="15" t="s">
         <v>404</v>
       </c>
-      <c r="B418" s="15" t="s">
+      <c r="B418" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C418" s="15" t="s">
@@ -14899,7 +14902,7 @@
       <c r="A419" s="15" t="s">
         <v>405</v>
       </c>
-      <c r="B419" s="15" t="s">
+      <c r="B419" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C419" s="15" t="s">
@@ -14913,7 +14916,7 @@
       <c r="A420" s="15" t="s">
         <v>406</v>
       </c>
-      <c r="B420" s="15" t="s">
+      <c r="B420" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C420" s="15" t="s">
@@ -14933,7 +14936,7 @@
       <c r="A421" s="15" t="s">
         <v>407</v>
       </c>
-      <c r="B421" s="15" t="s">
+      <c r="B421" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C421" s="15" t="s">
@@ -14947,7 +14950,7 @@
       <c r="A422" s="15" t="s">
         <v>408</v>
       </c>
-      <c r="B422" s="15" t="s">
+      <c r="B422" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C422" s="15" t="s">
@@ -14967,7 +14970,7 @@
       <c r="A423" s="15" t="s">
         <v>409</v>
       </c>
-      <c r="B423" s="15" t="s">
+      <c r="B423" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C423" s="15" t="s">
@@ -14981,7 +14984,7 @@
       <c r="A424" s="15" t="s">
         <v>410</v>
       </c>
-      <c r="B424" s="15" t="s">
+      <c r="B424" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C424" s="15" t="s">
@@ -15001,7 +15004,7 @@
       <c r="A425" s="15" t="s">
         <v>411</v>
       </c>
-      <c r="B425" s="15" t="s">
+      <c r="B425" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C425" s="15" t="s">
@@ -15015,7 +15018,7 @@
       <c r="A426" s="15" t="s">
         <v>412</v>
       </c>
-      <c r="B426" s="15" t="s">
+      <c r="B426" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C426" s="15" t="s">
@@ -15035,7 +15038,7 @@
       <c r="A427" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="B427" s="15" t="s">
+      <c r="B427" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C427" s="15" t="s">
@@ -15049,7 +15052,7 @@
       <c r="A428" s="15" t="s">
         <v>414</v>
       </c>
-      <c r="B428" s="15" t="s">
+      <c r="B428" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C428" s="15" t="s">
@@ -15069,7 +15072,7 @@
       <c r="A429" s="15" t="s">
         <v>415</v>
       </c>
-      <c r="B429" s="15" t="s">
+      <c r="B429" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C429" s="15" t="s">
@@ -15083,7 +15086,7 @@
       <c r="A430" s="15" t="s">
         <v>416</v>
       </c>
-      <c r="B430" s="15" t="s">
+      <c r="B430" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C430" s="15" t="s">
@@ -15097,7 +15100,7 @@
       <c r="A431" s="15" t="s">
         <v>417</v>
       </c>
-      <c r="B431" s="15" t="s">
+      <c r="B431" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C431" s="15" t="s">
@@ -15117,7 +15120,7 @@
       <c r="A432" s="15" t="s">
         <v>418</v>
       </c>
-      <c r="B432" s="15" t="s">
+      <c r="B432" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C432" s="15" t="s">
@@ -15131,7 +15134,7 @@
       <c r="A433" s="15" t="s">
         <v>419</v>
       </c>
-      <c r="B433" s="15" t="s">
+      <c r="B433" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C433" s="15" t="s">
@@ -15151,7 +15154,7 @@
       <c r="A434" s="15" t="s">
         <v>420</v>
       </c>
-      <c r="B434" s="15" t="s">
+      <c r="B434" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C434" s="15" t="s">
@@ -15165,7 +15168,7 @@
       <c r="A435" s="15" t="s">
         <v>1576</v>
       </c>
-      <c r="B435" s="15" t="s">
+      <c r="B435" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C435" s="15" t="s">
@@ -15185,7 +15188,7 @@
       <c r="A436" s="15" t="s">
         <v>1577</v>
       </c>
-      <c r="B436" s="15" t="s">
+      <c r="B436" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C436" s="15" t="s">
@@ -15199,7 +15202,7 @@
       <c r="A437" t="s">
         <v>1530</v>
       </c>
-      <c r="B437" s="15" t="s">
+      <c r="B437" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C437" s="15" t="s">
@@ -15213,7 +15216,7 @@
       <c r="A438" s="15" t="s">
         <v>421</v>
       </c>
-      <c r="B438" s="15" t="s">
+      <c r="B438" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C438" s="15" t="s">
@@ -15233,7 +15236,7 @@
       <c r="A439" s="15" t="s">
         <v>422</v>
       </c>
-      <c r="B439" s="15" t="s">
+      <c r="B439" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C439" s="15" t="s">
@@ -15247,7 +15250,7 @@
       <c r="A440" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="B440" s="15" t="s">
+      <c r="B440" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C440" s="15" t="s">
@@ -15267,7 +15270,7 @@
       <c r="A441" s="15" t="s">
         <v>424</v>
       </c>
-      <c r="B441" s="15" t="s">
+      <c r="B441" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C441" s="15" t="s">
@@ -15281,7 +15284,7 @@
       <c r="A442" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="B442" s="15" t="s">
+      <c r="B442" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C442" s="15" t="s">
@@ -15301,7 +15304,7 @@
       <c r="A443" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="B443" s="15" t="s">
+      <c r="B443" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C443" s="15" t="s">
@@ -15315,7 +15318,7 @@
       <c r="A444" s="15" t="s">
         <v>427</v>
       </c>
-      <c r="B444" s="15" t="s">
+      <c r="B444" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C444" s="15" t="s">
@@ -15329,7 +15332,7 @@
       <c r="A445" s="15" t="s">
         <v>428</v>
       </c>
-      <c r="B445" s="15" t="s">
+      <c r="B445" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C445" s="15" t="s">
@@ -15343,7 +15346,7 @@
       <c r="A446" s="15" t="s">
         <v>429</v>
       </c>
-      <c r="B446" s="15" t="s">
+      <c r="B446" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C446" s="15" t="s">
@@ -15363,7 +15366,7 @@
       <c r="A447" s="15" t="s">
         <v>430</v>
       </c>
-      <c r="B447" s="15" t="s">
+      <c r="B447" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C447" s="15" t="s">
@@ -15377,7 +15380,7 @@
       <c r="A448" s="15" t="s">
         <v>431</v>
       </c>
-      <c r="B448" s="15" t="s">
+      <c r="B448" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C448" s="15" t="s">
@@ -15397,7 +15400,7 @@
       <c r="A449" s="15" t="s">
         <v>432</v>
       </c>
-      <c r="B449" s="15" t="s">
+      <c r="B449" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C449" s="15" t="s">
@@ -15411,7 +15414,7 @@
       <c r="A450" s="15" t="s">
         <v>433</v>
       </c>
-      <c r="B450" s="15" t="s">
+      <c r="B450" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C450" s="15" t="s">
@@ -15428,7 +15431,7 @@
       <c r="A451" s="15" t="s">
         <v>434</v>
       </c>
-      <c r="B451" s="15" t="s">
+      <c r="B451" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C451" s="15" t="s">
@@ -15448,7 +15451,7 @@
       <c r="A452" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="B452" s="15" t="s">
+      <c r="B452" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C452" s="15" t="s">
@@ -15462,7 +15465,7 @@
       <c r="A453" s="15" t="s">
         <v>436</v>
       </c>
-      <c r="B453" s="15" t="s">
+      <c r="B453" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C453" s="15" t="s">
@@ -15482,7 +15485,7 @@
       <c r="A454" s="15" t="s">
         <v>437</v>
       </c>
-      <c r="B454" s="15" t="s">
+      <c r="B454" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C454" s="15" t="s">
@@ -15496,7 +15499,7 @@
       <c r="A455" s="15" t="s">
         <v>438</v>
       </c>
-      <c r="B455" s="15" t="s">
+      <c r="B455" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C455" s="15" t="s">
@@ -15516,7 +15519,7 @@
       <c r="A456" s="15" t="s">
         <v>1497</v>
       </c>
-      <c r="B456" s="15" t="s">
+      <c r="B456" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C456" s="15" t="s">
@@ -15530,7 +15533,7 @@
       <c r="A457" s="15" t="s">
         <v>439</v>
       </c>
-      <c r="B457" s="15" t="s">
+      <c r="B457" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C457" s="15" t="s">
@@ -15550,7 +15553,7 @@
       <c r="A458" s="15" t="s">
         <v>1493</v>
       </c>
-      <c r="B458" s="15" t="s">
+      <c r="B458" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C458" s="15" t="s">
@@ -15564,7 +15567,7 @@
       <c r="A459" s="15" t="s">
         <v>440</v>
       </c>
-      <c r="B459" s="15" t="s">
+      <c r="B459" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C459" s="15" t="s">
@@ -15584,7 +15587,7 @@
       <c r="A460" s="15" t="s">
         <v>441</v>
       </c>
-      <c r="B460" s="15" t="s">
+      <c r="B460" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C460" s="15" t="s">
@@ -15598,7 +15601,7 @@
       <c r="A461" s="15" t="s">
         <v>442</v>
       </c>
-      <c r="B461" s="15" t="s">
+      <c r="B461" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C461" s="15" t="s">
@@ -15618,7 +15621,7 @@
       <c r="A462" s="15" t="s">
         <v>443</v>
       </c>
-      <c r="B462" s="15" t="s">
+      <c r="B462" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C462" s="15" t="s">
@@ -15632,7 +15635,7 @@
       <c r="A463" s="15" t="s">
         <v>444</v>
       </c>
-      <c r="B463" s="15" t="s">
+      <c r="B463" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C463" s="15" t="s">
@@ -15652,7 +15655,7 @@
       <c r="A464" s="15" t="s">
         <v>445</v>
       </c>
-      <c r="B464" s="15" t="s">
+      <c r="B464" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C464" s="15" t="s">
@@ -15666,7 +15669,7 @@
       <c r="A465" s="15" t="s">
         <v>446</v>
       </c>
-      <c r="B465" s="15" t="s">
+      <c r="B465" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C465" s="15" t="s">
@@ -15686,7 +15689,7 @@
       <c r="A466" s="15" t="s">
         <v>447</v>
       </c>
-      <c r="B466" s="15" t="s">
+      <c r="B466" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C466" s="15" t="s">
@@ -15700,7 +15703,7 @@
       <c r="A467" s="15" t="s">
         <v>448</v>
       </c>
-      <c r="B467" s="15" t="s">
+      <c r="B467" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C467" s="15" t="s">
@@ -15720,7 +15723,7 @@
       <c r="A468" s="15" t="s">
         <v>974</v>
       </c>
-      <c r="B468" s="15" t="s">
+      <c r="B468" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C468" s="15" t="s">
@@ -15734,7 +15737,7 @@
       <c r="A469" s="15" t="s">
         <v>449</v>
       </c>
-      <c r="B469" s="15" t="s">
+      <c r="B469" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C469" s="15" t="s">
@@ -15754,7 +15757,7 @@
       <c r="A470" s="15" t="s">
         <v>450</v>
       </c>
-      <c r="B470" s="15" t="s">
+      <c r="B470" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C470" s="15" t="s">
@@ -15768,7 +15771,7 @@
       <c r="A471" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="B471" s="15" t="s">
+      <c r="B471" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C471" s="15" t="s">
@@ -15782,7 +15785,7 @@
       <c r="A472" s="15" t="s">
         <v>452</v>
       </c>
-      <c r="B472" s="15" t="s">
+      <c r="B472" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C472" s="15" t="s">
@@ -15802,7 +15805,7 @@
       <c r="A473" s="15" t="s">
         <v>453</v>
       </c>
-      <c r="B473" s="15" t="s">
+      <c r="B473" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C473" s="15" t="s">
@@ -15816,7 +15819,7 @@
       <c r="A474" s="15" t="s">
         <v>454</v>
       </c>
-      <c r="B474" s="15" t="s">
+      <c r="B474" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C474" s="15" t="s">
@@ -15836,7 +15839,7 @@
       <c r="A475" s="15" t="s">
         <v>455</v>
       </c>
-      <c r="B475" s="15" t="s">
+      <c r="B475" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C475" s="15" t="s">
@@ -15850,7 +15853,7 @@
       <c r="A476" s="15" t="s">
         <v>456</v>
       </c>
-      <c r="B476" s="15" t="s">
+      <c r="B476" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C476" s="15" t="s">
@@ -15870,7 +15873,7 @@
       <c r="A477" s="15" t="s">
         <v>457</v>
       </c>
-      <c r="B477" s="15" t="s">
+      <c r="B477" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C477" s="15" t="s">
@@ -15884,7 +15887,7 @@
       <c r="A478" s="15" t="s">
         <v>458</v>
       </c>
-      <c r="B478" s="15" t="s">
+      <c r="B478" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C478" s="15" t="s">
@@ -15904,7 +15907,7 @@
       <c r="A479" s="15" t="s">
         <v>459</v>
       </c>
-      <c r="B479" s="15" t="s">
+      <c r="B479" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C479" s="15" t="s">
@@ -15918,7 +15921,7 @@
       <c r="A480" s="15" t="s">
         <v>460</v>
       </c>
-      <c r="B480" s="15" t="s">
+      <c r="B480" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C480" s="15" t="s">
@@ -15938,7 +15941,7 @@
       <c r="A481" s="15" t="s">
         <v>461</v>
       </c>
-      <c r="B481" s="15" t="s">
+      <c r="B481" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C481" s="15" t="s">
@@ -15952,7 +15955,7 @@
       <c r="A482" s="15" t="s">
         <v>462</v>
       </c>
-      <c r="B482" s="15" t="s">
+      <c r="B482" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C482" s="15" t="s">
@@ -15966,7 +15969,7 @@
       <c r="A483" s="15" t="s">
         <v>463</v>
       </c>
-      <c r="B483" s="15" t="s">
+      <c r="B483" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C483" s="15" t="s">
@@ -15986,7 +15989,7 @@
       <c r="A484" s="15" t="s">
         <v>464</v>
       </c>
-      <c r="B484" s="15" t="s">
+      <c r="B484" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C484" s="15" t="s">
@@ -16000,7 +16003,7 @@
       <c r="A485" s="15" t="s">
         <v>465</v>
       </c>
-      <c r="B485" s="15" t="s">
+      <c r="B485" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C485" s="15" t="s">
@@ -16020,7 +16023,7 @@
       <c r="A486" s="15" t="s">
         <v>1484</v>
       </c>
-      <c r="B486" s="15" t="s">
+      <c r="B486" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C486" s="15" t="s">
@@ -16034,7 +16037,7 @@
       <c r="A487" s="15" t="s">
         <v>466</v>
       </c>
-      <c r="B487" s="15" t="s">
+      <c r="B487" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C487" s="15" t="s">
@@ -16054,7 +16057,7 @@
       <c r="A488" s="15" t="s">
         <v>1486</v>
       </c>
-      <c r="B488" s="15" t="s">
+      <c r="B488" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C488" s="15" t="s">
@@ -16068,7 +16071,7 @@
       <c r="A489" s="15" t="s">
         <v>467</v>
       </c>
-      <c r="B489" s="15" t="s">
+      <c r="B489" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C489" s="15" t="s">
@@ -16088,7 +16091,7 @@
       <c r="A490" s="15" t="s">
         <v>1489</v>
       </c>
-      <c r="B490" s="15" t="s">
+      <c r="B490" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C490" s="15" t="s">
@@ -16102,7 +16105,7 @@
       <c r="A491" s="15" t="s">
         <v>468</v>
       </c>
-      <c r="B491" s="15" t="s">
+      <c r="B491" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C491" s="15" t="s">
@@ -16122,7 +16125,7 @@
       <c r="A492" s="15" t="s">
         <v>1491</v>
       </c>
-      <c r="B492" s="15" t="s">
+      <c r="B492" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C492" s="15" t="s">
@@ -16136,7 +16139,7 @@
       <c r="A493" s="15" t="s">
         <v>469</v>
       </c>
-      <c r="B493" s="15" t="s">
+      <c r="B493" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C493" s="15" t="s">
@@ -16156,7 +16159,7 @@
       <c r="A494" s="15" t="s">
         <v>470</v>
       </c>
-      <c r="B494" s="15" t="s">
+      <c r="B494" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C494" s="15" t="s">
@@ -16170,7 +16173,7 @@
       <c r="A495" s="15" t="s">
         <v>471</v>
       </c>
-      <c r="B495" s="15" t="s">
+      <c r="B495" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C495" s="15" t="s">
@@ -16184,7 +16187,7 @@
       <c r="A496" s="15" t="s">
         <v>472</v>
       </c>
-      <c r="B496" s="15" t="s">
+      <c r="B496" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C496" s="15" t="s">
@@ -16198,7 +16201,7 @@
       <c r="A497" s="15" t="s">
         <v>473</v>
       </c>
-      <c r="B497" s="15" t="s">
+      <c r="B497" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C497" s="15" t="s">
@@ -16218,7 +16221,7 @@
       <c r="A498" s="15" t="s">
         <v>474</v>
       </c>
-      <c r="B498" s="15" t="s">
+      <c r="B498" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C498" s="15" t="s">
@@ -16232,7 +16235,7 @@
       <c r="A499" s="15" t="s">
         <v>475</v>
       </c>
-      <c r="B499" s="15" t="s">
+      <c r="B499" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C499" s="15" t="s">
@@ -16252,7 +16255,7 @@
       <c r="A500" s="15" t="s">
         <v>476</v>
       </c>
-      <c r="B500" s="15" t="s">
+      <c r="B500" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C500" s="15" t="s">
@@ -16266,7 +16269,7 @@
       <c r="A501" s="15" t="s">
         <v>477</v>
       </c>
-      <c r="B501" s="15" t="s">
+      <c r="B501" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C501" s="15" t="s">
@@ -16286,7 +16289,7 @@
       <c r="A502" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="B502" s="15" t="s">
+      <c r="B502" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C502" s="15" t="s">
@@ -16300,7 +16303,7 @@
       <c r="A503" s="15" t="s">
         <v>479</v>
       </c>
-      <c r="B503" s="15" t="s">
+      <c r="B503" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C503" s="15" t="s">
@@ -16320,7 +16323,7 @@
       <c r="A504" s="15" t="s">
         <v>480</v>
       </c>
-      <c r="B504" s="15" t="s">
+      <c r="B504" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C504" s="15" t="s">
@@ -16334,7 +16337,7 @@
       <c r="A505" s="15" t="s">
         <v>481</v>
       </c>
-      <c r="B505" s="15" t="s">
+      <c r="B505" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C505" s="15" t="s">
@@ -16354,7 +16357,7 @@
       <c r="A506" s="15" t="s">
         <v>482</v>
       </c>
-      <c r="B506" s="15" t="s">
+      <c r="B506" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C506" s="15" t="s">
@@ -16368,7 +16371,7 @@
       <c r="A507" s="15" t="s">
         <v>483</v>
       </c>
-      <c r="B507" s="15" t="s">
+      <c r="B507" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C507" s="15" t="s">
@@ -16388,7 +16391,7 @@
       <c r="A508" s="15" t="s">
         <v>484</v>
       </c>
-      <c r="B508" s="15" t="s">
+      <c r="B508" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C508" s="15" t="s">
@@ -16402,7 +16405,7 @@
       <c r="A509" s="15" t="s">
         <v>485</v>
       </c>
-      <c r="B509" s="15" t="s">
+      <c r="B509" s="13" t="s">
         <v>495</v>
       </c>
       <c r="C509" s="15" t="s">
@@ -16422,7 +16425,7 @@
       <c r="A510" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="B510" s="15" t="s">
+      <c r="B510" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C510" s="15" t="s">
@@ -16436,7 +16439,7 @@
       <c r="A511" s="15" t="s">
         <v>487</v>
       </c>
-      <c r="B511" s="15" t="s">
+      <c r="B511" s="13" t="s">
         <v>496</v>
       </c>
       <c r="C511" s="15" t="s">
@@ -16456,7 +16459,7 @@
       <c r="A512" s="15" t="s">
         <v>488</v>
       </c>
-      <c r="B512" s="15" t="s">
+      <c r="B512" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C512" s="15" t="s">
@@ -16470,7 +16473,7 @@
       <c r="A513" s="15" t="s">
         <v>489</v>
       </c>
-      <c r="B513" s="15" t="s">
+      <c r="B513" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C513" s="15" t="s">
@@ -16484,7 +16487,7 @@
       <c r="A514" s="15" t="s">
         <v>490</v>
       </c>
-      <c r="B514" s="15" t="s">
+      <c r="B514" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C514" s="15" t="s">
@@ -16498,7 +16501,7 @@
       <c r="A515" s="15" t="s">
         <v>975</v>
       </c>
-      <c r="B515" s="15" t="s">
+      <c r="B515" s="13" t="s">
         <v>492</v>
       </c>
       <c r="C515" s="15" t="s">

--- a/db_schema_definitions/db_schema_definitions.xlsx
+++ b/db_schema_definitions/db_schema_definitions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/smi9a9_csiro_au/Documents/Documents/AM_metadata/Github/db_schema_definitions_v4.2.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="8_{6C63BC8C-04EA-419E-9D7A-F9C38967BA4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30072470-DDD6-4388-8C4E-8D74D025E208}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="8_{6C63BC8C-04EA-419E-9D7A-F9C38967BA4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E33CED2A-AFBF-41B6-8B4E-22636589B47D}"/>
   <bookViews>
-    <workbookView xWindow="2145" yWindow="4920" windowWidth="34920" windowHeight="15510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2550" yWindow="2490" windowWidth="34920" windowHeight="15510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="4" r:id="rId1"/>
@@ -421,7 +421,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2979" uniqueCount="1573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2981" uniqueCount="1573">
   <si>
     <t>Field</t>
   </si>
@@ -7979,7 +7979,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>497</v>
@@ -11534,6 +11534,9 @@
       <c r="B218" s="25" t="s">
         <v>492</v>
       </c>
+      <c r="C218" s="25" t="s">
+        <v>498</v>
+      </c>
       <c r="G218" s="25" t="s">
         <v>1557</v>
       </c>
@@ -11581,6 +11584,9 @@
       </c>
       <c r="B221" s="25" t="s">
         <v>492</v>
+      </c>
+      <c r="C221" s="25" t="s">
+        <v>498</v>
       </c>
       <c r="G221" s="25" t="s">
         <v>1453</v>
